--- a/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
+++ b/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ontariogov-my.sharepoint.com/personal/christopher_duong_ontario_ca/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUONGCH\Projects\AxeAccessibilityDriver\AxeAccessibilityDriver\AxeAccessibilityDriver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{7556F467-EC1F-4186-B8D9-7BC8F0C8A3FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{131A0251-2613-40E8-9917-032EDF6BD01F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABD62BB-A864-451E-B821-52B9A02F13B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <definedName name="SuccessCriteria" localSheetId="1">#REF!</definedName>
     <definedName name="SuccessCriteria">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3752,121 +3752,22 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3909,6 +3810,105 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5291,176 +5291,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>7000875</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>8305800</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>771525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>3848100</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>1704975</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>4371975</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>7924800</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>1724025</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5942,7 +5772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC53"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -6457,11 +6287,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AF9770-A07B-4681-91C3-E6CA1B6C7937}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AF9770-A07B-4681-91C3-E6CA1B6C7937}">
   <dimension ref="A1:IR30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -8010,85 +7840,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>7000875</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>8305800</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>771525</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Worksheet" shapeId="1028" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>3848100</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>1704975</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Worksheet" shapeId="1028" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Worksheet" shapeId="1029" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>4371975</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>7924800</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>1724025</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Worksheet" shapeId="1029" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -8097,10 +7848,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -8115,20 +7866,26 @@
     <col min="9" max="16" width="0" style="14" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="15" hidden="1" customWidth="1"/>
     <col min="18" max="19" width="0" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="6.140625" style="14" hidden="1"/>
+    <col min="20" max="16378" width="6.140625" style="14" hidden="1"/>
+    <col min="16379" max="16379" width="25.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="16380" max="16380" width="28.42578125" style="14" hidden="1" customWidth="1"/>
+    <col min="16381" max="16381" width="34" style="14" hidden="1" customWidth="1"/>
+    <col min="16382" max="16382" width="29.28515625" style="14" hidden="1" customWidth="1"/>
+    <col min="16383" max="16383" width="16.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="85.85546875" style="14" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="184" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="178"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="185"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="1"/>
@@ -8142,13 +7899,13 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189"/>
       <c r="F2" s="39"/>
       <c r="G2" s="1"/>
       <c r="H2" s="16"/>
@@ -8160,13 +7917,13 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="196"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="203"/>
       <c r="F3" s="39"/>
       <c r="G3" s="1"/>
       <c r="H3" s="16"/>
@@ -8178,12 +7935,12 @@
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
       <c r="E4" s="91"/>
       <c r="F4" s="39"/>
       <c r="G4" s="1"/>
@@ -8196,13 +7953,13 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="213"/>
       <c r="F5" s="39"/>
       <c r="G5" s="1"/>
       <c r="H5" s="16"/>
@@ -8214,13 +7971,13 @@
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="165"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="39"/>
       <c r="G6" s="1"/>
       <c r="H6" s="16"/>
@@ -8232,13 +7989,13 @@
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="165"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="163"/>
       <c r="F7" s="39"/>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -8250,13 +8007,13 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="163"/>
       <c r="F8" s="39"/>
       <c r="G8" s="1"/>
       <c r="H8" s="16"/>
@@ -8268,16 +8025,16 @@
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:19" s="37" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -8287,16 +8044,16 @@
       <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="194" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="187"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -8306,10 +8063,10 @@
       <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="193"/>
+      <c r="B11" s="200"/>
       <c r="C11" s="123" t="s">
         <v>40</v>
       </c>
@@ -8319,10 +8076,10 @@
       <c r="E11" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="188" t="s">
+      <c r="F11" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="188"/>
+      <c r="G11" s="198"/>
       <c r="H11" s="124" t="s">
         <v>53</v>
       </c>
@@ -8334,18 +8091,18 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="189" t="s">
+      <c r="B12" s="191"/>
+      <c r="C12" s="181" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="191"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="183"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -8742,14 +8499,14 @@
       <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="17.45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="175" t="s">
+      <c r="A27" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="176"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
       <c r="G27" s="24">
         <f>SUM(H13:H26)</f>
         <v>0</v>
@@ -8766,18 +8523,18 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="171" t="s">
+      <c r="A28" s="190" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="172"/>
-      <c r="C28" s="189" t="s">
+      <c r="B28" s="197"/>
+      <c r="C28" s="181" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="191"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="183"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -9107,14 +8864,14 @@
       <c r="Q40" s="102"/>
     </row>
     <row r="41" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
       <c r="G41" s="24">
         <f>SUM(H29:H40)</f>
         <v>0</v>
@@ -9131,18 +8888,18 @@
       <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="190" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="189" t="s">
+      <c r="B42" s="197"/>
+      <c r="C42" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="191"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="182"/>
+      <c r="H42" s="183"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -9421,14 +9178,14 @@
       <c r="Q52" s="102"/>
     </row>
     <row r="53" spans="1:17" ht="74.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="175" t="s">
+      <c r="A53" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
+      <c r="B53" s="187"/>
+      <c r="C53" s="187"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
       <c r="G53" s="25">
         <f>SUM(H43:H52)</f>
         <v>0</v>
@@ -9445,18 +9202,18 @@
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="169" t="s">
+      <c r="A54" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="166" t="s">
+      <c r="B54" s="208"/>
+      <c r="C54" s="204" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="168"/>
+      <c r="D54" s="205"/>
+      <c r="E54" s="205"/>
+      <c r="F54" s="205"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="206"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -9519,14 +9276,14 @@
       <c r="Q56" s="102"/>
     </row>
     <row r="57" spans="1:17" ht="43.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="175" t="s">
+      <c r="A57" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="176"/>
+      <c r="B57" s="187"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="187"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="187"/>
       <c r="G57" s="24">
         <f>SUM(H55:H56)</f>
         <v>0</v>
@@ -9543,16 +9300,16 @@
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="173" t="s">
+      <c r="A58" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
-      <c r="E58" s="174"/>
-      <c r="F58" s="211"/>
-      <c r="G58" s="212"/>
-      <c r="H58" s="213"/>
+      <c r="B58" s="210"/>
+      <c r="C58" s="210"/>
+      <c r="D58" s="210"/>
+      <c r="E58" s="210"/>
+      <c r="F58" s="178"/>
+      <c r="G58" s="179"/>
+      <c r="H58" s="180"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -9561,14 +9318,14 @@
       <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="201"/>
-      <c r="B59" s="202"/>
+      <c r="A59" s="168"/>
+      <c r="B59" s="169"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="208" t="s">
+      <c r="D59" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="209"/>
-      <c r="F59" s="210"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="177"/>
       <c r="G59" s="29">
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
@@ -9582,13 +9339,13 @@
       <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="203"/>
-      <c r="B60" s="204"/>
+      <c r="A60" s="170"/>
+      <c r="B60" s="171"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="205" t="s">
+      <c r="D60" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="206"/>
+      <c r="E60" s="173"/>
       <c r="F60" s="32"/>
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
@@ -9600,13 +9357,13 @@
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:17" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="203"/>
-      <c r="B61" s="204"/>
+      <c r="A61" s="170"/>
+      <c r="B61" s="171"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="205" t="s">
+      <c r="D61" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="206"/>
+      <c r="E61" s="173"/>
       <c r="F61" s="32"/>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
@@ -9618,13 +9375,13 @@
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:17" ht="39.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="203"/>
-      <c r="B62" s="204"/>
+      <c r="A62" s="170"/>
+      <c r="B62" s="171"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="207" t="s">
+      <c r="D62" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="206"/>
+      <c r="E62" s="173"/>
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
@@ -9643,11 +9400,11 @@
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="199" t="s">
+      <c r="E63" s="166" t="s">
         <v>155</v>
       </c>
-      <c r="F63" s="199"/>
-      <c r="G63" s="200"/>
+      <c r="F63" s="166"/>
+      <c r="G63" s="167"/>
       <c r="H63" s="43"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -9657,10 +9414,10 @@
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="197" t="s">
+      <c r="A64" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="198"/>
+      <c r="B64" s="161"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="44"/>
@@ -9734,6 +9491,33 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A8:B8"/>
@@ -9750,33 +9534,6 @@
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="F58:H58"/>
     <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="F43:F52 F55:F56 F13:F26 F29:F40">
     <cfRule type="cellIs" dxfId="136" priority="371" operator="equal">
@@ -11585,6 +11342,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
+    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n8bc46b862004554b29f25437dcecdb2>
+    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
+    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
+    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b348aa9236b94ac88332be997039b018>
+    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
+      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
+      <Description>QWPW5C3C64YX-694079015-91</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -11634,37 +11412,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
-    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n8bc46b862004554b29f25437dcecdb2>
-    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
-    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
-    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b348aa9236b94ac88332be997039b018>
-    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
-      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
-      <Description>QWPW5C3C64YX-694079015-91</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B7F6C1E041661428C0804F60FDF9579" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="269e77b516f09928499b1be999970057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17eb8759-252b-418d-a649-70aff91fc5df" xmlns:ns3="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720" xmlns:ns4="93977a9a-7c70-4c47-a38b-6f123b62dce6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41b65eea62d023978f15f5547645abd7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="17eb8759-252b-418d-a649-70aff91fc5df"/>
@@ -11885,15 +11633,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C507B214-A4AD-4147-9668-C65BAB18F1D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -11911,15 +11660,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C5CD16F-1A82-4BAB-88E6-9D42833A2748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11937,4 +11686,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
+++ b/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUONGCH\Projects\AxeAccessibilityDriver\AxeAccessibilityDriver\AxeAccessibilityDriver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABD62BB-A864-451E-B821-52B9A02F13B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DEE297-A189-401F-9CA0-BBA0D78E68F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="270">
   <si>
     <t>1.1.1</t>
   </si>
@@ -3752,22 +3752,121 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3810,105 +3909,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7850,8 +7850,8 @@
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7876,16 +7876,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="177" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="185"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="178"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="1"/>
@@ -7899,13 +7899,13 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="189"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="39"/>
       <c r="G2" s="1"/>
       <c r="H2" s="16"/>
@@ -7917,13 +7917,13 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="203"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
       <c r="F3" s="39"/>
       <c r="G3" s="1"/>
       <c r="H3" s="16"/>
@@ -7935,12 +7935,12 @@
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="179" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="91"/>
       <c r="F4" s="39"/>
       <c r="G4" s="1"/>
@@ -7953,13 +7953,13 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="213"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="39"/>
       <c r="G5" s="1"/>
       <c r="H5" s="16"/>
@@ -7971,13 +7971,13 @@
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="163"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="39"/>
       <c r="G6" s="1"/>
       <c r="H6" s="16"/>
@@ -7989,13 +7989,13 @@
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="163"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="39"/>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -8007,13 +8007,13 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="163"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
       <c r="F8" s="39"/>
       <c r="G8" s="1"/>
       <c r="H8" s="16"/>
@@ -8025,16 +8025,16 @@
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:19" s="37" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -8044,16 +8044,16 @@
       <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="185" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="187"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -8063,10 +8063,10 @@
       <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="200"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="123" t="s">
         <v>40</v>
       </c>
@@ -8076,10 +8076,10 @@
       <c r="E11" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="198" t="s">
+      <c r="F11" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="198"/>
+      <c r="G11" s="188"/>
       <c r="H11" s="124" t="s">
         <v>53</v>
       </c>
@@ -8091,18 +8091,18 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="190" t="s">
+      <c r="A12" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="191"/>
-      <c r="C12" s="181" t="s">
+      <c r="B12" s="182"/>
+      <c r="C12" s="189" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="183"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="191"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="C13" s="94"/>
       <c r="D13" s="95"/>
-      <c r="E13" s="144"/>
+      <c r="E13"/>
       <c r="F13" s="97">
         <f>IF(D13="does not support","list date full support planned, if any &gt;",0)</f>
         <v>0</v>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="C14" s="94"/>
       <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
+      <c r="E14"/>
       <c r="F14" s="97">
         <f>IF(D14="does not support","list date full support planned, if any &gt;",0)</f>
         <v>0</v>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
+      <c r="E15"/>
       <c r="F15" s="97">
         <f t="shared" ref="F15:F26" si="1">IF(D15="does not support","list date full support planned, if any &gt;",0)</f>
         <v>0</v>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="C16" s="94"/>
       <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
+      <c r="E16"/>
       <c r="F16" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="C17" s="94"/>
       <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
+      <c r="E17"/>
       <c r="F17" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="C18" s="94"/>
       <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
+      <c r="E18"/>
       <c r="F18" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="95"/>
-      <c r="E19" s="145"/>
+      <c r="E19"/>
       <c r="F19" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8310,7 +8310,7 @@
       </c>
       <c r="C20" s="94"/>
       <c r="D20" s="95"/>
-      <c r="E20" s="144"/>
+      <c r="E20"/>
       <c r="F20" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="C21" s="94"/>
       <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
+      <c r="E21"/>
       <c r="F21" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="C22" s="94"/>
       <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
+      <c r="E22"/>
       <c r="F22" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="C23" s="94"/>
       <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
+      <c r="E23"/>
       <c r="F23" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="C24" s="94"/>
       <c r="D24" s="95"/>
-      <c r="E24" s="144"/>
+      <c r="E24"/>
       <c r="F24" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="C25" s="94"/>
       <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
+      <c r="E25"/>
       <c r="F25" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="C26" s="94"/>
       <c r="D26" s="95"/>
-      <c r="E26" s="96"/>
+      <c r="E26"/>
       <c r="F26" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8499,14 +8499,14 @@
       <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="17.45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="186" t="s">
+      <c r="A27" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
       <c r="G27" s="24">
         <f>SUM(H13:H26)</f>
         <v>0</v>
@@ -8523,18 +8523,18 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="190" t="s">
+      <c r="A28" s="171" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="197"/>
-      <c r="C28" s="181" t="s">
+      <c r="B28" s="172"/>
+      <c r="C28" s="189" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="183"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="191"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="C29" s="94"/>
       <c r="D29" s="95"/>
-      <c r="E29" s="96"/>
+      <c r="E29"/>
       <c r="F29" s="97">
         <f t="shared" ref="F29:F40" si="2">IF(D29="does not support","list date full support planned, if any &gt;",0)</f>
         <v>0</v>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="C30" s="94"/>
       <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
+      <c r="E30"/>
       <c r="F30" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="C31" s="94"/>
       <c r="D31" s="95"/>
-      <c r="E31" s="96"/>
+      <c r="E31"/>
       <c r="F31" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="C32" s="94"/>
       <c r="D32" s="95"/>
-      <c r="E32" s="96"/>
+      <c r="E32"/>
       <c r="F32" s="97"/>
       <c r="G32" s="98"/>
       <c r="H32" s="99" t="str">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="C33" s="94"/>
       <c r="D33" s="95"/>
-      <c r="E33" s="96"/>
+      <c r="E33"/>
       <c r="F33" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="C34" s="94"/>
       <c r="D34" s="95"/>
-      <c r="E34" s="144"/>
+      <c r="E34"/>
       <c r="F34" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="C35" s="94"/>
       <c r="D35" s="95"/>
-      <c r="E35" s="96"/>
+      <c r="E35"/>
       <c r="F35" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="C36" s="94"/>
       <c r="D36" s="95"/>
-      <c r="E36" s="96"/>
+      <c r="E36"/>
       <c r="F36" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8764,7 +8764,7 @@
       </c>
       <c r="C37" s="94"/>
       <c r="D37" s="95"/>
-      <c r="E37" s="144"/>
+      <c r="E37"/>
       <c r="F37" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="C38" s="94"/>
       <c r="D38" s="95"/>
-      <c r="E38" s="96"/>
+      <c r="E38"/>
       <c r="F38" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="C39" s="94"/>
       <c r="D39" s="95"/>
-      <c r="E39" s="144"/>
+      <c r="E39"/>
       <c r="F39" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="C40" s="94"/>
       <c r="D40" s="95"/>
-      <c r="E40" s="96"/>
+      <c r="E40"/>
       <c r="F40" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8864,14 +8864,14 @@
       <c r="Q40" s="102"/>
     </row>
     <row r="41" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="176"/>
       <c r="G41" s="24">
         <f>SUM(H29:H40)</f>
         <v>0</v>
@@ -8888,18 +8888,18 @@
       <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="190" t="s">
+      <c r="A42" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="197"/>
-      <c r="C42" s="181" t="s">
+      <c r="B42" s="172"/>
+      <c r="C42" s="189" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="182"/>
-      <c r="E42" s="182"/>
-      <c r="F42" s="182"/>
-      <c r="G42" s="182"/>
-      <c r="H42" s="183"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="191"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="95"/>
-      <c r="E43" s="144"/>
+      <c r="E43"/>
       <c r="F43" s="97">
         <f t="shared" ref="F43:F56" si="4">IF(D43="does not support","list date full support planned, if any &gt;",0)</f>
         <v>0</v>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="C44" s="94"/>
       <c r="D44" s="95"/>
-      <c r="E44" s="96"/>
+      <c r="E44"/>
       <c r="F44" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C45" s="94"/>
       <c r="D45" s="95"/>
-      <c r="E45" s="96"/>
+      <c r="E45"/>
       <c r="F45" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="C46" s="94"/>
       <c r="D46" s="95"/>
-      <c r="E46" s="96"/>
+      <c r="E46"/>
       <c r="F46" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="C47" s="94"/>
       <c r="D47" s="95"/>
-      <c r="E47" s="96"/>
+      <c r="E47"/>
       <c r="F47" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="C48" s="94"/>
       <c r="D48" s="95"/>
-      <c r="E48" s="96"/>
+      <c r="E48"/>
       <c r="F48" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="C49" s="94"/>
       <c r="D49" s="95"/>
-      <c r="E49" s="96"/>
+      <c r="E49"/>
       <c r="F49" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="C50" s="94"/>
       <c r="D50" s="95"/>
-      <c r="E50" s="96"/>
+      <c r="E50"/>
       <c r="F50" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="C51" s="94"/>
       <c r="D51" s="95"/>
-      <c r="E51" s="96"/>
+      <c r="E51"/>
       <c r="F51" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="C52" s="94"/>
       <c r="D52" s="95"/>
-      <c r="E52" s="144"/>
+      <c r="E52"/>
       <c r="F52" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9178,14 +9178,14 @@
       <c r="Q52" s="102"/>
     </row>
     <row r="53" spans="1:17" ht="74.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="186" t="s">
+      <c r="A53" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="187"/>
-      <c r="C53" s="187"/>
-      <c r="D53" s="187"/>
-      <c r="E53" s="187"/>
-      <c r="F53" s="187"/>
+      <c r="B53" s="176"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
       <c r="G53" s="25">
         <f>SUM(H43:H52)</f>
         <v>0</v>
@@ -9202,18 +9202,18 @@
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="207" t="s">
+      <c r="A54" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="208"/>
-      <c r="C54" s="204" t="s">
+      <c r="B54" s="170"/>
+      <c r="C54" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="205"/>
-      <c r="E54" s="205"/>
-      <c r="F54" s="205"/>
-      <c r="G54" s="205"/>
-      <c r="H54" s="206"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="168"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="C55" s="94"/>
       <c r="D55" s="95"/>
-      <c r="E55" s="145"/>
+      <c r="E55"/>
       <c r="F55" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="C56" s="94"/>
       <c r="D56" s="95"/>
-      <c r="E56" s="96"/>
+      <c r="E56"/>
       <c r="F56" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9276,14 +9276,14 @@
       <c r="Q56" s="102"/>
     </row>
     <row r="57" spans="1:17" ht="43.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="186" t="s">
+      <c r="A57" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="187"/>
-      <c r="C57" s="187"/>
-      <c r="D57" s="187"/>
-      <c r="E57" s="187"/>
-      <c r="F57" s="187"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="176"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="176"/>
       <c r="G57" s="24">
         <f>SUM(H55:H56)</f>
         <v>0</v>
@@ -9300,16 +9300,16 @@
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="209" t="s">
+      <c r="A58" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="210"/>
-      <c r="C58" s="210"/>
-      <c r="D58" s="210"/>
-      <c r="E58" s="210"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="179"/>
-      <c r="H58" s="180"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
+      <c r="E58" s="174"/>
+      <c r="F58" s="211"/>
+      <c r="G58" s="212"/>
+      <c r="H58" s="213"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -9318,14 +9318,14 @@
       <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="168"/>
-      <c r="B59" s="169"/>
+      <c r="A59" s="201"/>
+      <c r="B59" s="202"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="175" t="s">
+      <c r="D59" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="176"/>
-      <c r="F59" s="177"/>
+      <c r="E59" s="209"/>
+      <c r="F59" s="210"/>
       <c r="G59" s="29">
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
@@ -9339,13 +9339,13 @@
       <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="170"/>
-      <c r="B60" s="171"/>
+      <c r="A60" s="203"/>
+      <c r="B60" s="204"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="172" t="s">
+      <c r="D60" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="173"/>
+      <c r="E60" s="206"/>
       <c r="F60" s="32"/>
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
@@ -9357,13 +9357,13 @@
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:17" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="170"/>
-      <c r="B61" s="171"/>
+      <c r="A61" s="203"/>
+      <c r="B61" s="204"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="172" t="s">
+      <c r="D61" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="173"/>
+      <c r="E61" s="206"/>
       <c r="F61" s="32"/>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
@@ -9375,13 +9375,13 @@
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:17" ht="39.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="170"/>
-      <c r="B62" s="171"/>
+      <c r="A62" s="203"/>
+      <c r="B62" s="204"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="174" t="s">
+      <c r="D62" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="173"/>
+      <c r="E62" s="206"/>
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
@@ -9400,11 +9400,11 @@
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="166" t="s">
+      <c r="E63" s="199" t="s">
         <v>155</v>
       </c>
-      <c r="F63" s="166"/>
-      <c r="G63" s="167"/>
+      <c r="F63" s="199"/>
+      <c r="G63" s="200"/>
       <c r="H63" s="43"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -9414,10 +9414,10 @@
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="160" t="s">
+      <c r="A64" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="161"/>
+      <c r="B64" s="198"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="44"/>
@@ -9491,17 +9491,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C42:H42"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A2:B2"/>
@@ -9518,22 +9523,17 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="F43:F52 F55:F56 F13:F26 F29:F40">
     <cfRule type="cellIs" dxfId="136" priority="371" operator="equal">
@@ -11342,27 +11342,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
-    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n8bc46b862004554b29f25437dcecdb2>
-    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
-    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
-    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b348aa9236b94ac88332be997039b018>
-    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
-      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
-      <Description>QWPW5C3C64YX-694079015-91</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -11412,7 +11391,37 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
+    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n8bc46b862004554b29f25437dcecdb2>
+    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
+    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
+    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b348aa9236b94ac88332be997039b018>
+    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
+      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
+      <Description>QWPW5C3C64YX-694079015-91</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B7F6C1E041661428C0804F60FDF9579" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="269e77b516f09928499b1be999970057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17eb8759-252b-418d-a649-70aff91fc5df" xmlns:ns3="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720" xmlns:ns4="93977a9a-7c70-4c47-a38b-6f123b62dce6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41b65eea62d023978f15f5547645abd7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="17eb8759-252b-418d-a649-70aff91fc5df"/>
@@ -11633,16 +11642,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C507B214-A4AD-4147-9668-C65BAB18F1D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -11660,15 +11668,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C5CD16F-1A82-4BAB-88E6-9D42833A2748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11686,12 +11694,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
+++ b/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUONGCH\Projects\AxeAccessibilityDriver\AxeAccessibilityDriver\AxeAccessibilityDriver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DEE297-A189-401F-9CA0-BBA0D78E68F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742EF0C8-6EB1-44D1-A0ED-0C9622A6974A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="252">
   <si>
     <t>1.1.1</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Web Accessibility falls within the information and communications standard of Accessibility for Ontarians with Disabilities Act (AODA). Section 14, Accessible websites and web content outlines the following requirements ("success criteria") from Web Content Accessibility Guidelines (WCAG) 2.0. Each criterion is categorized as either a level “A” or “AA”.</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Evaluation Date:</t>
   </si>
   <si>
@@ -2294,54 +2291,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>to be determined</t>
-  </si>
-  <si>
-    <t>http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=i50BE89F36FE54165B4E6E1D6E697D591&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=i50BE89F36FE54165B4E6E1D6E697D591&amp;cmProperties%5BdefaultName%5D=Help+Page&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false</t>
-  </si>
-  <si>
-    <t>Ensures every id attribute value used in ARIA and in labels is unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ensures &lt;img&gt; elements have alternate text or a role of none or presentation</t>
-  </si>
-  <si>
-    <t>http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/v1/disp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ensures every HTML document has a lang attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ensures that lists are structured correctly</t>
-  </si>
-  <si>
-    <t>http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=iBED499536FAD473C8A83A8C9EC9356DF&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=iBED499536FAD473C8A83A8C9EC9356DF&amp;cmProperties%5BdefaultName%5D=CGRT_Main_Menu&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false</t>
-  </si>
-  <si>
-    <t>Ensures links have discernible text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FCollege+Graduation+Rate+Report&amp;id=iC12ED54445264C6796833B12B83EB83A&amp;objRef=iC12ED54445264C6796833B12B83EB83A&amp;type=report&amp;prompt=false&amp;drillFormLabel=drillForm1563375283129&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=iC12ED54445264C6796833B12B83EB83A&amp;cmProperties%5BdefaultName%5D=College+Graduation+Rate+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                                                                                                                                                                                                                                     http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FCollege+Graduation+Rate+Report&amp;id=iC12ED54445264C6796833B12B83EB83A&amp;objRef=iC12ED54445264C6796833B12B83EB83A&amp;type=report&amp;prompt=false&amp;drillFormLabel=drillForm1563375305286&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=iC12ED54445264C6796833B12B83EB83A&amp;cmProperties%5BdefaultName%5D=College+Graduation+Rate+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                                                                                                                                                                                                                                http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FCollege+Graduation+Rate+Report&amp;id=iC12ED54445264C6796833B12B83EB83A&amp;objRef=iC12ED54445264C6796833B12B83EB83A&amp;type=report&amp;prompt=false&amp;drillFormLabel=drillForm1563375311111&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=iC12ED54445264C6796833B12B83EB83A&amp;cmProperties%5BdefaultName%5D=College+Graduation+Rate+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                                                                                                                                                                                                                                       http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FCollege+Graduation+Rate+Report&amp;id=iC12ED54445264C6796833B12B83EB83A&amp;objRef=iC12ED54445264C6796833B12B83EB83A&amp;type=report&amp;prompt=false&amp;drillFormLabel=drillForm1563375604210&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=iC12ED54445264C6796833B12B83EB83A&amp;cmProperties%5BdefaultName%5D=College+Graduation+Rate+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                                                                                                                                                                                                                                   http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FCollege+Incomplete+Rate+Report&amp;id=i77708950B2C3418A878B67CC809B30C4&amp;objRef=i77708950B2C3418A878B67CC809B30C4&amp;type=report&amp;prompt=false&amp;drillFormLabel=drillForm1563375638525&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i77708950B2C3418A878B67CC809B30C4&amp;cmProperties%5BdefaultName%5D=College+Incomplete+Rate+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FCollege+Graduation+Rate+Report&amp;id=iC12ED54445264C6796833B12B83EB83A&amp;objRef=iC12ED54445264C6796833B12B83EB83A&amp;type=report&amp;prompt=false&amp;drillFormLabel=drillForm1563375614296&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=iC12ED54445264C6796833B12B83EB83A&amp;cmProperties%5BdefaultName%5D=College+Graduation+Rate+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                                                                                                                                                                                                                                        http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FExclusions+Report&amp;id=i4CBEEE004D2845418EB14D7B05A836EE&amp;objRef=i4CBEEE004D2845418EB14D7B05A836EE&amp;type=report&amp;prompt=false&amp;drillFormLabel=drillForm1563375641080&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i4CBEEE004D2845418EB14D7B05A836EE&amp;cmProperties%5BdefaultName%5D=Exclusions+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                        http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=iA1E86DF277984E8583016BDAE5180892&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=iA1E86DF277984E8583016BDAE5180892&amp;cmProperties%5BdefaultName%5D=CGRT+Prompt+Page+Template+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false                      http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=i8164CD2759274482A7907BB25C194718  &amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=i8164CD2759274482A7907BB25C194718&amp;cmProperties%5BdefaultName%5D=Template+TAB4_CGRT&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;cmProperties%5Bpermissions%5D%5B%5D=write&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false                                                                                                                                   </t>
-  </si>
-  <si>
-    <t>Ensures &lt;meta name="viewport"&gt; does not disable text scaling and zooming</t>
-  </si>
-  <si>
-    <t>http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=iBED499536FAD473C8A83A8C9EC9356DF&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=iBED499536FAD473C8A83A8C9EC9356DF&amp;cmProperties%5BdefaultName%5D=CGRT_Main_Menu&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false                                                                                                                                                                                                                                                                                                                                                                                       http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FTAB_Reports%2FCGRT101+-+TAB+1%3A+Students+Eligible+for+General+Purpose+Grant+Funding&amp;id=i0914B5B236D246229C7C4B073E67F472&amp;objRef=i0914B5B236D246229C7C4B073E67F472&amp;type=report&amp;prompt=&amp;drillFormLabel=drillForm1563377505708&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i0914B5B236D246229C7C4B073E67F472&amp;cmProperties%5BdefaultName%5D=CGRT101+-+TAB+1%3A+Students+Eligible+for+General+Purpose+Grant+Funding&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                           http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FTAB_Reports%2FCGRT102+-+TAB+2%3A+Students+Funded+Through+the+Second+Career+Initiative&amp;id=i8F2579D71F2F435697AA2CA0E834A46E&amp;objRef=i8F2579D71F2F435697AA2CA0E834A46E&amp;type=report&amp;prompt=&amp;drillFormLabel=drillForm1563377639806&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i8F2579D71F2F435697AA2CA0E834A46E&amp;cmProperties%5BdefaultName%5D=CGRT102+-+TAB+2%3A+Students+Funded+Through+the+Second+Career+Initiative&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                                                                                                                                                        http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FTAB_Reports%2FCGRT104+-+TAB+4%3A+International+Students&amp;id=i8967F506D93C4AF78EDAE0308BC1F784&amp;objRef=i8967F506D93C4AF78EDAE0308BC1F784&amp;type=report&amp;prompt=&amp;drillFormLabel=drillForm1563377642329&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i8967F506D93C4AF78EDAE0308BC1F784&amp;cmProperties%5BdefaultName%5D=CGRT104+-+TAB+4%3A+International+Students&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                          http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FCollege+Graduation+Rate+Report&amp;id=iC12ED54445264C6796833B12B83EB83A&amp;objRef=iC12ED54445264C6796833B12B83EB83A&amp;type=report&amp;prompt=false&amp;drillFormLabel=drillForm1563377657241&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=iC12ED54445264C6796833B12B83EB83A&amp;cmProperties%5BdefaultName%5D=College+Graduation+Rate+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                                                                                                                                                                                                                               http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=i8164CD2759274482A7907BB25C194718&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=i8164CD2759274482A7907BB25C194718&amp;cmProperties%5BdefaultName%5D=Template+TAB4_CGRT&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;cmProperties%5Bpermissions%5D%5B%5D=write&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false      http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=i50BE89F36FE54165B4E6E1D6E697D591&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=i50BE89F36FE54165B4E6E1D6E697D591&amp;cmProperties%5BdefaultName%5D=Help+Page&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false                                                                         http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=i4CBEEE004D2845418EB14D7B05A836EE&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=i4CBEEE004D2845418EB14D7B05A836EE&amp;cmProperties%5BdefaultName%5D=Exclusions+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false                                                                                                                                                                                                                                                                                                                                                                                   http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=iA1E86DF277984E8583016BDAE5180892&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=iA1E86DF277984E8583016BDAE5180892&amp;cmProperties%5BdefaultName%5D=CGRT+Prompt+Page+Template+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false</t>
-  </si>
-  <si>
-    <t>Ensures &lt;iframe&gt; and &lt;frame&gt; elements contain a non-empty title attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=iBED499536FAD473C8A83A8C9EC9356DF&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=iBED499536FAD473C8A83A8C9EC9356DF&amp;cmProperties%5BdefaultName%5D=CGRT_Main_Menu&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false                                                                                                                                                                                                                                                                                                                                                                                          http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FTAB_Reports%2FCGRT101+-+TAB+1%3A+Students+Eligible+for+General+Purpose+Grant+Funding&amp;id=i0914B5B236D246229C7C4B073E67F472&amp;objRef=i0914B5B236D246229C7C4B073E67F472&amp;type=report&amp;prompt=&amp;drillFormLabel=drillForm1563385180062&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i0914B5B236D246229C7C4B073E67F472&amp;cmProperties%5BdefaultName%5D=CGRT101+-+TAB+1%3A+Students+Eligible+for+General+Purpose+Grant+Funding&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse            http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FTAB_Reports%2FCGRT102+-+TAB+2%3A+Students+Funded+Through+the+Second+Career+Initiative&amp;id=i8F2579D71F2F435697AA2CA0E834A46E&amp;objRef=i8F2579D71F2F435697AA2CA0E834A46E&amp;type=report&amp;prompt=&amp;drillFormLabel=drillForm1563385540749&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i8F2579D71F2F435697AA2CA0E834A46E&amp;cmProperties%5BdefaultName%5D=CGRT102+-+TAB+2%3A+Students+Funded+Through+the+Second+Career+Initiative&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                                                                                                                                                          http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FTAB_Reports%2FCGRT104+-+TAB+4%3A+International+Students&amp;id=i8967F506D93C4AF78EDAE0308BC1F784&amp;objRef=i8967F506D93C4AF78EDAE0308BC1F784&amp;type=report&amp;prompt=&amp;drillFormLabel=drillForm1563385576519&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i8967F506D93C4AF78EDAE0308BC1F784&amp;cmProperties%5BdefaultName%5D=CGRT104+-+TAB+4%3A+International+Students&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                    http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/v1/disp                                                                                                                                                                                                                                                                                                                                     http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FCollege+Graduation+Rate+Report&amp;id=iC12ED54445264C6796833B12B83EB83A&amp;objRef=iC12ED54445264C6796833B12B83EB83A&amp;type=report&amp;prompt=false&amp;drillFormLabel=drillForm1563385651881&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=iC12ED54445264C6796833B12B83EB83A&amp;cmProperties%5BdefaultName%5D=College+Graduation+Rate+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                                                                                                                                                                                                                                    http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=iE3D324C33DAB46EF9426451D040C6161&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=iE3D324C33DAB46EF9426451D040C6161&amp;cmProperties%5BdefaultName%5D=Template+TAB1_CGRT&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;cmProperties%5Bpermissions%5D%5B%5D=write&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=i432FE3420E4347059D217CCACCEDCC28&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=i432FE3420E4347059D217CCACCEDCC28&amp;cmProperties%5BdefaultName%5D=Template+TAB2_CGRT&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;cmProperties%5Bpermissions%5D%5B%5D=write&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false    http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=i8164CD2759274482A7907BB25C194718&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=i8164CD2759274482A7907BB25C194718&amp;cmProperties%5BdefaultName%5D=Template+TAB4_CGRT&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;cmProperties%5Bpermissions%5D%5B%5D=write&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=falsehttp://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=i50BE89F36FE54165B4E6E1D6E697D591&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=i50BE89F36FE54165B4E6E1D6E697D591&amp;cmProperties%5BdefaultName%5D=Help+Page&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false                                                                  http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=i4CBEEE004D2845418EB14D7B05A836EE&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=i4CBEEE004D2845418EB14D7B05A836EE&amp;cmProperties%5BdefaultName%5D=Exclusions+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false                                                                                                                                                                                                                                                                                                                                                                                         http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=i77708950B2C3418A878B67CC809B30C4&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=i77708950B2C3418A878B67CC809B30C4&amp;cmProperties%5BdefaultName%5D=College+Incomplete+Rate+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false                                              http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;id=iA1E86DF277984E8583016BDAE5180892&amp;isViewer=false&amp;isNewFromModule=false&amp;isNewFromPackage=false&amp;isNewDataSetFromModule=false&amp;isNewDataSetFromPackage=false&amp;isTemplate=false&amp;isDataset=false&amp;UIProfile=Titan&amp;cmProperties%5Bid%5D=iA1E86DF277984E8583016BDAE5180892&amp;cmProperties%5BdefaultName%5D=CGRT+Prompt+Page+Template+Report&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse&amp;rsFinalRunOptions%5Bformat%5D=HTML&amp;rsFinalRunOptions%5Ba11y%5D=true&amp;rsFinalRunOptions%5Bbidi%5D=false&amp;rsFinalRunOptions%5BrunInAdvancedViewer%5D=false&amp;rsFinalRunOptions%5BDownload%5D=false&amp;rsFinalRunOptions%5Bprompt%5D=true&amp;rsFinalRunOptions%5BisApplication%5D=false      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ensures the contrast between foreground and background colors meets WCAG 2 AA contrast ratio thresholds</t>
-  </si>
-  <si>
-    <t>http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FTAB_Reports%2FCGRT101+-+TAB+1%3A+Students+Eligible+for+General+Purpose+Grant+Funding&amp;id=i0914B5B236D246229C7C4B073E67F472&amp;objRef=i0914B5B236D246229C7C4B073E67F472&amp;type=report&amp;prompt=&amp;drillFormLabel=drillForm1563385180062&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i0914B5B236D246229C7C4B073E67F472&amp;cmProperties%5BdefaultName%5D=CGRT101+-+TAB+1%3A+Students+Eligible+for+General+Purpose+Grant+Funding&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse       http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FTAB_Reports%2FCGRT102+-+TAB+2%3A+Students+Funded+Through+the+Second+Career+Initiative&amp;id=i8F2579D71F2F435697AA2CA0E834A46E&amp;objRef=i8F2579D71F2F435697AA2CA0E834A46E&amp;type=report&amp;prompt=&amp;drillFormLabel=drillForm1563385540749&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i8F2579D71F2F435697AA2CA0E834A46E&amp;cmProperties%5BdefaultName%5D=CGRT102+-+TAB+2%3A+Students+Funded+Through+the+Second+Career+Initiative&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse                                                                                                                                                                                                                                                                                                                                   http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FTAB_Reports%2FCGRT103+-+TAB+3%3A+Students+Funded+Through+the+CODA+Initiative&amp;id=i3EBFDEF6023F4989A5891FE79B830254&amp;objRef=i3EBFDEF6023F4989A5891FE79B830254&amp;type=report&amp;prompt=&amp;drillFormLabel=drillForm1563386928831&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i3EBFDEF6023F4989A5891FE79B830254&amp;cmProperties%5BdefaultName%5D=CGRT103+-+TAB+3%3A+Students+Funded+Through+the+CODA+Initiative&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse     http://intra.dev.edcs7.csc.gov.on.ca:82/uat1111/bi/?perspective=classicviewer&amp;pathRef=.public_folders%2FCGRT+Project%2FReports%2FTAB_Reports%2FCGRT104+-+TAB+4%3A+International+Students&amp;id=i8967F506D93C4AF78EDAE0308BC1F784&amp;objRef=i8967F506D93C4AF78EDAE0308BC1F784&amp;type=report&amp;prompt=&amp;drillFormLabel=drillForm1563386931077&amp;action=run&amp;format=HTML&amp;cmProperties%5Bid%5D=i8967F506D93C4AF78EDAE0308BC1F784&amp;cmProperties%5BdefaultName%5D=CGRT104+-+TAB+4%3A+International+Students&amp;cmProperties%5Btype%5D=report&amp;cmProperties%5Bpermissions%5D%5B%5D=execute&amp;cmProperties%5Bpermissions%5D%5B%5D=read&amp;cmProperties%5Bpermissions%5D%5B%5D=traverse</t>
-  </si>
-  <si>
     <t>Doesn’t ensure &lt;meta name="viewport"&gt; does not disable text scaling and zooming</t>
   </si>
   <si>
@@ -2372,9 +2321,6 @@
   </si>
   <si>
     <t>Defect ID: 545 1.1.1 AODA - CGRT - PDF of Tab Report does not meet accessibility standard</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>Methods and Tools :</t>
@@ -3752,121 +3698,22 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3909,6 +3756,105 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5787,7 +5733,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="60" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="58"/>
@@ -5798,7 +5744,7 @@
     </row>
     <row r="2" spans="1:7" s="60" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="131"/>
       <c r="C2" s="58"/>
@@ -5809,7 +5755,7 @@
     </row>
     <row r="3" spans="1:7" s="74" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="72"/>
       <c r="C3" s="73"/>
@@ -5820,7 +5766,7 @@
     </row>
     <row r="4" spans="1:7" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
@@ -5831,7 +5777,7 @@
     </row>
     <row r="5" spans="1:7" s="74" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="72"/>
       <c r="C5" s="73"/>
@@ -5842,7 +5788,7 @@
     </row>
     <row r="6" spans="1:7" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="72"/>
       <c r="C6" s="73"/>
@@ -5853,7 +5799,7 @@
     </row>
     <row r="7" spans="1:7" s="74" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="73"/>
@@ -5873,7 +5819,7 @@
     </row>
     <row r="9" spans="1:7" s="74" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
@@ -5884,7 +5830,7 @@
     </row>
     <row r="10" spans="1:7" s="74" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
@@ -5895,7 +5841,7 @@
     </row>
     <row r="11" spans="1:7" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
@@ -5906,7 +5852,7 @@
     </row>
     <row r="12" spans="1:7" s="74" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
@@ -5917,7 +5863,7 @@
     </row>
     <row r="13" spans="1:7" s="74" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
@@ -5928,7 +5874,7 @@
     </row>
     <row r="14" spans="1:7" s="74" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="73"/>
@@ -5939,7 +5885,7 @@
     </row>
     <row r="15" spans="1:7" s="74" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
@@ -5950,19 +5896,19 @@
     </row>
     <row r="16" spans="1:7" s="61" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="66"/>
     </row>
     <row r="17" spans="1:7" s="80" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="72"/>
     </row>
     <row r="18" spans="1:7" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="72"/>
       <c r="C18" s="73"/>
@@ -5973,7 +5919,7 @@
     </row>
     <row r="19" spans="1:7" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="73"/>
@@ -5984,7 +5930,7 @@
     </row>
     <row r="20" spans="1:7" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="126"/>
       <c r="C20" s="127"/>
@@ -5995,7 +5941,7 @@
     </row>
     <row r="21" spans="1:7" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="72"/>
       <c r="C21" s="73"/>
@@ -6015,7 +5961,7 @@
     </row>
     <row r="23" spans="1:7" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B23" s="72"/>
       <c r="C23" s="73"/>
@@ -6026,7 +5972,7 @@
     </row>
     <row r="24" spans="1:7" s="74" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
@@ -6037,7 +5983,7 @@
     </row>
     <row r="25" spans="1:7" s="74" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="72"/>
       <c r="C25" s="73"/>
@@ -6048,7 +5994,7 @@
     </row>
     <row r="26" spans="1:7" s="74" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="72"/>
       <c r="C26" s="73"/>
@@ -6059,7 +6005,7 @@
     </row>
     <row r="27" spans="1:7" s="74" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="72"/>
       <c r="C27" s="73"/>
@@ -6070,19 +6016,19 @@
     </row>
     <row r="28" spans="1:7" s="61" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="66"/>
     </row>
     <row r="29" spans="1:7" s="61" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="68"/>
     </row>
     <row r="30" spans="1:7" s="74" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="72"/>
       <c r="C30" s="73"/>
@@ -6093,7 +6039,7 @@
     </row>
     <row r="31" spans="1:7" s="74" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="72"/>
       <c r="C31" s="73"/>
@@ -6104,7 +6050,7 @@
     </row>
     <row r="32" spans="1:7" s="74" customFormat="1" ht="97.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="72"/>
       <c r="C32" s="73"/>
@@ -6115,19 +6061,19 @@
     </row>
     <row r="33" spans="1:7" ht="64.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33" s="62"/>
     </row>
     <row r="34" spans="1:7" s="61" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" s="69"/>
     </row>
     <row r="35" spans="1:7" s="74" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="72"/>
       <c r="C35" s="73"/>
@@ -6138,7 +6084,7 @@
     </row>
     <row r="36" spans="1:7" s="74" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="72"/>
       <c r="C36" s="73"/>
@@ -6149,7 +6095,7 @@
     </row>
     <row r="37" spans="1:7" s="74" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B37" s="72"/>
       <c r="C37" s="73"/>
@@ -6160,7 +6106,7 @@
     </row>
     <row r="38" spans="1:7" s="74" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="72"/>
       <c r="C38" s="73"/>
@@ -6171,7 +6117,7 @@
     </row>
     <row r="39" spans="1:7" s="74" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="72"/>
       <c r="C39" s="73"/>
@@ -6182,7 +6128,7 @@
     </row>
     <row r="40" spans="1:7" s="74" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="129" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="72"/>
       <c r="C40" s="73"/>
@@ -6193,13 +6139,13 @@
     </row>
     <row r="41" spans="1:7" s="61" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="69"/>
     </row>
     <row r="42" spans="1:7" s="74" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42" s="72"/>
       <c r="C42" s="73"/>
@@ -6210,7 +6156,7 @@
     </row>
     <row r="43" spans="1:7" s="74" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43" s="72"/>
       <c r="C43" s="73"/>
@@ -6221,7 +6167,7 @@
     </row>
     <row r="44" spans="1:7" s="74" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" s="72"/>
       <c r="C44" s="73"/>
@@ -6232,7 +6178,7 @@
     </row>
     <row r="45" spans="1:7" s="74" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B45" s="72"/>
       <c r="C45" s="73"/>
@@ -6243,7 +6189,7 @@
     </row>
     <row r="46" spans="1:7" s="74" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="83"/>
       <c r="C46" s="73"/>
@@ -6254,7 +6200,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2"/>
@@ -6306,7 +6252,7 @@
   <sheetData>
     <row r="1" spans="1:252" s="50" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -6339,7 +6285,7 @@
     </row>
     <row r="3" spans="1:252" s="54" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="53" t="e">
         <f>COUNTIF('[3]WCAG 2.0 Compliance Checklist'!D13:D56,"Criteria not applicable")</f>
@@ -6598,7 +6544,7 @@
     </row>
     <row r="4" spans="1:252" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -6611,7 +6557,7 @@
     </row>
     <row r="5" spans="1:252" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -6623,7 +6569,7 @@
     </row>
     <row r="6" spans="1:252" s="54" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -6879,7 +6825,7 @@
     </row>
     <row r="7" spans="1:252" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
@@ -6892,7 +6838,7 @@
     </row>
     <row r="8" spans="1:252" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -6904,7 +6850,7 @@
     </row>
     <row r="9" spans="1:252" s="54" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -7160,7 +7106,7 @@
     </row>
     <row r="10" spans="1:252" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -7173,7 +7119,7 @@
     </row>
     <row r="11" spans="1:252" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -7185,7 +7131,7 @@
     </row>
     <row r="12" spans="1:252" s="54" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
@@ -7441,7 +7387,7 @@
     </row>
     <row r="13" spans="1:252" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -7454,7 +7400,7 @@
     </row>
     <row r="14" spans="1:252" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -7466,7 +7412,7 @@
     </row>
     <row r="15" spans="1:252" s="54" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
@@ -7722,7 +7668,7 @@
     </row>
     <row r="16" spans="1:252" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="90" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -7735,7 +7681,7 @@
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="88" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -7747,7 +7693,7 @@
     </row>
     <row r="18" spans="1:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="89" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
@@ -7760,7 +7706,7 @@
     </row>
     <row r="19" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="90" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -7772,7 +7718,7 @@
     </row>
     <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="88" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -7785,32 +7731,32 @@
     </row>
     <row r="21" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="90" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="88" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="156" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="88" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7818,7 +7764,7 @@
     </row>
     <row r="28" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="88" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7829,7 +7775,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="158" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7850,7 +7796,7 @@
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -7876,16 +7822,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="177" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="178"/>
+      <c r="A1" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="185"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="1"/>
@@ -7899,13 +7845,13 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189"/>
       <c r="F2" s="39"/>
       <c r="G2" s="1"/>
       <c r="H2" s="16"/>
@@ -7917,13 +7863,13 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="196"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="203"/>
       <c r="F3" s="39"/>
       <c r="G3" s="1"/>
       <c r="H3" s="16"/>
@@ -7935,12 +7881,12 @@
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="179" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
+      <c r="A4" s="165" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="165"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
       <c r="E4" s="91"/>
       <c r="F4" s="39"/>
       <c r="G4" s="1"/>
@@ -7953,13 +7899,13 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
+      <c r="A5" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="164"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="213"/>
       <c r="F5" s="39"/>
       <c r="G5" s="1"/>
       <c r="H5" s="16"/>
@@ -7971,13 +7917,13 @@
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="161" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="165"/>
+      <c r="A6" s="164" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="39"/>
       <c r="G6" s="1"/>
       <c r="H6" s="16"/>
@@ -7989,13 +7935,13 @@
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="161" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="165"/>
+      <c r="A7" s="164" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="164"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="163"/>
       <c r="F7" s="39"/>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -8007,13 +7953,13 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="161" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
+      <c r="A8" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="164"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="163"/>
       <c r="F8" s="39"/>
       <c r="G8" s="1"/>
       <c r="H8" s="16"/>
@@ -8025,16 +7971,16 @@
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:19" s="37" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -8044,16 +7990,16 @@
       <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="185" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="187"/>
+      <c r="A10" s="194" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -8063,23 +8009,23 @@
       <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="193"/>
+      <c r="B11" s="200"/>
       <c r="C11" s="123" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="188" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="188"/>
+      <c r="G11" s="198"/>
       <c r="H11" s="124" t="s">
         <v>53</v>
       </c>
@@ -8091,18 +8037,18 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="189" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="191"/>
+      <c r="A12" s="190" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="191"/>
+      <c r="C12" s="181" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="183"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -8169,7 +8115,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="95"/>
@@ -8277,7 +8223,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="95"/>
@@ -8298,7 +8244,7 @@
       <c r="M19" s="100"/>
       <c r="N19" s="100"/>
       <c r="Q19" s="102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8306,7 +8252,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="94"/>
       <c r="D20" s="95"/>
@@ -8327,7 +8273,7 @@
       <c r="M20" s="100"/>
       <c r="N20" s="100"/>
       <c r="Q20" s="102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8335,7 +8281,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="94"/>
       <c r="D21" s="95"/>
@@ -8356,7 +8302,7 @@
       <c r="M21" s="100"/>
       <c r="N21" s="100"/>
       <c r="Q21" s="102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8385,7 +8331,7 @@
       <c r="M22" s="100"/>
       <c r="N22" s="100"/>
       <c r="Q22" s="102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="101" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -8393,7 +8339,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="94"/>
       <c r="D23" s="95"/>
@@ -8420,7 +8366,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="94"/>
       <c r="D24" s="95"/>
@@ -8449,7 +8395,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" s="94"/>
       <c r="D25" s="95"/>
@@ -8476,7 +8422,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="94"/>
       <c r="D26" s="95"/>
@@ -8499,14 +8445,14 @@
       <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="17.45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="175" t="s">
+      <c r="A27" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="176"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
       <c r="G27" s="24">
         <f>SUM(H13:H26)</f>
         <v>0</v>
@@ -8523,18 +8469,18 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="171" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="172"/>
-      <c r="C28" s="189" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="191"/>
+      <c r="A28" s="190" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="197"/>
+      <c r="C28" s="181" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="183"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -8574,7 +8520,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" s="94"/>
       <c r="D30" s="95"/>
@@ -8628,7 +8574,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32" s="94"/>
       <c r="D32" s="95"/>
@@ -8652,7 +8598,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="94"/>
       <c r="D33" s="95"/>
@@ -8679,7 +8625,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C34" s="94"/>
       <c r="D34" s="95"/>
@@ -8706,7 +8652,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C35" s="94"/>
       <c r="D35" s="95"/>
@@ -8733,7 +8679,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="94"/>
       <c r="D36" s="95"/>
@@ -8787,7 +8733,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" s="94"/>
       <c r="D38" s="95"/>
@@ -8814,7 +8760,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" s="94"/>
       <c r="D39" s="95"/>
@@ -8864,14 +8810,14 @@
       <c r="Q40" s="102"/>
     </row>
     <row r="41" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
       <c r="G41" s="24">
         <f>SUM(H29:H40)</f>
         <v>0</v>
@@ -8888,18 +8834,18 @@
       <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="171" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="189" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="191"/>
+      <c r="A42" s="190" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="197"/>
+      <c r="C42" s="181" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="182"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="182"/>
+      <c r="H42" s="183"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -8912,7 +8858,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="93" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="95"/>
@@ -8966,7 +8912,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C45" s="94"/>
       <c r="D45" s="95"/>
@@ -8993,7 +8939,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="94"/>
       <c r="D46" s="95"/>
@@ -9020,7 +8966,7 @@
         <v>30</v>
       </c>
       <c r="B47" s="93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="94"/>
       <c r="D47" s="95"/>
@@ -9047,7 +8993,7 @@
         <v>31</v>
       </c>
       <c r="B48" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="94"/>
       <c r="D48" s="95"/>
@@ -9074,7 +9020,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" s="94"/>
       <c r="D49" s="95"/>
@@ -9101,7 +9047,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C50" s="94"/>
       <c r="D50" s="95"/>
@@ -9128,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" s="94"/>
       <c r="D51" s="95"/>
@@ -9155,7 +9101,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C52" s="94"/>
       <c r="D52" s="95"/>
@@ -9178,14 +9124,14 @@
       <c r="Q52" s="102"/>
     </row>
     <row r="53" spans="1:17" ht="74.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="175" t="s">
+      <c r="A53" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
+      <c r="B53" s="187"/>
+      <c r="C53" s="187"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
       <c r="G53" s="25">
         <f>SUM(H43:H52)</f>
         <v>0</v>
@@ -9202,18 +9148,18 @@
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="169" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="166" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="168"/>
+      <c r="A54" s="207" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="208"/>
+      <c r="C54" s="204" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="205"/>
+      <c r="E54" s="205"/>
+      <c r="F54" s="205"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="206"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -9276,14 +9222,14 @@
       <c r="Q56" s="102"/>
     </row>
     <row r="57" spans="1:17" ht="43.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="175" t="s">
+      <c r="A57" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="176"/>
+      <c r="B57" s="187"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="187"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="187"/>
       <c r="G57" s="24">
         <f>SUM(H55:H56)</f>
         <v>0</v>
@@ -9300,16 +9246,16 @@
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="173" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
-      <c r="E58" s="174"/>
-      <c r="F58" s="211"/>
-      <c r="G58" s="212"/>
-      <c r="H58" s="213"/>
+      <c r="A58" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="210"/>
+      <c r="C58" s="210"/>
+      <c r="D58" s="210"/>
+      <c r="E58" s="210"/>
+      <c r="F58" s="178"/>
+      <c r="G58" s="179"/>
+      <c r="H58" s="180"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -9318,14 +9264,14 @@
       <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="201"/>
-      <c r="B59" s="202"/>
+      <c r="A59" s="168"/>
+      <c r="B59" s="169"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="208" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="209"/>
-      <c r="F59" s="210"/>
+      <c r="D59" s="175" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="176"/>
+      <c r="F59" s="177"/>
       <c r="G59" s="29">
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
@@ -9339,13 +9285,13 @@
       <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="203"/>
-      <c r="B60" s="204"/>
+      <c r="A60" s="170"/>
+      <c r="B60" s="171"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="205" t="s">
+      <c r="D60" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="206"/>
+      <c r="E60" s="173"/>
       <c r="F60" s="32"/>
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
@@ -9357,13 +9303,13 @@
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:17" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="203"/>
-      <c r="B61" s="204"/>
+      <c r="A61" s="170"/>
+      <c r="B61" s="171"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="205" t="s">
+      <c r="D61" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="206"/>
+      <c r="E61" s="173"/>
       <c r="F61" s="32"/>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
@@ -9375,13 +9321,13 @@
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:17" ht="39.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="203"/>
-      <c r="B62" s="204"/>
+      <c r="A62" s="170"/>
+      <c r="B62" s="171"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="207" t="s">
+      <c r="D62" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="206"/>
+      <c r="E62" s="173"/>
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
@@ -9400,11 +9346,11 @@
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="199" t="s">
-        <v>155</v>
-      </c>
-      <c r="F63" s="199"/>
-      <c r="G63" s="200"/>
+      <c r="E63" s="166" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" s="166"/>
+      <c r="G63" s="167"/>
       <c r="H63" s="43"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -9414,10 +9360,10 @@
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="197" t="s">
+      <c r="A64" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="198"/>
+      <c r="B64" s="161"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="44"/>
@@ -9469,7 +9415,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B67" s="110"/>
       <c r="C67" s="107"/>
@@ -9491,6 +9437,33 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A8:B8"/>
@@ -9507,33 +9480,6 @@
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="F58:H58"/>
     <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="F43:F52 F55:F56 F13:F26 F29:F40">
     <cfRule type="cellIs" dxfId="136" priority="371" operator="equal">
@@ -10066,7 +10012,7 @@
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
@@ -10074,7 +10020,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="144" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
@@ -10094,7 +10040,7 @@
     </row>
     <row r="19" spans="1:1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" s="145" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
@@ -10111,12 +10057,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="144" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="96" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
@@ -10145,7 +10091,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="144" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
@@ -10156,7 +10102,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="144" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
@@ -10164,7 +10110,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="144" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
@@ -10178,7 +10124,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="144" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
@@ -10216,12 +10162,12 @@
     </row>
     <row r="55" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="145" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="96" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
@@ -10322,8 +10268,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10344,7 +10290,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="215" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="216"/>
       <c r="C1" s="216"/>
@@ -10365,7 +10311,7 @@
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="214" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="214"/>
       <c r="C2" s="214"/>
@@ -10381,7 +10327,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6"/>
       <c r="O2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T2" s="5"/>
     </row>
@@ -10393,19 +10339,19 @@
         <v>74</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="112" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="112" t="s">
         <v>199</v>
-      </c>
-      <c r="G3" s="112" t="s">
-        <v>200</v>
       </c>
       <c r="H3" s="112" t="s">
         <v>72</v>
@@ -10414,579 +10360,273 @@
         <v>71</v>
       </c>
       <c r="O3" s="113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="113" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="136">
-        <v>1</v>
-      </c>
-      <c r="B4" s="133">
-        <v>43658</v>
-      </c>
-      <c r="C4" s="142" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="137" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="139" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="141" t="s">
-        <v>227</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="113" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="136"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="141"/>
       <c r="L4" s="118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M4" s="113" t="s">
         <v>70</v>
       </c>
       <c r="O4" s="113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="117" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="114">
-        <v>3</v>
-      </c>
-      <c r="B5" s="133">
-        <v>43658</v>
-      </c>
-      <c r="C5" s="143" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="132" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="117" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="114"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="141"/>
+      <c r="L5" s="119" t="s">
         <v>140</v>
-      </c>
-      <c r="G5" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="141" t="s">
-        <v>227</v>
-      </c>
-      <c r="L5" s="119" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="117" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="114">
-        <v>4</v>
-      </c>
-      <c r="B6" s="133">
-        <v>43658</v>
-      </c>
-      <c r="C6" s="143" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="116" t="s">
-        <v>232</v>
-      </c>
-      <c r="F6" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="135" t="s">
-        <v>227</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="114"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
       <c r="M6" s="117" t="s">
         <v>68</v>
       </c>
       <c r="O6" s="117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="114">
-        <v>5</v>
-      </c>
-      <c r="B7" s="133">
-        <v>43658</v>
-      </c>
-      <c r="C7" s="143" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="116" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="135" t="s">
-        <v>227</v>
-      </c>
+    </row>
+    <row r="7" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="114"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
       <c r="O7" s="117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="114">
-        <v>6</v>
-      </c>
-      <c r="B8" s="133">
-        <v>43661</v>
-      </c>
-      <c r="C8" s="143" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="114"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="O8" s="117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="114"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="O9" s="117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="114"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="O10" s="117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="114"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="O11" s="117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="114"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="O12" s="117" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="114"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="O13" s="117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="114"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="O14" s="117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="114"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="O15" s="117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="114"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="O16" s="117" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="114"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="O17" s="117" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="114"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="O18" s="117" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="114"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="O19" s="117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="114"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="O20" s="117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="120"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="O21" s="117" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="114"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="O22" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="116" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O8" s="117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="114">
-        <v>7</v>
-      </c>
-      <c r="B9" s="133">
-        <v>43662</v>
-      </c>
-      <c r="C9" s="143" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="116" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O9" s="117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="114">
-        <v>8</v>
-      </c>
-      <c r="B10" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C10" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="116" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O10" s="117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="114">
-        <v>9</v>
-      </c>
-      <c r="B11" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C11" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="116" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O11" s="117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="117" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="114">
-        <v>10</v>
-      </c>
-      <c r="B12" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C12" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="116" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O12" s="117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="114">
-        <v>11</v>
-      </c>
-      <c r="B13" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C13" s="142" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="144" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O13" s="117" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="117" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="114">
-        <v>12</v>
-      </c>
-      <c r="B14" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C14" s="143" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="116" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="145" t="s">
-        <v>250</v>
-      </c>
-      <c r="F14" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O14" s="117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="114">
-        <v>13</v>
-      </c>
-      <c r="B15" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C15" s="143" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="144" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O15" s="117" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="114">
-        <v>14</v>
-      </c>
-      <c r="B16" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C16" s="143" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O16" s="117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="114">
-        <v>15</v>
-      </c>
-      <c r="B17" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C17" s="143" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="144" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O17" s="117" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="114">
-        <v>16</v>
-      </c>
-      <c r="B18" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C18" s="143" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="144" t="s">
-        <v>248</v>
-      </c>
-      <c r="F18" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O18" s="117" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="114">
-        <v>17</v>
-      </c>
-      <c r="B19" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C19" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="144" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O19" s="117" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="114">
-        <v>18</v>
-      </c>
-      <c r="B20" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C20" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="144" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O20" s="117" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="117" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="120">
-        <v>19</v>
-      </c>
-      <c r="B21" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C21" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="116" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="145" t="s">
-        <v>249</v>
-      </c>
-      <c r="F21" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="G21" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O21" s="117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="114">
-        <v>20</v>
-      </c>
-      <c r="B22" s="133">
-        <v>43663</v>
-      </c>
-      <c r="C22" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="F22" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="O22" s="117" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="23" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="114">
-        <v>21</v>
-      </c>
+      <c r="A23" s="114"/>
       <c r="B23" s="115"/>
       <c r="C23" s="115"/>
       <c r="D23" s="116"/>
@@ -10995,13 +10635,11 @@
       <c r="G23" s="114"/>
       <c r="H23" s="114"/>
       <c r="O23" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="114">
-        <v>22</v>
-      </c>
+      <c r="A24" s="114"/>
       <c r="B24" s="115"/>
       <c r="C24" s="115"/>
       <c r="D24" s="116"/>
@@ -11010,13 +10648,11 @@
       <c r="G24" s="114"/>
       <c r="H24" s="114"/>
       <c r="O24" s="117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="114">
-        <v>23</v>
-      </c>
+      <c r="A25" s="114"/>
       <c r="B25" s="115"/>
       <c r="C25" s="115"/>
       <c r="D25" s="116"/>
@@ -11025,13 +10661,11 @@
       <c r="G25" s="114"/>
       <c r="H25" s="114"/>
       <c r="O25" s="117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="114">
-        <v>24</v>
-      </c>
+      <c r="A26" s="114"/>
       <c r="B26" s="115"/>
       <c r="C26" s="115"/>
       <c r="D26" s="116"/>
@@ -11040,13 +10674,11 @@
       <c r="G26" s="114"/>
       <c r="H26" s="114"/>
       <c r="O26" s="117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="114">
-        <v>25</v>
-      </c>
+      <c r="A27" s="114"/>
       <c r="B27" s="115"/>
       <c r="C27" s="115"/>
       <c r="D27" s="116"/>
@@ -11055,13 +10687,11 @@
       <c r="G27" s="114"/>
       <c r="H27" s="114"/>
       <c r="O27" s="117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="114">
-        <v>26</v>
-      </c>
+      <c r="A28" s="114"/>
       <c r="B28" s="115"/>
       <c r="C28" s="115"/>
       <c r="D28" s="116"/>
@@ -11070,13 +10700,11 @@
       <c r="G28" s="114"/>
       <c r="H28" s="114"/>
       <c r="O28" s="117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="114">
-        <v>27</v>
-      </c>
+      <c r="A29" s="114"/>
       <c r="B29" s="115"/>
       <c r="C29" s="115"/>
       <c r="D29" s="116"/>
@@ -11085,13 +10713,11 @@
       <c r="G29" s="114"/>
       <c r="H29" s="114"/>
       <c r="O29" s="117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="114">
-        <v>28</v>
-      </c>
+      <c r="A30" s="114"/>
       <c r="B30" s="115"/>
       <c r="C30" s="115"/>
       <c r="D30" s="116"/>
@@ -11100,13 +10726,11 @@
       <c r="G30" s="114"/>
       <c r="H30" s="114"/>
       <c r="O30" s="117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="114">
-        <v>29</v>
-      </c>
+      <c r="A31" s="114"/>
       <c r="B31" s="115"/>
       <c r="C31" s="115"/>
       <c r="D31" s="116"/>
@@ -11115,13 +10739,11 @@
       <c r="G31" s="114"/>
       <c r="H31" s="114"/>
       <c r="O31" s="117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="114">
-        <v>30</v>
-      </c>
+      <c r="A32" s="114"/>
       <c r="B32" s="115"/>
       <c r="C32" s="115"/>
       <c r="D32" s="116"/>
@@ -11130,13 +10752,11 @@
       <c r="G32" s="114"/>
       <c r="H32" s="114"/>
       <c r="O32" s="117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="114">
-        <v>31</v>
-      </c>
+      <c r="A33" s="114"/>
       <c r="B33" s="115"/>
       <c r="C33" s="115"/>
       <c r="D33" s="116"/>
@@ -11145,13 +10765,11 @@
       <c r="G33" s="114"/>
       <c r="H33" s="114"/>
       <c r="O33" s="117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="114">
-        <v>32</v>
-      </c>
+      <c r="A34" s="114"/>
       <c r="B34" s="115"/>
       <c r="C34" s="115"/>
       <c r="D34" s="116"/>
@@ -11160,13 +10778,11 @@
       <c r="G34" s="114"/>
       <c r="H34" s="114"/>
       <c r="O34" s="117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="114">
-        <v>33</v>
-      </c>
+      <c r="A35" s="114"/>
       <c r="B35" s="115"/>
       <c r="C35" s="115"/>
       <c r="D35" s="116"/>
@@ -11175,13 +10791,11 @@
       <c r="G35" s="114"/>
       <c r="H35" s="114"/>
       <c r="O35" s="117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="114">
-        <v>34</v>
-      </c>
+      <c r="A36" s="114"/>
       <c r="B36" s="115"/>
       <c r="C36" s="115"/>
       <c r="D36" s="116"/>
@@ -11190,13 +10804,11 @@
       <c r="G36" s="114"/>
       <c r="H36" s="114"/>
       <c r="O36" s="117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="114">
-        <v>35</v>
-      </c>
+      <c r="A37" s="114"/>
       <c r="B37" s="115"/>
       <c r="C37" s="115"/>
       <c r="D37" s="116"/>
@@ -11205,13 +10817,11 @@
       <c r="G37" s="114"/>
       <c r="H37" s="114"/>
       <c r="O37" s="117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="114">
-        <v>36</v>
-      </c>
+      <c r="A38" s="114"/>
       <c r="B38" s="115"/>
       <c r="C38" s="115"/>
       <c r="D38" s="116"/>
@@ -11220,13 +10830,11 @@
       <c r="G38" s="114"/>
       <c r="H38" s="114"/>
       <c r="O38" s="117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="120" t="s">
-        <v>77</v>
-      </c>
+      <c r="A39" s="120"/>
       <c r="B39" s="115"/>
       <c r="C39" s="115"/>
       <c r="D39" s="116"/>
@@ -11236,14 +10844,12 @@
       <c r="H39" s="114"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="125" t="s">
-        <v>177</v>
-      </c>
+      <c r="A40" s="125"/>
       <c r="D40" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -11304,37 +10910,8 @@
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://intra.hhbi.mah.gov.on.ca/sites/hhbi/SitePages/Home.aspx" xr:uid="{0B626540-4BE2-4906-9816-F2A99C655FCB}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{FA934FF9-203E-4D2A-AA89-947E96734BB8}"/>
-    <hyperlink ref="C8" r:id="rId3" display="http://cscdikdcapmsp01:7777/_admin/WebApplicationList.aspx" xr:uid="{7FE4CE1B-84AF-4A34-9D75-ED140C4907E1}"/>
-    <hyperlink ref="C9" r:id="rId4" display="http://cscdikdcapmsp01:7777/applications.aspx" xr:uid="{5DA472BC-D325-4E22-AFC7-0C30DFCB8A6E}"/>
-    <hyperlink ref="C7" r:id="rId5" display="http://cscdikdcapmsp01:7777/_admin/WebApplicationList.aspx" xr:uid="{9A67F195-1B56-419C-B435-923A8FF16F8E}"/>
-    <hyperlink ref="C10" r:id="rId6" display="http://cscdikdcapmsp01:7777/apps.aspx" xr:uid="{8317C075-5776-4266-AA83-848A1F1BDCAD}"/>
-    <hyperlink ref="C12" r:id="rId7" display="http://cscdikdcapmsp01:7777/default.aspx" xr:uid="{58431B13-5A90-4096-9965-2E3FF324183C}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{FE93ABA9-6A35-4844-B27E-C1707F38D402}"/>
-    <hyperlink ref="C11" r:id="rId9" display="http://cscdikdcapmsp01:7777/apps.aspx" xr:uid="{1C8B244C-4300-4C43-8F89-913FEA46AB37}"/>
-    <hyperlink ref="E13" r:id="rId10" display="td://rv.oa.intra.dev.hpqualitycenter.csc.gov.on.ca:8080/qcbin/DefectsModule-000000004243046514?EntityType=IBug&amp;EntityID=545" xr:uid="{A2FFDC56-5555-4D05-9205-03670AA3FF00}"/>
-    <hyperlink ref="E14" r:id="rId11" display="td://rv.oa.intra.dev.hpqualitycenter.csc.gov.on.ca:8080/qcbin/DefectsModule-000000004243046514?EntityType=IBug&amp;EntityID=957" xr:uid="{00E5FA44-2A3A-41E0-A56C-DAE2471400FD}"/>
-    <hyperlink ref="E15" r:id="rId12" display="td://rv.oa.intra.dev.hpqualitycenter.csc.gov.on.ca:8080/qcbin/DefectsModule-000000004243046514?EntityType=IBug&amp;EntityID=929" xr:uid="{722B0439-FDA9-4060-8C3F-A8DD1275C140}"/>
-    <hyperlink ref="E17" r:id="rId13" display="td://rv.oa.intra.dev.hpqualitycenter.csc.gov.on.ca:8080/qcbin/DefectsModule-000000004243046514?EntityType=IBug&amp;EntityID=931" xr:uid="{80881EE2-D7AF-4A9A-8284-6FEC68C83506}"/>
-    <hyperlink ref="E18" r:id="rId14" display="td://rv.oa.intra.dev.hpqualitycenter.csc.gov.on.ca:8080/qcbin/DefectsModule-000000004243046514?EntityType=IBug&amp;EntityID=936" xr:uid="{9510838A-A0C2-4C0D-B96B-3A98A17B5954}"/>
-    <hyperlink ref="E19" r:id="rId15" display="td://rv.oa.intra.dev.hpqualitycenter.csc.gov.on.ca:8080/qcbin/DefectsModule-000000004243046514?EntityType=IBug&amp;EntityID=532" xr:uid="{20B0B585-187A-4ECB-951C-1A6FD2F9821D}"/>
-    <hyperlink ref="E20" r:id="rId16" display="td://rv.oa.intra.dev.hpqualitycenter.csc.gov.on.ca:8080/qcbin/DefectsModule-000000004243046514?EntityType=IBug&amp;EntityID=938" xr:uid="{53537E33-4F95-4A85-A9A1-510A0BF9FCB3}"/>
-    <hyperlink ref="E21" r:id="rId17" display="td://rv.oa.intra.dev.hpqualitycenter.csc.gov.on.ca:8080/qcbin/DefectsModule-000000004243046514?EntityType=IBug&amp;EntityID=930" xr:uid="{94B98066-2C1F-478C-8A60-43327F609D57}"/>
-    <hyperlink ref="C13" r:id="rId18" display="https://intra.hhbi.mah.gov.on.ca/sites/hhbi/SitePages/Home.aspx" xr:uid="{82E3BB38-B225-41CC-BB69-55162C1321F4}"/>
-    <hyperlink ref="C14" r:id="rId19" xr:uid="{6A4E99F2-9B02-4D2C-B9B7-FDDE585ED6E1}"/>
-    <hyperlink ref="C17" r:id="rId20" display="http://cscdikdcapmsp01:7777/_admin/WebApplicationList.aspx" xr:uid="{ED575AB4-32E3-494E-8581-4A2059C5E2C4}"/>
-    <hyperlink ref="C18" r:id="rId21" display="http://cscdikdcapmsp01:7777/applications.aspx" xr:uid="{94918830-41B5-4731-972E-7B524CF91CD8}"/>
-    <hyperlink ref="C16" r:id="rId22" display="http://cscdikdcapmsp01:7777/_admin/WebApplicationList.aspx" xr:uid="{B1B22C69-1014-4DBB-89C9-9AB18D5E5D1A}"/>
-    <hyperlink ref="C19" r:id="rId23" display="http://cscdikdcapmsp01:7777/apps.aspx" xr:uid="{E9FB98AF-C2DC-4E26-B452-B673BCF3B79D}"/>
-    <hyperlink ref="C21" r:id="rId24" display="http://cscdikdcapmsp01:7777/default.aspx" xr:uid="{330B493F-D4EC-408A-A02C-86B8B19FDE9E}"/>
-    <hyperlink ref="C15" r:id="rId25" xr:uid="{E0692E05-9154-42C4-8D55-C07B741FC057}"/>
-    <hyperlink ref="C20" r:id="rId26" display="http://cscdikdcapmsp01:7777/apps.aspx" xr:uid="{4EC88483-CEA0-4536-BDD3-F4F91323A292}"/>
-    <hyperlink ref="C22" r:id="rId27" display="http://cscdikdcapmsp01:7777/default.aspx" xr:uid="{8680A7CD-16B4-47F1-AB0D-EDA0AB385A54}"/>
-  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="300" r:id="rId28"/>
+  <pageSetup scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;F&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -11392,36 +10969,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
-    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n8bc46b862004554b29f25437dcecdb2>
-    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
-    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
-    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b348aa9236b94ac88332be997039b018>
-    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
-      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
-      <Description>QWPW5C3C64YX-694079015-91</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B7F6C1E041661428C0804F60FDF9579" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="269e77b516f09928499b1be999970057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17eb8759-252b-418d-a649-70aff91fc5df" xmlns:ns3="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720" xmlns:ns4="93977a9a-7c70-4c47-a38b-6f123b62dce6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41b65eea62d023978f15f5547645abd7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="17eb8759-252b-418d-a649-70aff91fc5df"/>
@@ -11642,6 +11189,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
+    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n8bc46b862004554b29f25437dcecdb2>
+    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
+    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
+    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b348aa9236b94ac88332be997039b018>
+    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
+      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
+      <Description>QWPW5C3C64YX-694079015-91</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
   <ds:schemaRefs>
@@ -11651,32 +11228,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C507B214-A4AD-4147-9668-C65BAB18F1D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="17eb8759-252b-418d-a649-70aff91fc5df"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="93977a9a-7c70-4c47-a38b-6f123b62dce6"/>
-    <ds:schemaRef ds:uri="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C5CD16F-1A82-4BAB-88E6-9D42833A2748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11694,4 +11245,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C507B214-A4AD-4147-9668-C65BAB18F1D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="17eb8759-252b-418d-a649-70aff91fc5df"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="93977a9a-7c70-4c47-a38b-6f123b62dce6"/>
+    <ds:schemaRef ds:uri="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
+++ b/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUONGCH\Projects\AxeAccessibilityDriver\AxeAccessibilityDriver\AxeAccessibilityDriver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742EF0C8-6EB1-44D1-A0ED-0C9622A6974A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022454C8-B3EE-4128-9E4E-65EA85C1CAF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="253">
   <si>
     <t>1.1.1</t>
   </si>
@@ -2431,6 +2431,9 @@
     <t xml:space="preserve">Evaluation has been carrying on from 2016, has been tested multiple times in Cognos Version 10, then in Version 11 and the last time was tested on: 8/14/2019
 Every release will be AODA tested as part of our software development lifecycle, issues will be evaluated and remediated in accordance with WCAG2.00 AA guideline. </t>
   </si>
+  <si>
+    <t>Medium</t>
+  </si>
 </sst>
 </file>
 
@@ -2443,12 +2446,19 @@
     <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="168" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2766,8 +2776,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2836,6 +2854,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -3247,72 +3271,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3330,44 +3355,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -3379,16 +3404,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3397,52 +3422,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="10" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="10" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3450,99 +3475,99 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="9" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="32" xfId="14"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="32" xfId="14"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3551,325 +3576,329 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="15" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="15" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="15" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="15" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
+    <cellStyle name="40% - Accent6" xfId="16" builtinId="51"/>
     <cellStyle name="Bad" xfId="12" builtinId="27"/>
     <cellStyle name="Heading 1 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Heading 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -7796,8 +7825,8 @@
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="XFD1" sqref="F1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7806,32 +7835,32 @@
     <col min="2" max="2" width="88.42578125" style="20" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="37" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="67.5703125" style="45" customWidth="1"/>
-    <col min="6" max="7" width="0" style="37" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9" max="16" width="0" style="14" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0" style="15" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="0" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="16378" width="6.140625" style="14" hidden="1"/>
-    <col min="16379" max="16379" width="25.7109375" style="14" hidden="1" customWidth="1"/>
-    <col min="16380" max="16380" width="28.42578125" style="14" hidden="1" customWidth="1"/>
-    <col min="16381" max="16381" width="34" style="14" hidden="1" customWidth="1"/>
-    <col min="16382" max="16382" width="29.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="16383" max="16383" width="16.5703125" style="14" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="85.85546875" style="14" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="85.85546875" style="45" customWidth="1"/>
+    <col min="6" max="7" width="0" style="37" hidden="1"/>
+    <col min="8" max="8" width="0" style="36" hidden="1"/>
+    <col min="9" max="16" width="0" style="14" hidden="1"/>
+    <col min="17" max="17" width="0" style="15" hidden="1"/>
+    <col min="18" max="19" width="0" style="14" hidden="1"/>
+    <col min="20" max="16378" width="85.85546875" style="14" hidden="1"/>
+    <col min="16379" max="16379" width="25.7109375" style="14" hidden="1"/>
+    <col min="16380" max="16380" width="28.42578125" style="14" hidden="1"/>
+    <col min="16381" max="16381" width="34" style="14" hidden="1"/>
+    <col min="16382" max="16382" width="29.28515625" style="14" hidden="1"/>
+    <col min="16383" max="16383" width="16.5703125" style="14" hidden="1"/>
+    <col min="16384" max="16384" width="85.85546875" style="14" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="185"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="186"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="1"/>
@@ -7845,13 +7874,13 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="189"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="190"/>
       <c r="F2" s="39"/>
       <c r="G2" s="1"/>
       <c r="H2" s="16"/>
@@ -7863,13 +7892,13 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="203"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="39"/>
       <c r="G3" s="1"/>
       <c r="H3" s="16"/>
@@ -7881,12 +7910,12 @@
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="91"/>
       <c r="F4" s="39"/>
       <c r="G4" s="1"/>
@@ -7899,13 +7928,13 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="213"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="214"/>
       <c r="F5" s="39"/>
       <c r="G5" s="1"/>
       <c r="H5" s="16"/>
@@ -7917,13 +7946,13 @@
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="163"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="164"/>
       <c r="F6" s="39"/>
       <c r="G6" s="1"/>
       <c r="H6" s="16"/>
@@ -7935,13 +7964,13 @@
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="163"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="164"/>
       <c r="F7" s="39"/>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -7953,13 +7982,13 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="163"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164"/>
       <c r="F8" s="39"/>
       <c r="G8" s="1"/>
       <c r="H8" s="16"/>
@@ -7971,16 +8000,16 @@
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:19" s="37" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -7990,16 +8019,16 @@
       <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="195" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -8009,10 +8038,10 @@
       <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="200"/>
+      <c r="B11" s="201"/>
       <c r="C11" s="123" t="s">
         <v>40</v>
       </c>
@@ -8022,10 +8051,10 @@
       <c r="E11" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="198" t="s">
+      <c r="F11" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="198"/>
+      <c r="G11" s="199"/>
       <c r="H11" s="124" t="s">
         <v>53</v>
       </c>
@@ -8037,18 +8066,18 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="190" t="s">
+      <c r="A12" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="191"/>
-      <c r="C12" s="181" t="s">
+      <c r="B12" s="192"/>
+      <c r="C12" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="184"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -8445,14 +8474,14 @@
       <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="17.45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="186" t="s">
+      <c r="A27" s="187" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
       <c r="G27" s="24">
         <f>SUM(H13:H26)</f>
         <v>0</v>
@@ -8469,18 +8498,18 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="190" t="s">
+      <c r="A28" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="197"/>
-      <c r="C28" s="181" t="s">
+      <c r="B28" s="198"/>
+      <c r="C28" s="182" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="184"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -8810,14 +8839,14 @@
       <c r="Q40" s="102"/>
     </row>
     <row r="41" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
       <c r="G41" s="24">
         <f>SUM(H29:H40)</f>
         <v>0</v>
@@ -8834,18 +8863,18 @@
       <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="190" t="s">
+      <c r="A42" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="197"/>
-      <c r="C42" s="181" t="s">
+      <c r="B42" s="198"/>
+      <c r="C42" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="182"/>
-      <c r="E42" s="182"/>
-      <c r="F42" s="182"/>
-      <c r="G42" s="182"/>
-      <c r="H42" s="183"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="184"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -9124,14 +9153,14 @@
       <c r="Q52" s="102"/>
     </row>
     <row r="53" spans="1:17" ht="74.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="186" t="s">
+      <c r="A53" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="187"/>
-      <c r="C53" s="187"/>
-      <c r="D53" s="187"/>
-      <c r="E53" s="187"/>
-      <c r="F53" s="187"/>
+      <c r="B53" s="188"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
       <c r="G53" s="25">
         <f>SUM(H43:H52)</f>
         <v>0</v>
@@ -9148,18 +9177,18 @@
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="207" t="s">
+      <c r="A54" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="208"/>
-      <c r="C54" s="204" t="s">
+      <c r="B54" s="209"/>
+      <c r="C54" s="205" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="205"/>
-      <c r="E54" s="205"/>
-      <c r="F54" s="205"/>
-      <c r="G54" s="205"/>
-      <c r="H54" s="206"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="206"/>
+      <c r="G54" s="206"/>
+      <c r="H54" s="207"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -9222,14 +9251,14 @@
       <c r="Q56" s="102"/>
     </row>
     <row r="57" spans="1:17" ht="43.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="186" t="s">
+      <c r="A57" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="187"/>
-      <c r="C57" s="187"/>
-      <c r="D57" s="187"/>
-      <c r="E57" s="187"/>
-      <c r="F57" s="187"/>
+      <c r="B57" s="188"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
       <c r="G57" s="24">
         <f>SUM(H55:H56)</f>
         <v>0</v>
@@ -9246,16 +9275,16 @@
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="209" t="s">
+      <c r="A58" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="210"/>
-      <c r="C58" s="210"/>
-      <c r="D58" s="210"/>
-      <c r="E58" s="210"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="179"/>
-      <c r="H58" s="180"/>
+      <c r="B58" s="211"/>
+      <c r="C58" s="211"/>
+      <c r="D58" s="211"/>
+      <c r="E58" s="211"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="181"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -9264,14 +9293,14 @@
       <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="168"/>
-      <c r="B59" s="169"/>
+      <c r="A59" s="169"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="175" t="s">
+      <c r="D59" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="176"/>
-      <c r="F59" s="177"/>
+      <c r="E59" s="177"/>
+      <c r="F59" s="178"/>
       <c r="G59" s="29">
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
@@ -9285,13 +9314,13 @@
       <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="170"/>
-      <c r="B60" s="171"/>
+      <c r="A60" s="171"/>
+      <c r="B60" s="172"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="172" t="s">
+      <c r="D60" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="173"/>
+      <c r="E60" s="174"/>
       <c r="F60" s="32"/>
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
@@ -9303,13 +9332,13 @@
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:17" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="170"/>
-      <c r="B61" s="171"/>
+      <c r="A61" s="171"/>
+      <c r="B61" s="172"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="172" t="s">
+      <c r="D61" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="173"/>
+      <c r="E61" s="174"/>
       <c r="F61" s="32"/>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
@@ -9321,13 +9350,13 @@
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:17" ht="39.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="170"/>
-      <c r="B62" s="171"/>
+      <c r="A62" s="171"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="174" t="s">
+      <c r="D62" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="173"/>
+      <c r="E62" s="174"/>
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
@@ -9346,11 +9375,11 @@
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="166" t="s">
+      <c r="E63" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="F63" s="166"/>
-      <c r="G63" s="167"/>
+      <c r="F63" s="167"/>
+      <c r="G63" s="168"/>
       <c r="H63" s="43"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -9360,10 +9389,10 @@
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="160" t="s">
+      <c r="A64" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="161"/>
+      <c r="B64" s="162"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="44"/>
@@ -10268,8 +10297,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10283,22 +10312,20 @@
     <col min="7" max="7" width="29.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="2.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="20" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.42578125" style="2" hidden="1"/>
+    <col min="10" max="16384" width="2.42578125" style="2" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="216" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="217"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="218"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -10310,16 +10337,16 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="215" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
       <c r="I2" s="7"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -10369,7 +10396,9 @@
       <c r="C4" s="142"/>
       <c r="D4" s="137"/>
       <c r="E4" s="138"/>
-      <c r="F4" s="139"/>
+      <c r="F4" s="139" t="s">
+        <v>252</v>
+      </c>
       <c r="G4" s="140"/>
       <c r="H4" s="141"/>
       <c r="L4" s="118" t="s">
@@ -10391,8 +10420,8 @@
       <c r="F5" s="134"/>
       <c r="G5" s="135"/>
       <c r="H5" s="141"/>
-      <c r="L5" s="119" t="s">
-        <v>140</v>
+      <c r="L5" s="160" t="s">
+        <v>252</v>
       </c>
       <c r="M5" s="117" t="s">
         <v>69</v>
@@ -10401,7 +10430,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="117" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="114"/>
       <c r="B6" s="133"/>
       <c r="C6" s="143"/>
@@ -10410,6 +10439,9 @@
       <c r="F6" s="134"/>
       <c r="G6" s="135"/>
       <c r="H6" s="135"/>
+      <c r="L6" s="119" t="s">
+        <v>140</v>
+      </c>
       <c r="M6" s="117" t="s">
         <v>68</v>
       </c>
@@ -10907,7 +10939,7 @@
       <formula1>$O$2:$O$38</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12 F23:F39" xr:uid="{00000000-0002-0000-0300-000002000000}">
-      <formula1>$L$3:$L$5</formula1>
+      <formula1>$L$3:$L$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10919,6 +10951,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
+    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n8bc46b862004554b29f25437dcecdb2>
+    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
+    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
+    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b348aa9236b94ac88332be997039b018>
+    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
+      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
+      <Description>QWPW5C3C64YX-694079015-91</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -10968,7 +11021,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B7F6C1E041661428C0804F60FDF9579" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="269e77b516f09928499b1be999970057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17eb8759-252b-418d-a649-70aff91fc5df" xmlns:ns3="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720" xmlns:ns4="93977a9a-7c70-4c47-a38b-6f123b62dce6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41b65eea62d023978f15f5547645abd7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="17eb8759-252b-418d-a649-70aff91fc5df"/>
@@ -11189,7 +11242,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11198,28 +11251,25 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
-    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n8bc46b862004554b29f25437dcecdb2>
-    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
-    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
-    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b348aa9236b94ac88332be997039b018>
-    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
-      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
-      <Description>QWPW5C3C64YX-694079015-91</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C507B214-A4AD-4147-9668-C65BAB18F1D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="93977a9a-7c70-4c47-a38b-6f123b62dce6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
+    <ds:schemaRef ds:uri="17eb8759-252b-418d-a649-70aff91fc5df"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -11227,7 +11277,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C5CD16F-1A82-4BAB-88E6-9D42833A2748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11247,28 +11297,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C507B214-A4AD-4147-9668-C65BAB18F1D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="17eb8759-252b-418d-a649-70aff91fc5df"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="93977a9a-7c70-4c47-a38b-6f123b62dce6"/>
-    <ds:schemaRef ds:uri="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
+++ b/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUONGCH\Projects\AxeAccessibilityDriver\AxeAccessibilityDriver\AxeAccessibilityDriver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022454C8-B3EE-4128-9E4E-65EA85C1CAF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C951448F-29A6-4435-B53C-E5186062A37C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="255">
   <si>
     <t>1.1.1</t>
   </si>
@@ -2433,6 +2433,12 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
 </sst>
 </file>
@@ -3726,22 +3732,121 @@
     <xf numFmtId="0" fontId="49" fillId="13" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3784,105 +3889,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7825,8 +7831,8 @@
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="XFD1" sqref="F1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7851,16 +7857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="178" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="186"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="179"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="1"/>
@@ -7874,13 +7880,13 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="190"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="39"/>
       <c r="G2" s="1"/>
       <c r="H2" s="16"/>
@@ -7892,13 +7898,13 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
       <c r="F3" s="39"/>
       <c r="G3" s="1"/>
       <c r="H3" s="16"/>
@@ -7910,12 +7916,12 @@
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="180" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="91"/>
       <c r="F4" s="39"/>
       <c r="G4" s="1"/>
@@ -7928,13 +7934,13 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="214"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="39"/>
       <c r="G5" s="1"/>
       <c r="H5" s="16"/>
@@ -7946,13 +7952,13 @@
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="164"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="39"/>
       <c r="G6" s="1"/>
       <c r="H6" s="16"/>
@@ -7964,13 +7970,13 @@
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="164"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
       <c r="F7" s="39"/>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -7982,13 +7988,13 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="39"/>
       <c r="G8" s="1"/>
       <c r="H8" s="16"/>
@@ -8000,16 +8006,16 @@
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:19" s="37" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -8019,16 +8025,16 @@
       <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="186" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -8038,10 +8044,10 @@
       <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="201"/>
+      <c r="B11" s="194"/>
       <c r="C11" s="123" t="s">
         <v>40</v>
       </c>
@@ -8051,10 +8057,10 @@
       <c r="E11" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="199" t="s">
+      <c r="F11" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="199"/>
+      <c r="G11" s="189"/>
       <c r="H11" s="124" t="s">
         <v>53</v>
       </c>
@@ -8066,18 +8072,18 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="191" t="s">
+      <c r="A12" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="182" t="s">
+      <c r="B12" s="183"/>
+      <c r="C12" s="190" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="184"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="192"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -8092,7 +8098,9 @@
       <c r="B13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="94"/>
+      <c r="C13" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D13" s="95"/>
       <c r="E13"/>
       <c r="F13" s="97">
@@ -8119,7 +8127,9 @@
       <c r="B14" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="94"/>
+      <c r="C14" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D14" s="95"/>
       <c r="E14"/>
       <c r="F14" s="97">
@@ -8146,7 +8156,9 @@
       <c r="B15" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="94"/>
+      <c r="C15" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D15" s="95"/>
       <c r="E15"/>
       <c r="F15" s="97">
@@ -8173,7 +8185,9 @@
       <c r="B16" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="94"/>
+      <c r="C16" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D16" s="95"/>
       <c r="E16"/>
       <c r="F16" s="97">
@@ -8200,7 +8214,9 @@
       <c r="B17" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="94"/>
+      <c r="C17" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D17" s="95"/>
       <c r="E17"/>
       <c r="F17" s="97">
@@ -8227,7 +8243,9 @@
       <c r="B18" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="94"/>
+      <c r="C18" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D18" s="95"/>
       <c r="E18"/>
       <c r="F18" s="97">
@@ -8254,7 +8272,9 @@
       <c r="B19" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="94"/>
+      <c r="C19" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D19" s="95"/>
       <c r="E19"/>
       <c r="F19" s="97">
@@ -8283,7 +8303,9 @@
       <c r="B20" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="94"/>
+      <c r="C20" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D20" s="95"/>
       <c r="E20"/>
       <c r="F20" s="97">
@@ -8312,7 +8334,9 @@
       <c r="B21" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="94"/>
+      <c r="C21" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D21" s="95"/>
       <c r="E21"/>
       <c r="F21" s="97">
@@ -8341,7 +8365,9 @@
       <c r="B22" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="94"/>
+      <c r="C22" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D22" s="95"/>
       <c r="E22"/>
       <c r="F22" s="97">
@@ -8370,7 +8396,9 @@
       <c r="B23" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="94"/>
+      <c r="C23" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D23" s="95"/>
       <c r="E23"/>
       <c r="F23" s="97">
@@ -8397,7 +8425,9 @@
       <c r="B24" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="94"/>
+      <c r="C24" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" s="95"/>
       <c r="E24"/>
       <c r="F24" s="97">
@@ -8426,7 +8456,9 @@
       <c r="B25" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="94"/>
+      <c r="C25" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D25" s="95"/>
       <c r="E25"/>
       <c r="F25" s="97">
@@ -8453,7 +8485,9 @@
       <c r="B26" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="94"/>
+      <c r="C26" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D26" s="95"/>
       <c r="E26"/>
       <c r="F26" s="97">
@@ -8474,14 +8508,14 @@
       <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="17.45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="188"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
       <c r="G27" s="24">
         <f>SUM(H13:H26)</f>
         <v>0</v>
@@ -8498,18 +8532,18 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="191" t="s">
+      <c r="A28" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="198"/>
-      <c r="C28" s="182" t="s">
+      <c r="B28" s="173"/>
+      <c r="C28" s="190" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="184"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="192"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -8524,7 +8558,9 @@
       <c r="B29" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="94"/>
+      <c r="C29" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D29" s="95"/>
       <c r="E29"/>
       <c r="F29" s="97">
@@ -8551,7 +8587,9 @@
       <c r="B30" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="94"/>
+      <c r="C30" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D30" s="95"/>
       <c r="E30"/>
       <c r="F30" s="97">
@@ -8578,7 +8616,9 @@
       <c r="B31" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="94"/>
+      <c r="C31" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D31" s="95"/>
       <c r="E31"/>
       <c r="F31" s="97">
@@ -8605,7 +8645,9 @@
       <c r="B32" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="94"/>
+      <c r="C32" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D32" s="95"/>
       <c r="E32"/>
       <c r="F32" s="97"/>
@@ -8629,7 +8671,9 @@
       <c r="B33" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="94"/>
+      <c r="C33" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D33" s="95"/>
       <c r="E33"/>
       <c r="F33" s="97">
@@ -8656,7 +8700,9 @@
       <c r="B34" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="94"/>
+      <c r="C34" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D34" s="95"/>
       <c r="E34"/>
       <c r="F34" s="97">
@@ -8683,7 +8729,9 @@
       <c r="B35" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="94"/>
+      <c r="C35" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D35" s="95"/>
       <c r="E35"/>
       <c r="F35" s="97">
@@ -8710,7 +8758,9 @@
       <c r="B36" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="94"/>
+      <c r="C36" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D36" s="95"/>
       <c r="E36"/>
       <c r="F36" s="97">
@@ -8737,7 +8787,9 @@
       <c r="B37" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="94"/>
+      <c r="C37" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D37" s="95"/>
       <c r="E37"/>
       <c r="F37" s="97">
@@ -8764,7 +8816,9 @@
       <c r="B38" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="94"/>
+      <c r="C38" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D38" s="95"/>
       <c r="E38"/>
       <c r="F38" s="97">
@@ -8791,7 +8845,9 @@
       <c r="B39" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="94"/>
+      <c r="C39" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D39" s="95"/>
       <c r="E39"/>
       <c r="F39" s="97">
@@ -8818,7 +8874,9 @@
       <c r="B40" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="94"/>
+      <c r="C40" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D40" s="95"/>
       <c r="E40"/>
       <c r="F40" s="97">
@@ -8839,14 +8897,14 @@
       <c r="Q40" s="102"/>
     </row>
     <row r="41" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
       <c r="G41" s="24">
         <f>SUM(H29:H40)</f>
         <v>0</v>
@@ -8863,18 +8921,18 @@
       <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="191" t="s">
+      <c r="A42" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="182" t="s">
+      <c r="B42" s="173"/>
+      <c r="C42" s="190" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="183"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="184"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="192"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -8889,7 +8947,9 @@
       <c r="B43" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="94"/>
+      <c r="C43" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D43" s="95"/>
       <c r="E43"/>
       <c r="F43" s="97">
@@ -8916,7 +8976,9 @@
       <c r="B44" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="94"/>
+      <c r="C44" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D44" s="95"/>
       <c r="E44"/>
       <c r="F44" s="97">
@@ -8943,7 +9005,9 @@
       <c r="B45" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="94"/>
+      <c r="C45" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D45" s="95"/>
       <c r="E45"/>
       <c r="F45" s="97">
@@ -8970,7 +9034,9 @@
       <c r="B46" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="94"/>
+      <c r="C46" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D46" s="95"/>
       <c r="E46"/>
       <c r="F46" s="97">
@@ -8997,7 +9063,9 @@
       <c r="B47" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="94"/>
+      <c r="C47" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D47" s="95"/>
       <c r="E47"/>
       <c r="F47" s="97">
@@ -9024,7 +9092,9 @@
       <c r="B48" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="94"/>
+      <c r="C48" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D48" s="95"/>
       <c r="E48"/>
       <c r="F48" s="97">
@@ -9051,7 +9121,9 @@
       <c r="B49" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="C49" s="94"/>
+      <c r="C49" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D49" s="95"/>
       <c r="E49"/>
       <c r="F49" s="97">
@@ -9078,7 +9150,9 @@
       <c r="B50" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="94"/>
+      <c r="C50" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D50" s="95"/>
       <c r="E50"/>
       <c r="F50" s="97">
@@ -9105,7 +9179,9 @@
       <c r="B51" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="94"/>
+      <c r="C51" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D51" s="95"/>
       <c r="E51"/>
       <c r="F51" s="97">
@@ -9132,7 +9208,9 @@
       <c r="B52" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="94"/>
+      <c r="C52" s="94" t="s">
+        <v>254</v>
+      </c>
       <c r="D52" s="95"/>
       <c r="E52"/>
       <c r="F52" s="97">
@@ -9153,14 +9231,14 @@
       <c r="Q52" s="102"/>
     </row>
     <row r="53" spans="1:17" ht="74.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="187" t="s">
+      <c r="A53" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="188"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="188"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="177"/>
       <c r="G53" s="25">
         <f>SUM(H43:H52)</f>
         <v>0</v>
@@ -9177,18 +9255,18 @@
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="208" t="s">
+      <c r="A54" s="170" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="209"/>
-      <c r="C54" s="205" t="s">
+      <c r="B54" s="171"/>
+      <c r="C54" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="206"/>
-      <c r="E54" s="206"/>
-      <c r="F54" s="206"/>
-      <c r="G54" s="206"/>
-      <c r="H54" s="207"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="168"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="169"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -9203,7 +9281,9 @@
       <c r="B55" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="94"/>
+      <c r="C55" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D55" s="95"/>
       <c r="E55"/>
       <c r="F55" s="97">
@@ -9230,7 +9310,9 @@
       <c r="B56" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="94"/>
+      <c r="C56" s="94" t="s">
+        <v>253</v>
+      </c>
       <c r="D56" s="95"/>
       <c r="E56"/>
       <c r="F56" s="97">
@@ -9251,14 +9333,14 @@
       <c r="Q56" s="102"/>
     </row>
     <row r="57" spans="1:17" ht="43.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="187" t="s">
+      <c r="A57" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="188"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="188"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
       <c r="G57" s="24">
         <f>SUM(H55:H56)</f>
         <v>0</v>
@@ -9275,16 +9357,16 @@
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="210" t="s">
+      <c r="A58" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="211"/>
-      <c r="C58" s="211"/>
-      <c r="D58" s="211"/>
-      <c r="E58" s="211"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="181"/>
+      <c r="B58" s="175"/>
+      <c r="C58" s="175"/>
+      <c r="D58" s="175"/>
+      <c r="E58" s="175"/>
+      <c r="F58" s="212"/>
+      <c r="G58" s="213"/>
+      <c r="H58" s="214"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -9293,14 +9375,14 @@
       <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="169"/>
-      <c r="B59" s="170"/>
+      <c r="A59" s="202"/>
+      <c r="B59" s="203"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="176" t="s">
+      <c r="D59" s="209" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="177"/>
-      <c r="F59" s="178"/>
+      <c r="E59" s="210"/>
+      <c r="F59" s="211"/>
       <c r="G59" s="29">
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
@@ -9314,13 +9396,13 @@
       <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="171"/>
-      <c r="B60" s="172"/>
+      <c r="A60" s="204"/>
+      <c r="B60" s="205"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="173" t="s">
+      <c r="D60" s="206" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="174"/>
+      <c r="E60" s="207"/>
       <c r="F60" s="32"/>
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
@@ -9332,13 +9414,13 @@
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:17" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="171"/>
-      <c r="B61" s="172"/>
+      <c r="A61" s="204"/>
+      <c r="B61" s="205"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="173" t="s">
+      <c r="D61" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="174"/>
+      <c r="E61" s="207"/>
       <c r="F61" s="32"/>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
@@ -9350,13 +9432,13 @@
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:17" ht="39.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="171"/>
-      <c r="B62" s="172"/>
+      <c r="A62" s="204"/>
+      <c r="B62" s="205"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="175" t="s">
+      <c r="D62" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="174"/>
+      <c r="E62" s="207"/>
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
@@ -9375,11 +9457,11 @@
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="167" t="s">
+      <c r="E63" s="200" t="s">
         <v>154</v>
       </c>
-      <c r="F63" s="167"/>
-      <c r="G63" s="168"/>
+      <c r="F63" s="200"/>
+      <c r="G63" s="201"/>
       <c r="H63" s="43"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -9389,10 +9471,10 @@
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="161" t="s">
+      <c r="A64" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="162"/>
+      <c r="B64" s="199"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="44"/>
@@ -9466,17 +9548,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C42:H42"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A2:B2"/>
@@ -9493,22 +9580,17 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="F43:F52 F55:F56 F13:F26 F29:F40">
     <cfRule type="cellIs" dxfId="136" priority="371" operator="equal">
@@ -10951,77 +11033,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
-    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n8bc46b862004554b29f25437dcecdb2>
-    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
-    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
-    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b348aa9236b94ac88332be997039b018>
-    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
-      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
-      <Description>QWPW5C3C64YX-694079015-91</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B7F6C1E041661428C0804F60FDF9579" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="269e77b516f09928499b1be999970057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17eb8759-252b-418d-a649-70aff91fc5df" xmlns:ns3="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720" xmlns:ns4="93977a9a-7c70-4c47-a38b-6f123b62dce6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41b65eea62d023978f15f5547645abd7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="17eb8759-252b-418d-a649-70aff91fc5df"/>
@@ -11242,42 +11262,86 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
+    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n8bc46b862004554b29f25437dcecdb2>
+    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
+    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
+    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b348aa9236b94ac88332be997039b018>
+    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
+      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
+      <Description>QWPW5C3C64YX-694079015-91</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C507B214-A4AD-4147-9668-C65BAB18F1D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="93977a9a-7c70-4c47-a38b-6f123b62dce6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
-    <ds:schemaRef ds:uri="17eb8759-252b-418d-a649-70aff91fc5df"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C5CD16F-1A82-4BAB-88E6-9D42833A2748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11297,10 +11361,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C507B214-A4AD-4147-9668-C65BAB18F1D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="93977a9a-7c70-4c47-a38b-6f123b62dce6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
+    <ds:schemaRef ds:uri="17eb8759-252b-418d-a649-70aff91fc5df"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
+++ b/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUONGCH\Projects\AxeAccessibilityDriver\AxeAccessibilityDriver\AxeAccessibilityDriver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C951448F-29A6-4435-B53C-E5186062A37C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D25B9-0CAA-4794-80B0-E5F9C042FEB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="255">
   <si>
     <t>1.1.1</t>
   </si>
@@ -3732,121 +3732,22 @@
     <xf numFmtId="0" fontId="49" fillId="13" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3889,6 +3790,105 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7831,7 +7831,7 @@
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -7857,16 +7857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="179"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="186"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="1"/>
@@ -7880,13 +7880,13 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="182"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="190"/>
       <c r="F2" s="39"/>
       <c r="G2" s="1"/>
       <c r="H2" s="16"/>
@@ -7898,13 +7898,13 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="39"/>
       <c r="G3" s="1"/>
       <c r="H3" s="16"/>
@@ -7916,12 +7916,12 @@
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="91"/>
       <c r="F4" s="39"/>
       <c r="G4" s="1"/>
@@ -7934,13 +7934,13 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="214"/>
       <c r="F5" s="39"/>
       <c r="G5" s="1"/>
       <c r="H5" s="16"/>
@@ -7952,13 +7952,13 @@
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="164"/>
       <c r="F6" s="39"/>
       <c r="G6" s="1"/>
       <c r="H6" s="16"/>
@@ -7970,13 +7970,13 @@
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="166"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="164"/>
       <c r="F7" s="39"/>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -7988,13 +7988,13 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="166"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164"/>
       <c r="F8" s="39"/>
       <c r="G8" s="1"/>
       <c r="H8" s="16"/>
@@ -8006,16 +8006,16 @@
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:19" s="37" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -8025,16 +8025,16 @@
       <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="195" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="188"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -8044,10 +8044,10 @@
       <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="193" t="s">
+      <c r="A11" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="194"/>
+      <c r="B11" s="201"/>
       <c r="C11" s="123" t="s">
         <v>40</v>
       </c>
@@ -8057,10 +8057,10 @@
       <c r="E11" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="189" t="s">
+      <c r="F11" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="189"/>
+      <c r="G11" s="199"/>
       <c r="H11" s="124" t="s">
         <v>53</v>
       </c>
@@ -8072,18 +8072,18 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="183"/>
-      <c r="C12" s="190" t="s">
+      <c r="B12" s="192"/>
+      <c r="C12" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="191"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="192"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="184"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -8508,14 +8508,14 @@
       <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="17.45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="187" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
       <c r="G27" s="24">
         <f>SUM(H13:H26)</f>
         <v>0</v>
@@ -8532,18 +8532,18 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="172" t="s">
+      <c r="A28" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="173"/>
-      <c r="C28" s="190" t="s">
+      <c r="B28" s="198"/>
+      <c r="C28" s="182" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="191"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="192"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="184"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -8897,14 +8897,14 @@
       <c r="Q40" s="102"/>
     </row>
     <row r="41" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
-      <c r="E41" s="177"/>
-      <c r="F41" s="177"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
       <c r="G41" s="24">
         <f>SUM(H29:H40)</f>
         <v>0</v>
@@ -8921,18 +8921,18 @@
       <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="172" t="s">
+      <c r="A42" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="173"/>
-      <c r="C42" s="190" t="s">
+      <c r="B42" s="198"/>
+      <c r="C42" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="192"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="184"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -9231,14 +9231,14 @@
       <c r="Q52" s="102"/>
     </row>
     <row r="53" spans="1:17" ht="74.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="176" t="s">
+      <c r="A53" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="177"/>
-      <c r="E53" s="177"/>
-      <c r="F53" s="177"/>
+      <c r="B53" s="188"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
       <c r="G53" s="25">
         <f>SUM(H43:H52)</f>
         <v>0</v>
@@ -9255,18 +9255,18 @@
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="170" t="s">
+      <c r="A54" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="171"/>
-      <c r="C54" s="167" t="s">
+      <c r="B54" s="209"/>
+      <c r="C54" s="205" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="168"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="168"/>
-      <c r="H54" s="169"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="206"/>
+      <c r="G54" s="206"/>
+      <c r="H54" s="207"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -9333,14 +9333,14 @@
       <c r="Q56" s="102"/>
     </row>
     <row r="57" spans="1:17" ht="43.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="176" t="s">
+      <c r="A57" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="177"/>
-      <c r="F57" s="177"/>
+      <c r="B57" s="188"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
       <c r="G57" s="24">
         <f>SUM(H55:H56)</f>
         <v>0</v>
@@ -9357,16 +9357,16 @@
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="174" t="s">
+      <c r="A58" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="175"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="175"/>
-      <c r="E58" s="175"/>
-      <c r="F58" s="212"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="214"/>
+      <c r="B58" s="211"/>
+      <c r="C58" s="211"/>
+      <c r="D58" s="211"/>
+      <c r="E58" s="211"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="181"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -9375,14 +9375,14 @@
       <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="202"/>
-      <c r="B59" s="203"/>
+      <c r="A59" s="169"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="209" t="s">
+      <c r="D59" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="210"/>
-      <c r="F59" s="211"/>
+      <c r="E59" s="177"/>
+      <c r="F59" s="178"/>
       <c r="G59" s="29">
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
@@ -9396,13 +9396,13 @@
       <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="204"/>
-      <c r="B60" s="205"/>
+      <c r="A60" s="171"/>
+      <c r="B60" s="172"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="206" t="s">
+      <c r="D60" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="207"/>
+      <c r="E60" s="174"/>
       <c r="F60" s="32"/>
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
@@ -9414,13 +9414,13 @@
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:17" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="204"/>
-      <c r="B61" s="205"/>
+      <c r="A61" s="171"/>
+      <c r="B61" s="172"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="206" t="s">
+      <c r="D61" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="207"/>
+      <c r="E61" s="174"/>
       <c r="F61" s="32"/>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
@@ -9432,13 +9432,13 @@
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:17" ht="39.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="204"/>
-      <c r="B62" s="205"/>
+      <c r="A62" s="171"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="208" t="s">
+      <c r="D62" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="207"/>
+      <c r="E62" s="174"/>
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
@@ -9457,11 +9457,11 @@
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="200" t="s">
+      <c r="E63" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="F63" s="200"/>
-      <c r="G63" s="201"/>
+      <c r="F63" s="167"/>
+      <c r="G63" s="168"/>
       <c r="H63" s="43"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -9471,10 +9471,10 @@
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="198" t="s">
+      <c r="A64" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="199"/>
+      <c r="B64" s="162"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="44"/>
@@ -9548,6 +9548,33 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A8:B8"/>
@@ -9564,33 +9591,6 @@
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="F58:H58"/>
     <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="F43:F52 F55:F56 F13:F26 F29:F40">
     <cfRule type="cellIs" dxfId="136" priority="371" operator="equal">
@@ -10379,7 +10379,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -10478,9 +10478,7 @@
       <c r="C4" s="142"/>
       <c r="D4" s="137"/>
       <c r="E4" s="138"/>
-      <c r="F4" s="139" t="s">
-        <v>252</v>
-      </c>
+      <c r="F4" s="139"/>
       <c r="G4" s="140"/>
       <c r="H4" s="141"/>
       <c r="L4" s="118" t="s">
@@ -11033,15 +11031,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B7F6C1E041661428C0804F60FDF9579" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="269e77b516f09928499b1be999970057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17eb8759-252b-418d-a649-70aff91fc5df" xmlns:ns3="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720" xmlns:ns4="93977a9a-7c70-4c47-a38b-6f123b62dce6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41b65eea62d023978f15f5547645abd7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="17eb8759-252b-418d-a649-70aff91fc5df"/>
@@ -11262,7 +11251,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
+    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n8bc46b862004554b29f25437dcecdb2>
+    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
+    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
+    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b348aa9236b94ac88332be997039b018>
+    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
+      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
+      <Description>QWPW5C3C64YX-694079015-91</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -11312,36 +11331,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
-    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n8bc46b862004554b29f25437dcecdb2>
-    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
-    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
-    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b348aa9236b94ac88332be997039b018>
-    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
-      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
-      <Description>QWPW5C3C64YX-694079015-91</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C5CD16F-1A82-4BAB-88E6-9D42833A2748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11361,15 +11351,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C507B214-A4AD-4147-9668-C65BAB18F1D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -11385,4 +11375,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
+++ b/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUONGCH\Projects\AxeAccessibilityDriver\AxeAccessibilityDriver\AxeAccessibilityDriver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D25B9-0CAA-4794-80B0-E5F9C042FEB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1299FF-CA91-4E78-85F8-FE10194406DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -3732,22 +3732,121 @@
     <xf numFmtId="0" fontId="49" fillId="13" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="167" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3791,105 +3890,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3922,7 +3922,7 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="880">
     <dxf>
       <fill>
         <patternFill>
@@ -3994,34 +3994,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
@@ -4098,16 +4083,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4995,16 +4970,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -5234,6 +5199,7395 @@
       <font>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF485925"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF485925"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF485925"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF485925"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF485925"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF485925"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -7815,7 +15169,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="137" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7831,8 +15185,8 @@
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7857,16 +15211,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="178" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="186"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="179"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="1"/>
@@ -7880,13 +15234,13 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="190"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="39"/>
       <c r="G2" s="1"/>
       <c r="H2" s="16"/>
@@ -7898,13 +15252,13 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
       <c r="F3" s="39"/>
       <c r="G3" s="1"/>
       <c r="H3" s="16"/>
@@ -7916,12 +15270,12 @@
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="180" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="91"/>
       <c r="F4" s="39"/>
       <c r="G4" s="1"/>
@@ -7934,13 +15288,13 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="214"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="39"/>
       <c r="G5" s="1"/>
       <c r="H5" s="16"/>
@@ -7952,13 +15306,13 @@
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="164"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="39"/>
       <c r="G6" s="1"/>
       <c r="H6" s="16"/>
@@ -7970,13 +15324,13 @@
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="164"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
       <c r="F7" s="39"/>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -7988,13 +15342,13 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="39"/>
       <c r="G8" s="1"/>
       <c r="H8" s="16"/>
@@ -8006,16 +15360,16 @@
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:19" s="37" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -8025,16 +15379,16 @@
       <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="186" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -8044,10 +15398,10 @@
       <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="201"/>
+      <c r="B11" s="194"/>
       <c r="C11" s="123" t="s">
         <v>40</v>
       </c>
@@ -8057,10 +15411,10 @@
       <c r="E11" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="199" t="s">
+      <c r="F11" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="199"/>
+      <c r="G11" s="189"/>
       <c r="H11" s="124" t="s">
         <v>53</v>
       </c>
@@ -8072,18 +15426,18 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="191" t="s">
+      <c r="A12" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="182" t="s">
+      <c r="B12" s="183"/>
+      <c r="C12" s="190" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="184"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="192"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -8508,14 +15862,14 @@
       <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="17.45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="188"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
       <c r="G27" s="24">
         <f>SUM(H13:H26)</f>
         <v>0</v>
@@ -8532,18 +15886,18 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="191" t="s">
+      <c r="A28" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="198"/>
-      <c r="C28" s="182" t="s">
+      <c r="B28" s="173"/>
+      <c r="C28" s="190" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="184"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="192"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -8897,14 +16251,14 @@
       <c r="Q40" s="102"/>
     </row>
     <row r="41" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
       <c r="G41" s="24">
         <f>SUM(H29:H40)</f>
         <v>0</v>
@@ -8921,18 +16275,18 @@
       <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="191" t="s">
+      <c r="A42" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="182" t="s">
+      <c r="B42" s="173"/>
+      <c r="C42" s="190" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="183"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="184"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="192"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -9231,14 +16585,14 @@
       <c r="Q52" s="102"/>
     </row>
     <row r="53" spans="1:17" ht="74.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="187" t="s">
+      <c r="A53" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="188"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="188"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="177"/>
       <c r="G53" s="25">
         <f>SUM(H43:H52)</f>
         <v>0</v>
@@ -9255,18 +16609,18 @@
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="208" t="s">
+      <c r="A54" s="170" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="209"/>
-      <c r="C54" s="205" t="s">
+      <c r="B54" s="171"/>
+      <c r="C54" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="206"/>
-      <c r="E54" s="206"/>
-      <c r="F54" s="206"/>
-      <c r="G54" s="206"/>
-      <c r="H54" s="207"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="168"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="169"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -9333,14 +16687,14 @@
       <c r="Q56" s="102"/>
     </row>
     <row r="57" spans="1:17" ht="43.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="187" t="s">
+      <c r="A57" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="188"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="188"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
       <c r="G57" s="24">
         <f>SUM(H55:H56)</f>
         <v>0</v>
@@ -9357,16 +16711,16 @@
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="210" t="s">
+      <c r="A58" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="211"/>
-      <c r="C58" s="211"/>
-      <c r="D58" s="211"/>
-      <c r="E58" s="211"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="181"/>
+      <c r="B58" s="175"/>
+      <c r="C58" s="175"/>
+      <c r="D58" s="175"/>
+      <c r="E58" s="175"/>
+      <c r="F58" s="212"/>
+      <c r="G58" s="213"/>
+      <c r="H58" s="214"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -9375,14 +16729,14 @@
       <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="169"/>
-      <c r="B59" s="170"/>
+      <c r="A59" s="202"/>
+      <c r="B59" s="203"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="176" t="s">
+      <c r="D59" s="209" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="177"/>
-      <c r="F59" s="178"/>
+      <c r="E59" s="210"/>
+      <c r="F59" s="211"/>
       <c r="G59" s="29">
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
@@ -9396,13 +16750,13 @@
       <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="171"/>
-      <c r="B60" s="172"/>
+      <c r="A60" s="204"/>
+      <c r="B60" s="205"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="173" t="s">
+      <c r="D60" s="206" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="174"/>
+      <c r="E60" s="207"/>
       <c r="F60" s="32"/>
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
@@ -9414,13 +16768,13 @@
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:17" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="171"/>
-      <c r="B61" s="172"/>
+      <c r="A61" s="204"/>
+      <c r="B61" s="205"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="173" t="s">
+      <c r="D61" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="174"/>
+      <c r="E61" s="207"/>
       <c r="F61" s="32"/>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
@@ -9432,13 +16786,13 @@
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:17" ht="39.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="171"/>
-      <c r="B62" s="172"/>
+      <c r="A62" s="204"/>
+      <c r="B62" s="205"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="175" t="s">
+      <c r="D62" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="174"/>
+      <c r="E62" s="207"/>
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
@@ -9457,11 +16811,11 @@
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="167" t="s">
+      <c r="E63" s="200" t="s">
         <v>154</v>
       </c>
-      <c r="F63" s="167"/>
-      <c r="G63" s="168"/>
+      <c r="F63" s="200"/>
+      <c r="G63" s="201"/>
       <c r="H63" s="43"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -9471,10 +16825,10 @@
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="161" t="s">
+      <c r="A64" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="162"/>
+      <c r="B64" s="199"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="44"/>
@@ -9548,17 +16902,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C42:H42"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A2:B2"/>
@@ -9575,477 +16934,174 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="F43:F52 F55:F56 F13:F26 F29:F40">
-    <cfRule type="cellIs" dxfId="136" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="371" operator="equal">
       <formula>"list date full support planned, if any &gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="381" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F26 F43:F52 F55:F56 C59:C63 F29:F40">
-    <cfRule type="cellIs" dxfId="134" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="379" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G29:G40 G43:G52">
-    <cfRule type="expression" dxfId="133" priority="370">
+    <cfRule type="expression" dxfId="738" priority="370">
       <formula>F13="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E51 E29:E33 E35:E36 E38 E40">
-    <cfRule type="expression" dxfId="132" priority="369">
+    <cfRule type="expression" dxfId="737" priority="369">
       <formula>D29="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E18 E21:E23 E25:E26">
-    <cfRule type="expression" dxfId="131" priority="361">
+    <cfRule type="expression" dxfId="736" priority="361">
       <formula>D14="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E18 E21:E23 E25:E26">
-    <cfRule type="expression" dxfId="130" priority="353">
+    <cfRule type="expression" dxfId="735" priority="353">
       <formula>D14="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="129" priority="329">
+    <cfRule type="expression" dxfId="734" priority="329">
       <formula>D56="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="128" priority="321">
+    <cfRule type="expression" dxfId="733" priority="321">
       <formula>D56="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27 H41 H53 F60:F62 H57">
-    <cfRule type="containsErrors" dxfId="127" priority="280">
+    <cfRule type="containsErrors" dxfId="732" priority="280">
       <formula>ISERROR(F27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H62 H63">
-    <cfRule type="cellIs" dxfId="126" priority="277" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="731" priority="277" operator="greaterThan">
       <formula>1.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="278" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="730" priority="278" operator="lessThanOrEqual">
       <formula>1.8</formula>
     </cfRule>
-    <cfRule type="containsErrors" dxfId="124" priority="382">
+    <cfRule type="containsErrors" dxfId="729" priority="382">
       <formula>ISERROR(G59)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H26 H29:H40 H43:H52 H55:H56">
-    <cfRule type="cellIs" dxfId="123" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="271" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="272" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="273" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="containsErrors" dxfId="120" priority="258">
+    <cfRule type="containsErrors" dxfId="725" priority="258">
       <formula>ISERROR(G53)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="119" priority="257">
+    <cfRule type="expression" dxfId="724" priority="257">
       <formula>F14="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="118" priority="256">
+    <cfRule type="expression" dxfId="723" priority="256">
       <formula>F15="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="117" priority="255">
+    <cfRule type="expression" dxfId="722" priority="255">
       <formula>F16="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="116" priority="254">
+    <cfRule type="expression" dxfId="721" priority="254">
       <formula>F17="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="115" priority="253">
+    <cfRule type="expression" dxfId="720" priority="253">
       <formula>F18="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="114" priority="252">
+    <cfRule type="expression" dxfId="719" priority="252">
       <formula>F19="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="113" priority="251">
+    <cfRule type="expression" dxfId="718" priority="251">
       <formula>F20="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="112" priority="250">
+    <cfRule type="expression" dxfId="717" priority="250">
       <formula>F21="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="111" priority="249">
+    <cfRule type="expression" dxfId="716" priority="249">
       <formula>F22="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="110" priority="248">
+    <cfRule type="expression" dxfId="715" priority="248">
       <formula>F23="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="109" priority="247">
+    <cfRule type="expression" dxfId="714" priority="247">
       <formula>F24="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="108" priority="246">
+    <cfRule type="expression" dxfId="713" priority="246">
       <formula>F25="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="107" priority="245">
+    <cfRule type="expression" dxfId="712" priority="245">
       <formula>F26="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="106" priority="244">
+    <cfRule type="expression" dxfId="711" priority="244">
       <formula>F55="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="expression" dxfId="105" priority="243">
+    <cfRule type="expression" dxfId="710" priority="243">
       <formula>F56="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="104" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="709" priority="237" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="238" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="708" priority="238" operator="greaterThanOrEqual">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D26">
-    <cfRule type="containsText" dxfId="102" priority="229" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="234" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="236" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="99" priority="383">
-      <formula>LEN(TRIM(D13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="98" priority="231" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="232" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="233" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="95" priority="224" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="225" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="226" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="227" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="228" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D26">
-    <cfRule type="containsText" dxfId="90" priority="219" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="220" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="221" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="222" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="223" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D26">
-    <cfRule type="containsText" dxfId="85" priority="210" operator="containsText" text="input">
-      <formula>NOT(ISERROR(SEARCH("input",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="211" operator="containsText" text="input">
-      <formula>NOT(ISERROR(SEARCH("input",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="212" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="213" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="214" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="215" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="216" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="78" priority="61" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="75" priority="64">
-      <formula>LEN(TRIM(D29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="74" priority="56" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="57" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="58" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="59" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="60" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="69" priority="49" operator="containsText" text="input">
-      <formula>NOT(ISERROR(SEARCH("input",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="50" operator="containsText" text="input">
-      <formula>NOT(ISERROR(SEARCH("input",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="51" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="52" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="53" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="54" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="55" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D40">
-    <cfRule type="containsText" dxfId="62" priority="45" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="46" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="47" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="59" priority="48">
-      <formula>LEN(TRIM(D30))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D40">
-    <cfRule type="containsText" dxfId="58" priority="40" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="41" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="42" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D40">
-    <cfRule type="containsText" dxfId="53" priority="33" operator="containsText" text="input">
-      <formula>NOT(ISERROR(SEARCH("input",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="34" operator="containsText" text="input">
-      <formula>NOT(ISERROR(SEARCH("input",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="35" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="36" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D52">
-    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="43" priority="32">
-      <formula>LEN(TRIM(D43))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D52">
-    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D52">
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="input">
-      <formula>NOT(ISERROR(SEARCH("input",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="input">
-      <formula>NOT(ISERROR(SEARCH("input",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
-    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="16">
-      <formula>LEN(TRIM(D55))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="12" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="input">
-      <formula>NOT(ISERROR(SEARCH("input",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="input">
-      <formula>NOT(ISERROR(SEARCH("input",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Criteria not applicable">
-      <formula>NOT(ISERROR(SEARCH("Criteria not applicable",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1400" yWindow="731" count="2">
@@ -10335,27 +17391,27 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A44:A51 A29:A33 A35:A36 A38 A40">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="878" priority="5">
       <formula>XFD29="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A18 A21:A23 A25:A26">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="877" priority="4">
       <formula>XFD14="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A18 A21:A23 A25:A26">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="876" priority="3">
       <formula>XFD14="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="875" priority="2">
       <formula>XFD56="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="874" priority="1">
       <formula>XFD56="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10380,7 +17436,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10969,45 +18025,23 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F39">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="867" priority="4">
       <formula>D16="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="866" priority="3">
       <formula>D16="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="865" priority="2">
       <formula>D22="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="864" priority="1">
       <formula>D22="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11253,36 +18287,6 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
-    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n8bc46b862004554b29f25437dcecdb2>
-    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
-    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
-    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b348aa9236b94ac88332be997039b018>
-    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
-      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
-      <Description>QWPW5C3C64YX-694079015-91</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
     <Name>Document ID Generator</Name>
@@ -11331,6 +18335,36 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
+    <n8bc46b862004554b29f25437dcecdb2 xmlns="93977a9a-7c70-4c47-a38b-6f123b62dce6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n8bc46b862004554b29f25437dcecdb2>
+    <Fiscal_x0020_Year xmlns="17eb8759-252b-418d-a649-70aff91fc5df" xsi:nil="true"/>
+    <Archive xmlns="17eb8759-252b-418d-a649-70aff91fc5df">false</Archive>
+    <b348aa9236b94ac88332be997039b018 xmlns="17eb8759-252b-418d-a649-70aff91fc5df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b348aa9236b94ac88332be997039b018>
+    <_dlc_DocId xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">QWPW5C3C64YX-694079015-91</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720">
+      <Url>http://cscgikdcapmdw40/ProjectsLab/AODACompliance/_layouts/15/DocIdRedir.aspx?ID=QWPW5C3C64YX-694079015-91</Url>
+      <Description>QWPW5C3C64YX-694079015-91</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C5CD16F-1A82-4BAB-88E6-9D42833A2748}">
   <ds:schemaRefs>
@@ -11352,9 +18386,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11378,9 +18412,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
+++ b/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUONGCH\Projects\AxeAccessibilityDriver\AxeAccessibilityDriver\AxeAccessibilityDriver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1299FF-CA91-4E78-85F8-FE10194406DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81253F7B-E724-483C-989C-ADA4DB5E4214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3732,121 +3732,22 @@
     <xf numFmtId="0" fontId="49" fillId="13" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3889,6 +3790,105 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3922,7 +3922,7 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
-  <dxfs count="880">
+  <dxfs count="44">
     <dxf>
       <fill>
         <patternFill>
@@ -3954,59 +3954,11 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
@@ -4014,135 +3966,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
@@ -4150,107 +3973,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
@@ -4258,714 +3980,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5199,7395 +4216,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF485925"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF485925"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF485925"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF485925"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF485925"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF485925"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -15169,7 +6797,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="879" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15211,16 +6839,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="179"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="186"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="1"/>
@@ -15234,13 +6862,13 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="182"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="190"/>
       <c r="F2" s="39"/>
       <c r="G2" s="1"/>
       <c r="H2" s="16"/>
@@ -15252,13 +6880,13 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="39"/>
       <c r="G3" s="1"/>
       <c r="H3" s="16"/>
@@ -15270,12 +6898,12 @@
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="91"/>
       <c r="F4" s="39"/>
       <c r="G4" s="1"/>
@@ -15288,13 +6916,13 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="214"/>
       <c r="F5" s="39"/>
       <c r="G5" s="1"/>
       <c r="H5" s="16"/>
@@ -15306,13 +6934,13 @@
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="164"/>
       <c r="F6" s="39"/>
       <c r="G6" s="1"/>
       <c r="H6" s="16"/>
@@ -15324,13 +6952,13 @@
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="166"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="164"/>
       <c r="F7" s="39"/>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -15342,13 +6970,13 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="166"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164"/>
       <c r="F8" s="39"/>
       <c r="G8" s="1"/>
       <c r="H8" s="16"/>
@@ -15360,16 +6988,16 @@
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:19" s="37" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -15379,16 +7007,16 @@
       <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="195" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="188"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -15398,10 +7026,10 @@
       <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="193" t="s">
+      <c r="A11" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="194"/>
+      <c r="B11" s="201"/>
       <c r="C11" s="123" t="s">
         <v>40</v>
       </c>
@@ -15411,10 +7039,10 @@
       <c r="E11" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="189" t="s">
+      <c r="F11" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="189"/>
+      <c r="G11" s="199"/>
       <c r="H11" s="124" t="s">
         <v>53</v>
       </c>
@@ -15426,18 +7054,18 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="183"/>
-      <c r="C12" s="190" t="s">
+      <c r="B12" s="192"/>
+      <c r="C12" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="191"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="192"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="184"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -15862,14 +7490,14 @@
       <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="17.45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="187" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
       <c r="G27" s="24">
         <f>SUM(H13:H26)</f>
         <v>0</v>
@@ -15886,18 +7514,18 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="172" t="s">
+      <c r="A28" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="173"/>
-      <c r="C28" s="190" t="s">
+      <c r="B28" s="198"/>
+      <c r="C28" s="182" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="191"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="192"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="184"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -16251,14 +7879,14 @@
       <c r="Q40" s="102"/>
     </row>
     <row r="41" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
-      <c r="E41" s="177"/>
-      <c r="F41" s="177"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
       <c r="G41" s="24">
         <f>SUM(H29:H40)</f>
         <v>0</v>
@@ -16275,18 +7903,18 @@
       <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="172" t="s">
+      <c r="A42" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="173"/>
-      <c r="C42" s="190" t="s">
+      <c r="B42" s="198"/>
+      <c r="C42" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="192"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="184"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -16585,14 +8213,14 @@
       <c r="Q52" s="102"/>
     </row>
     <row r="53" spans="1:17" ht="74.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="176" t="s">
+      <c r="A53" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="177"/>
-      <c r="E53" s="177"/>
-      <c r="F53" s="177"/>
+      <c r="B53" s="188"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
       <c r="G53" s="25">
         <f>SUM(H43:H52)</f>
         <v>0</v>
@@ -16609,18 +8237,18 @@
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="170" t="s">
+      <c r="A54" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="171"/>
-      <c r="C54" s="167" t="s">
+      <c r="B54" s="209"/>
+      <c r="C54" s="205" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="168"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="168"/>
-      <c r="H54" s="169"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="206"/>
+      <c r="G54" s="206"/>
+      <c r="H54" s="207"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -16687,14 +8315,14 @@
       <c r="Q56" s="102"/>
     </row>
     <row r="57" spans="1:17" ht="43.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="176" t="s">
+      <c r="A57" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="177"/>
-      <c r="F57" s="177"/>
+      <c r="B57" s="188"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
       <c r="G57" s="24">
         <f>SUM(H55:H56)</f>
         <v>0</v>
@@ -16711,16 +8339,16 @@
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="174" t="s">
+      <c r="A58" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="175"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="175"/>
-      <c r="E58" s="175"/>
-      <c r="F58" s="212"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="214"/>
+      <c r="B58" s="211"/>
+      <c r="C58" s="211"/>
+      <c r="D58" s="211"/>
+      <c r="E58" s="211"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="181"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -16729,14 +8357,14 @@
       <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="202"/>
-      <c r="B59" s="203"/>
+      <c r="A59" s="169"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="209" t="s">
+      <c r="D59" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="210"/>
-      <c r="F59" s="211"/>
+      <c r="E59" s="177"/>
+      <c r="F59" s="178"/>
       <c r="G59" s="29">
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
@@ -16750,13 +8378,13 @@
       <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="204"/>
-      <c r="B60" s="205"/>
+      <c r="A60" s="171"/>
+      <c r="B60" s="172"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="206" t="s">
+      <c r="D60" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="207"/>
+      <c r="E60" s="174"/>
       <c r="F60" s="32"/>
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
@@ -16768,13 +8396,13 @@
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:17" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="204"/>
-      <c r="B61" s="205"/>
+      <c r="A61" s="171"/>
+      <c r="B61" s="172"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="206" t="s">
+      <c r="D61" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="207"/>
+      <c r="E61" s="174"/>
       <c r="F61" s="32"/>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
@@ -16786,13 +8414,13 @@
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:17" ht="39.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="204"/>
-      <c r="B62" s="205"/>
+      <c r="A62" s="171"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="208" t="s">
+      <c r="D62" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="207"/>
+      <c r="E62" s="174"/>
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
@@ -16811,11 +8439,11 @@
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="200" t="s">
+      <c r="E63" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="F63" s="200"/>
-      <c r="G63" s="201"/>
+      <c r="F63" s="167"/>
+      <c r="G63" s="168"/>
       <c r="H63" s="43"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -16825,10 +8453,10 @@
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="198" t="s">
+      <c r="A64" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="199"/>
+      <c r="B64" s="162"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="44"/>
@@ -16902,6 +8530,33 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A8:B8"/>
@@ -16918,189 +8573,162 @@
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="F58:H58"/>
     <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="F43:F52 F55:F56 F13:F26 F29:F40">
-    <cfRule type="cellIs" dxfId="741" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="371" operator="equal">
       <formula>"list date full support planned, if any &gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="381" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F26 F43:F52 F55:F56 C59:C63 F29:F40">
-    <cfRule type="cellIs" dxfId="739" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="379" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G29:G40 G43:G52">
-    <cfRule type="expression" dxfId="738" priority="370">
+    <cfRule type="expression" dxfId="39" priority="370">
       <formula>F13="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E51 E29:E33 E35:E36 E38 E40">
-    <cfRule type="expression" dxfId="737" priority="369">
+    <cfRule type="expression" dxfId="38" priority="369">
       <formula>D29="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E18 E21:E23 E25:E26">
-    <cfRule type="expression" dxfId="736" priority="361">
+    <cfRule type="expression" dxfId="37" priority="361">
       <formula>D14="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E18 E21:E23 E25:E26">
-    <cfRule type="expression" dxfId="735" priority="353">
+    <cfRule type="expression" dxfId="36" priority="353">
       <formula>D14="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="734" priority="329">
+    <cfRule type="expression" dxfId="35" priority="329">
       <formula>D56="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="733" priority="321">
+    <cfRule type="expression" dxfId="34" priority="321">
       <formula>D56="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27 H41 H53 F60:F62 H57">
-    <cfRule type="containsErrors" dxfId="732" priority="280">
+    <cfRule type="containsErrors" dxfId="33" priority="280">
       <formula>ISERROR(F27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H62 H63">
-    <cfRule type="cellIs" dxfId="731" priority="277" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="277" operator="greaterThan">
       <formula>1.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="278" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="278" operator="lessThanOrEqual">
       <formula>1.8</formula>
     </cfRule>
-    <cfRule type="containsErrors" dxfId="729" priority="382">
+    <cfRule type="containsErrors" dxfId="30" priority="382">
       <formula>ISERROR(G59)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H26 H29:H40 H43:H52 H55:H56">
-    <cfRule type="cellIs" dxfId="728" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="271" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="272" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="273" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="containsErrors" dxfId="725" priority="258">
+    <cfRule type="containsErrors" dxfId="26" priority="258">
       <formula>ISERROR(G53)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="724" priority="257">
+    <cfRule type="expression" dxfId="25" priority="257">
       <formula>F14="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="723" priority="256">
+    <cfRule type="expression" dxfId="24" priority="256">
       <formula>F15="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="722" priority="255">
+    <cfRule type="expression" dxfId="23" priority="255">
       <formula>F16="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="721" priority="254">
+    <cfRule type="expression" dxfId="22" priority="254">
       <formula>F17="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="720" priority="253">
+    <cfRule type="expression" dxfId="21" priority="253">
       <formula>F18="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="719" priority="252">
+    <cfRule type="expression" dxfId="20" priority="252">
       <formula>F19="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="718" priority="251">
+    <cfRule type="expression" dxfId="19" priority="251">
       <formula>F20="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="717" priority="250">
+    <cfRule type="expression" dxfId="18" priority="250">
       <formula>F21="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="716" priority="249">
+    <cfRule type="expression" dxfId="17" priority="249">
       <formula>F22="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="715" priority="248">
+    <cfRule type="expression" dxfId="16" priority="248">
       <formula>F23="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="714" priority="247">
+    <cfRule type="expression" dxfId="15" priority="247">
       <formula>F24="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="713" priority="246">
+    <cfRule type="expression" dxfId="14" priority="246">
       <formula>F25="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="712" priority="245">
+    <cfRule type="expression" dxfId="13" priority="245">
       <formula>F26="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="711" priority="244">
+    <cfRule type="expression" dxfId="12" priority="244">
       <formula>F55="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="expression" dxfId="710" priority="243">
+    <cfRule type="expression" dxfId="11" priority="243">
       <formula>F56="list date full support planned, if any &gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="709" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="237" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="238" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="238" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17391,27 +9019,27 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A44:A51 A29:A33 A35:A36 A38 A40">
-    <cfRule type="expression" dxfId="878" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>XFD29="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A18 A21:A23 A25:A26">
-    <cfRule type="expression" dxfId="877" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>XFD14="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A18 A21:A23 A25:A26">
-    <cfRule type="expression" dxfId="876" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>XFD14="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="875" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>XFD56="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="874" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>XFD56="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17436,13 +9064,13 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="76.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="56.7109375" style="2" customWidth="1"/>
@@ -18026,22 +9654,22 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="867" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>D16="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="866" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>D16="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="865" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>D22="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="864" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>D22="supports w/exceptions"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18065,6 +9693,56 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B7F6C1E041661428C0804F60FDF9579" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="269e77b516f09928499b1be999970057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17eb8759-252b-418d-a649-70aff91fc5df" xmlns:ns3="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720" xmlns:ns4="93977a9a-7c70-4c47-a38b-6f123b62dce6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41b65eea62d023978f15f5547645abd7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="17eb8759-252b-418d-a649-70aff91fc5df"/>
@@ -18285,57 +9963,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="039bc2d6-e16a-4b4d-b61d-73ee5a6b5720"/>
@@ -18356,16 +9993,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C5CD16F-1A82-4BAB-88E6-9D42833A2748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18385,15 +10021,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C507B214-A4AD-4147-9668-C65BAB18F1D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -18409,12 +10045,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
+++ b/AxeAccessibilityDriver/AxeAccessibilityDriver/AODA_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUONGCH\Projects\AxeAccessibilityDriver\AxeAccessibilityDriver\AxeAccessibilityDriver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81253F7B-E724-483C-989C-ADA4DB5E4214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19487DC-2281-433B-8F8A-0276867F0AAD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="255">
   <si>
     <t>1.1.1</t>
   </si>
@@ -2869,7 +2869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3142,34 +3142,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3301,34 +3273,13 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3410,7 +3361,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3432,7 +3383,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3480,7 +3431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3491,7 +3442,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="32" xfId="14"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="30" xfId="14"/>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3513,7 +3464,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -3521,7 +3472,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3529,11 +3480,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3555,7 +3506,7 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3592,41 +3543,19 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3640,48 +3569,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3714,11 +3605,11 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3729,29 +3620,211 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="6" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3791,115 +3864,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4742,481 +4710,481 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="153.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="59" hidden="1" customWidth="1"/>
-    <col min="3" max="7" width="8.85546875" style="59" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="50" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="8.85546875" style="50" hidden="1" customWidth="1"/>
     <col min="8" max="16383" width="8.85546875" hidden="1"/>
     <col min="16384" max="16384" width="0.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="60" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:7" s="51" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-    </row>
-    <row r="2" spans="1:7" s="60" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" s="51" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:7" s="74" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" s="65" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-    </row>
-    <row r="4" spans="1:7" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+    </row>
+    <row r="4" spans="1:7" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-    </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+    </row>
+    <row r="5" spans="1:7" s="65" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+    </row>
+    <row r="6" spans="1:7" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-    </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+    </row>
+    <row r="7" spans="1:7" s="65" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-    </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="1:7" s="65" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+    </row>
+    <row r="9" spans="1:7" s="65" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-    </row>
-    <row r="10" spans="1:7" s="74" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" s="65" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="1:7" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" spans="1:7" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-    </row>
-    <row r="12" spans="1:7" s="74" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+    </row>
+    <row r="12" spans="1:7" s="65" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-    </row>
-    <row r="13" spans="1:7" s="74" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" s="65" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-    </row>
-    <row r="14" spans="1:7" s="74" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="76" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+    </row>
+    <row r="14" spans="1:7" s="65" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:7" s="74" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+    </row>
+    <row r="15" spans="1:7" s="65" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-    </row>
-    <row r="16" spans="1:7" s="61" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:7" s="52" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="66"/>
-    </row>
-    <row r="17" spans="1:7" s="80" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="B16" s="57"/>
+    </row>
+    <row r="17" spans="1:7" s="71" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="72"/>
-    </row>
-    <row r="18" spans="1:7" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="76" t="s">
+      <c r="B17" s="63"/>
+    </row>
+    <row r="18" spans="1:7" s="65" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-    </row>
-    <row r="19" spans="1:7" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+    </row>
+    <row r="19" spans="1:7" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-    </row>
-    <row r="20" spans="1:7" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+    </row>
+    <row r="20" spans="1:7" s="109" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-    </row>
-    <row r="21" spans="1:7" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+    </row>
+    <row r="21" spans="1:7" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-    </row>
-    <row r="22" spans="1:7" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="76"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-    </row>
-    <row r="23" spans="1:7" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="77" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+    </row>
+    <row r="22" spans="1:7" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+    </row>
+    <row r="23" spans="1:7" s="65" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-    </row>
-    <row r="24" spans="1:7" s="74" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+    </row>
+    <row r="24" spans="1:7" s="65" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-    </row>
-    <row r="25" spans="1:7" s="74" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+    </row>
+    <row r="25" spans="1:7" s="65" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-    </row>
-    <row r="26" spans="1:7" s="74" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+    </row>
+    <row r="26" spans="1:7" s="65" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-    </row>
-    <row r="27" spans="1:7" s="74" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="85" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+    </row>
+    <row r="27" spans="1:7" s="65" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-    </row>
-    <row r="28" spans="1:7" s="61" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+    </row>
+    <row r="28" spans="1:7" s="52" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="66"/>
-    </row>
-    <row r="29" spans="1:7" s="61" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="67" t="s">
+      <c r="B28" s="57"/>
+    </row>
+    <row r="29" spans="1:7" s="52" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B29" s="68"/>
-    </row>
-    <row r="30" spans="1:7" s="74" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="77" t="s">
+      <c r="B29" s="59"/>
+    </row>
+    <row r="30" spans="1:7" s="65" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-    </row>
-    <row r="31" spans="1:7" s="74" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="81" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+    </row>
+    <row r="31" spans="1:7" s="65" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-    </row>
-    <row r="32" spans="1:7" s="74" customFormat="1" ht="97.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+    </row>
+    <row r="32" spans="1:7" s="65" customFormat="1" ht="97.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
     </row>
     <row r="33" spans="1:7" ht="64.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="62"/>
-    </row>
-    <row r="34" spans="1:7" s="61" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="67" t="s">
+      <c r="B33" s="53"/>
+    </row>
+    <row r="34" spans="1:7" s="52" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="69"/>
-    </row>
-    <row r="35" spans="1:7" s="74" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="77" t="s">
+      <c r="B34" s="60"/>
+    </row>
+    <row r="35" spans="1:7" s="65" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-    </row>
-    <row r="36" spans="1:7" s="74" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+    </row>
+    <row r="36" spans="1:7" s="65" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-    </row>
-    <row r="37" spans="1:7" s="74" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="77" t="s">
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+    </row>
+    <row r="37" spans="1:7" s="65" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-    </row>
-    <row r="38" spans="1:7" s="74" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="81" t="s">
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+    </row>
+    <row r="38" spans="1:7" s="65" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-    </row>
-    <row r="39" spans="1:7" s="74" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="86" t="s">
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+    </row>
+    <row r="39" spans="1:7" s="65" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-    </row>
-    <row r="40" spans="1:7" s="74" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="129" t="s">
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+    </row>
+    <row r="40" spans="1:7" s="65" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-    </row>
-    <row r="41" spans="1:7" s="61" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="67" t="s">
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+    </row>
+    <row r="41" spans="1:7" s="52" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="69"/>
-    </row>
-    <row r="42" spans="1:7" s="74" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="77" t="s">
+      <c r="B41" s="60"/>
+    </row>
+    <row r="42" spans="1:7" s="65" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-    </row>
-    <row r="43" spans="1:7" s="74" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="77" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+    </row>
+    <row r="43" spans="1:7" s="65" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-    </row>
-    <row r="44" spans="1:7" s="74" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="75" t="s">
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+    </row>
+    <row r="44" spans="1:7" s="65" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-    </row>
-    <row r="45" spans="1:7" s="74" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A45" s="75" t="s">
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+    </row>
+    <row r="45" spans="1:7" s="65" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="B45" s="72"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-    </row>
-    <row r="46" spans="1:7" s="74" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82" t="s">
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+    </row>
+    <row r="46" spans="1:7" s="65" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="75" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5259,1539 +5227,1539 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="194.7109375" style="159" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="154" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="155" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" style="147" hidden="1" customWidth="1"/>
-    <col min="5" max="252" width="0" style="150" hidden="1" customWidth="1"/>
-    <col min="253" max="16384" width="9.140625" style="52" hidden="1"/>
+    <col min="1" max="1" width="194.7109375" style="127" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="122" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="123" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" style="115" hidden="1" customWidth="1"/>
+    <col min="5" max="252" width="0" style="118" hidden="1" customWidth="1"/>
+    <col min="253" max="16384" width="9.140625" style="43" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:252" s="50" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:252" s="41" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:252" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="57" t="e">
+      <c r="B2" s="48" t="e">
         <f>COUNTIF('[3]WCAG 2.0 Compliance Checklist'!D13:D56,"Pass")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-    </row>
-    <row r="3" spans="1:252" s="54" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="C2" s="42"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+    </row>
+    <row r="3" spans="1:252" s="45" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="53" t="e">
+      <c r="B3" s="44" t="e">
         <f>COUNTIF('[3]WCAG 2.0 Compliance Checklist'!D13:D56,"Criteria not applicable")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="153"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="153"/>
-      <c r="AJ3" s="153"/>
-      <c r="AK3" s="153"/>
-      <c r="AL3" s="153"/>
-      <c r="AM3" s="153"/>
-      <c r="AN3" s="153"/>
-      <c r="AO3" s="153"/>
-      <c r="AP3" s="153"/>
-      <c r="AQ3" s="153"/>
-      <c r="AR3" s="153"/>
-      <c r="AS3" s="153"/>
-      <c r="AT3" s="153"/>
-      <c r="AU3" s="153"/>
-      <c r="AV3" s="153"/>
-      <c r="AW3" s="153"/>
-      <c r="AX3" s="153"/>
-      <c r="AY3" s="153"/>
-      <c r="AZ3" s="153"/>
-      <c r="BA3" s="153"/>
-      <c r="BB3" s="153"/>
-      <c r="BC3" s="153"/>
-      <c r="BD3" s="153"/>
-      <c r="BE3" s="153"/>
-      <c r="BF3" s="153"/>
-      <c r="BG3" s="153"/>
-      <c r="BH3" s="153"/>
-      <c r="BI3" s="153"/>
-      <c r="BJ3" s="153"/>
-      <c r="BK3" s="153"/>
-      <c r="BL3" s="153"/>
-      <c r="BM3" s="153"/>
-      <c r="BN3" s="153"/>
-      <c r="BO3" s="153"/>
-      <c r="BP3" s="153"/>
-      <c r="BQ3" s="153"/>
-      <c r="BR3" s="153"/>
-      <c r="BS3" s="153"/>
-      <c r="BT3" s="153"/>
-      <c r="BU3" s="153"/>
-      <c r="BV3" s="153"/>
-      <c r="BW3" s="153"/>
-      <c r="BX3" s="153"/>
-      <c r="BY3" s="153"/>
-      <c r="BZ3" s="153"/>
-      <c r="CA3" s="153"/>
-      <c r="CB3" s="153"/>
-      <c r="CC3" s="153"/>
-      <c r="CD3" s="153"/>
-      <c r="CE3" s="153"/>
-      <c r="CF3" s="153"/>
-      <c r="CG3" s="153"/>
-      <c r="CH3" s="153"/>
-      <c r="CI3" s="153"/>
-      <c r="CJ3" s="153"/>
-      <c r="CK3" s="153"/>
-      <c r="CL3" s="153"/>
-      <c r="CM3" s="153"/>
-      <c r="CN3" s="153"/>
-      <c r="CO3" s="153"/>
-      <c r="CP3" s="153"/>
-      <c r="CQ3" s="153"/>
-      <c r="CR3" s="153"/>
-      <c r="CS3" s="153"/>
-      <c r="CT3" s="153"/>
-      <c r="CU3" s="153"/>
-      <c r="CV3" s="153"/>
-      <c r="CW3" s="153"/>
-      <c r="CX3" s="153"/>
-      <c r="CY3" s="153"/>
-      <c r="CZ3" s="153"/>
-      <c r="DA3" s="153"/>
-      <c r="DB3" s="153"/>
-      <c r="DC3" s="153"/>
-      <c r="DD3" s="153"/>
-      <c r="DE3" s="153"/>
-      <c r="DF3" s="153"/>
-      <c r="DG3" s="153"/>
-      <c r="DH3" s="153"/>
-      <c r="DI3" s="153"/>
-      <c r="DJ3" s="153"/>
-      <c r="DK3" s="153"/>
-      <c r="DL3" s="153"/>
-      <c r="DM3" s="153"/>
-      <c r="DN3" s="153"/>
-      <c r="DO3" s="153"/>
-      <c r="DP3" s="153"/>
-      <c r="DQ3" s="153"/>
-      <c r="DR3" s="153"/>
-      <c r="DS3" s="153"/>
-      <c r="DT3" s="153"/>
-      <c r="DU3" s="153"/>
-      <c r="DV3" s="153"/>
-      <c r="DW3" s="153"/>
-      <c r="DX3" s="153"/>
-      <c r="DY3" s="153"/>
-      <c r="DZ3" s="153"/>
-      <c r="EA3" s="153"/>
-      <c r="EB3" s="153"/>
-      <c r="EC3" s="153"/>
-      <c r="ED3" s="153"/>
-      <c r="EE3" s="153"/>
-      <c r="EF3" s="153"/>
-      <c r="EG3" s="153"/>
-      <c r="EH3" s="153"/>
-      <c r="EI3" s="153"/>
-      <c r="EJ3" s="153"/>
-      <c r="EK3" s="153"/>
-      <c r="EL3" s="153"/>
-      <c r="EM3" s="153"/>
-      <c r="EN3" s="153"/>
-      <c r="EO3" s="153"/>
-      <c r="EP3" s="153"/>
-      <c r="EQ3" s="153"/>
-      <c r="ER3" s="153"/>
-      <c r="ES3" s="153"/>
-      <c r="ET3" s="153"/>
-      <c r="EU3" s="153"/>
-      <c r="EV3" s="153"/>
-      <c r="EW3" s="153"/>
-      <c r="EX3" s="153"/>
-      <c r="EY3" s="153"/>
-      <c r="EZ3" s="153"/>
-      <c r="FA3" s="153"/>
-      <c r="FB3" s="153"/>
-      <c r="FC3" s="153"/>
-      <c r="FD3" s="153"/>
-      <c r="FE3" s="153"/>
-      <c r="FF3" s="153"/>
-      <c r="FG3" s="153"/>
-      <c r="FH3" s="153"/>
-      <c r="FI3" s="153"/>
-      <c r="FJ3" s="153"/>
-      <c r="FK3" s="153"/>
-      <c r="FL3" s="153"/>
-      <c r="FM3" s="153"/>
-      <c r="FN3" s="153"/>
-      <c r="FO3" s="153"/>
-      <c r="FP3" s="153"/>
-      <c r="FQ3" s="153"/>
-      <c r="FR3" s="153"/>
-      <c r="FS3" s="153"/>
-      <c r="FT3" s="153"/>
-      <c r="FU3" s="153"/>
-      <c r="FV3" s="153"/>
-      <c r="FW3" s="153"/>
-      <c r="FX3" s="153"/>
-      <c r="FY3" s="153"/>
-      <c r="FZ3" s="153"/>
-      <c r="GA3" s="153"/>
-      <c r="GB3" s="153"/>
-      <c r="GC3" s="153"/>
-      <c r="GD3" s="153"/>
-      <c r="GE3" s="153"/>
-      <c r="GF3" s="153"/>
-      <c r="GG3" s="153"/>
-      <c r="GH3" s="153"/>
-      <c r="GI3" s="153"/>
-      <c r="GJ3" s="153"/>
-      <c r="GK3" s="153"/>
-      <c r="GL3" s="153"/>
-      <c r="GM3" s="153"/>
-      <c r="GN3" s="153"/>
-      <c r="GO3" s="153"/>
-      <c r="GP3" s="153"/>
-      <c r="GQ3" s="153"/>
-      <c r="GR3" s="153"/>
-      <c r="GS3" s="153"/>
-      <c r="GT3" s="153"/>
-      <c r="GU3" s="153"/>
-      <c r="GV3" s="153"/>
-      <c r="GW3" s="153"/>
-      <c r="GX3" s="153"/>
-      <c r="GY3" s="153"/>
-      <c r="GZ3" s="153"/>
-      <c r="HA3" s="153"/>
-      <c r="HB3" s="153"/>
-      <c r="HC3" s="153"/>
-      <c r="HD3" s="153"/>
-      <c r="HE3" s="153"/>
-      <c r="HF3" s="153"/>
-      <c r="HG3" s="153"/>
-      <c r="HH3" s="153"/>
-      <c r="HI3" s="153"/>
-      <c r="HJ3" s="153"/>
-      <c r="HK3" s="153"/>
-      <c r="HL3" s="153"/>
-      <c r="HM3" s="153"/>
-      <c r="HN3" s="153"/>
-      <c r="HO3" s="153"/>
-      <c r="HP3" s="153"/>
-      <c r="HQ3" s="153"/>
-      <c r="HR3" s="153"/>
-      <c r="HS3" s="153"/>
-      <c r="HT3" s="153"/>
-      <c r="HU3" s="153"/>
-      <c r="HV3" s="153"/>
-      <c r="HW3" s="153"/>
-      <c r="HX3" s="153"/>
-      <c r="HY3" s="153"/>
-      <c r="HZ3" s="153"/>
-      <c r="IA3" s="153"/>
-      <c r="IB3" s="153"/>
-      <c r="IC3" s="153"/>
-      <c r="ID3" s="153"/>
-      <c r="IE3" s="153"/>
-      <c r="IF3" s="153"/>
-      <c r="IG3" s="153"/>
-      <c r="IH3" s="153"/>
-      <c r="II3" s="153"/>
-      <c r="IJ3" s="153"/>
-      <c r="IK3" s="153"/>
-      <c r="IL3" s="153"/>
-      <c r="IM3" s="153"/>
-      <c r="IN3" s="153"/>
-      <c r="IO3" s="153"/>
-      <c r="IP3" s="153"/>
-      <c r="IQ3" s="153"/>
-      <c r="IR3" s="153"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="121"/>
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="121"/>
+      <c r="AO3" s="121"/>
+      <c r="AP3" s="121"/>
+      <c r="AQ3" s="121"/>
+      <c r="AR3" s="121"/>
+      <c r="AS3" s="121"/>
+      <c r="AT3" s="121"/>
+      <c r="AU3" s="121"/>
+      <c r="AV3" s="121"/>
+      <c r="AW3" s="121"/>
+      <c r="AX3" s="121"/>
+      <c r="AY3" s="121"/>
+      <c r="AZ3" s="121"/>
+      <c r="BA3" s="121"/>
+      <c r="BB3" s="121"/>
+      <c r="BC3" s="121"/>
+      <c r="BD3" s="121"/>
+      <c r="BE3" s="121"/>
+      <c r="BF3" s="121"/>
+      <c r="BG3" s="121"/>
+      <c r="BH3" s="121"/>
+      <c r="BI3" s="121"/>
+      <c r="BJ3" s="121"/>
+      <c r="BK3" s="121"/>
+      <c r="BL3" s="121"/>
+      <c r="BM3" s="121"/>
+      <c r="BN3" s="121"/>
+      <c r="BO3" s="121"/>
+      <c r="BP3" s="121"/>
+      <c r="BQ3" s="121"/>
+      <c r="BR3" s="121"/>
+      <c r="BS3" s="121"/>
+      <c r="BT3" s="121"/>
+      <c r="BU3" s="121"/>
+      <c r="BV3" s="121"/>
+      <c r="BW3" s="121"/>
+      <c r="BX3" s="121"/>
+      <c r="BY3" s="121"/>
+      <c r="BZ3" s="121"/>
+      <c r="CA3" s="121"/>
+      <c r="CB3" s="121"/>
+      <c r="CC3" s="121"/>
+      <c r="CD3" s="121"/>
+      <c r="CE3" s="121"/>
+      <c r="CF3" s="121"/>
+      <c r="CG3" s="121"/>
+      <c r="CH3" s="121"/>
+      <c r="CI3" s="121"/>
+      <c r="CJ3" s="121"/>
+      <c r="CK3" s="121"/>
+      <c r="CL3" s="121"/>
+      <c r="CM3" s="121"/>
+      <c r="CN3" s="121"/>
+      <c r="CO3" s="121"/>
+      <c r="CP3" s="121"/>
+      <c r="CQ3" s="121"/>
+      <c r="CR3" s="121"/>
+      <c r="CS3" s="121"/>
+      <c r="CT3" s="121"/>
+      <c r="CU3" s="121"/>
+      <c r="CV3" s="121"/>
+      <c r="CW3" s="121"/>
+      <c r="CX3" s="121"/>
+      <c r="CY3" s="121"/>
+      <c r="CZ3" s="121"/>
+      <c r="DA3" s="121"/>
+      <c r="DB3" s="121"/>
+      <c r="DC3" s="121"/>
+      <c r="DD3" s="121"/>
+      <c r="DE3" s="121"/>
+      <c r="DF3" s="121"/>
+      <c r="DG3" s="121"/>
+      <c r="DH3" s="121"/>
+      <c r="DI3" s="121"/>
+      <c r="DJ3" s="121"/>
+      <c r="DK3" s="121"/>
+      <c r="DL3" s="121"/>
+      <c r="DM3" s="121"/>
+      <c r="DN3" s="121"/>
+      <c r="DO3" s="121"/>
+      <c r="DP3" s="121"/>
+      <c r="DQ3" s="121"/>
+      <c r="DR3" s="121"/>
+      <c r="DS3" s="121"/>
+      <c r="DT3" s="121"/>
+      <c r="DU3" s="121"/>
+      <c r="DV3" s="121"/>
+      <c r="DW3" s="121"/>
+      <c r="DX3" s="121"/>
+      <c r="DY3" s="121"/>
+      <c r="DZ3" s="121"/>
+      <c r="EA3" s="121"/>
+      <c r="EB3" s="121"/>
+      <c r="EC3" s="121"/>
+      <c r="ED3" s="121"/>
+      <c r="EE3" s="121"/>
+      <c r="EF3" s="121"/>
+      <c r="EG3" s="121"/>
+      <c r="EH3" s="121"/>
+      <c r="EI3" s="121"/>
+      <c r="EJ3" s="121"/>
+      <c r="EK3" s="121"/>
+      <c r="EL3" s="121"/>
+      <c r="EM3" s="121"/>
+      <c r="EN3" s="121"/>
+      <c r="EO3" s="121"/>
+      <c r="EP3" s="121"/>
+      <c r="EQ3" s="121"/>
+      <c r="ER3" s="121"/>
+      <c r="ES3" s="121"/>
+      <c r="ET3" s="121"/>
+      <c r="EU3" s="121"/>
+      <c r="EV3" s="121"/>
+      <c r="EW3" s="121"/>
+      <c r="EX3" s="121"/>
+      <c r="EY3" s="121"/>
+      <c r="EZ3" s="121"/>
+      <c r="FA3" s="121"/>
+      <c r="FB3" s="121"/>
+      <c r="FC3" s="121"/>
+      <c r="FD3" s="121"/>
+      <c r="FE3" s="121"/>
+      <c r="FF3" s="121"/>
+      <c r="FG3" s="121"/>
+      <c r="FH3" s="121"/>
+      <c r="FI3" s="121"/>
+      <c r="FJ3" s="121"/>
+      <c r="FK3" s="121"/>
+      <c r="FL3" s="121"/>
+      <c r="FM3" s="121"/>
+      <c r="FN3" s="121"/>
+      <c r="FO3" s="121"/>
+      <c r="FP3" s="121"/>
+      <c r="FQ3" s="121"/>
+      <c r="FR3" s="121"/>
+      <c r="FS3" s="121"/>
+      <c r="FT3" s="121"/>
+      <c r="FU3" s="121"/>
+      <c r="FV3" s="121"/>
+      <c r="FW3" s="121"/>
+      <c r="FX3" s="121"/>
+      <c r="FY3" s="121"/>
+      <c r="FZ3" s="121"/>
+      <c r="GA3" s="121"/>
+      <c r="GB3" s="121"/>
+      <c r="GC3" s="121"/>
+      <c r="GD3" s="121"/>
+      <c r="GE3" s="121"/>
+      <c r="GF3" s="121"/>
+      <c r="GG3" s="121"/>
+      <c r="GH3" s="121"/>
+      <c r="GI3" s="121"/>
+      <c r="GJ3" s="121"/>
+      <c r="GK3" s="121"/>
+      <c r="GL3" s="121"/>
+      <c r="GM3" s="121"/>
+      <c r="GN3" s="121"/>
+      <c r="GO3" s="121"/>
+      <c r="GP3" s="121"/>
+      <c r="GQ3" s="121"/>
+      <c r="GR3" s="121"/>
+      <c r="GS3" s="121"/>
+      <c r="GT3" s="121"/>
+      <c r="GU3" s="121"/>
+      <c r="GV3" s="121"/>
+      <c r="GW3" s="121"/>
+      <c r="GX3" s="121"/>
+      <c r="GY3" s="121"/>
+      <c r="GZ3" s="121"/>
+      <c r="HA3" s="121"/>
+      <c r="HB3" s="121"/>
+      <c r="HC3" s="121"/>
+      <c r="HD3" s="121"/>
+      <c r="HE3" s="121"/>
+      <c r="HF3" s="121"/>
+      <c r="HG3" s="121"/>
+      <c r="HH3" s="121"/>
+      <c r="HI3" s="121"/>
+      <c r="HJ3" s="121"/>
+      <c r="HK3" s="121"/>
+      <c r="HL3" s="121"/>
+      <c r="HM3" s="121"/>
+      <c r="HN3" s="121"/>
+      <c r="HO3" s="121"/>
+      <c r="HP3" s="121"/>
+      <c r="HQ3" s="121"/>
+      <c r="HR3" s="121"/>
+      <c r="HS3" s="121"/>
+      <c r="HT3" s="121"/>
+      <c r="HU3" s="121"/>
+      <c r="HV3" s="121"/>
+      <c r="HW3" s="121"/>
+      <c r="HX3" s="121"/>
+      <c r="HY3" s="121"/>
+      <c r="HZ3" s="121"/>
+      <c r="IA3" s="121"/>
+      <c r="IB3" s="121"/>
+      <c r="IC3" s="121"/>
+      <c r="ID3" s="121"/>
+      <c r="IE3" s="121"/>
+      <c r="IF3" s="121"/>
+      <c r="IG3" s="121"/>
+      <c r="IH3" s="121"/>
+      <c r="II3" s="121"/>
+      <c r="IJ3" s="121"/>
+      <c r="IK3" s="121"/>
+      <c r="IL3" s="121"/>
+      <c r="IM3" s="121"/>
+      <c r="IN3" s="121"/>
+      <c r="IO3" s="121"/>
+      <c r="IP3" s="121"/>
+      <c r="IQ3" s="121"/>
+      <c r="IR3" s="121"/>
     </row>
     <row r="4" spans="1:252" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="81" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:252" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-    </row>
-    <row r="6" spans="1:252" s="54" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+    </row>
+    <row r="6" spans="1:252" s="45" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
-      <c r="AB6" s="153"/>
-      <c r="AC6" s="153"/>
-      <c r="AD6" s="153"/>
-      <c r="AE6" s="153"/>
-      <c r="AF6" s="153"/>
-      <c r="AG6" s="153"/>
-      <c r="AH6" s="153"/>
-      <c r="AI6" s="153"/>
-      <c r="AJ6" s="153"/>
-      <c r="AK6" s="153"/>
-      <c r="AL6" s="153"/>
-      <c r="AM6" s="153"/>
-      <c r="AN6" s="153"/>
-      <c r="AO6" s="153"/>
-      <c r="AP6" s="153"/>
-      <c r="AQ6" s="153"/>
-      <c r="AR6" s="153"/>
-      <c r="AS6" s="153"/>
-      <c r="AT6" s="153"/>
-      <c r="AU6" s="153"/>
-      <c r="AV6" s="153"/>
-      <c r="AW6" s="153"/>
-      <c r="AX6" s="153"/>
-      <c r="AY6" s="153"/>
-      <c r="AZ6" s="153"/>
-      <c r="BA6" s="153"/>
-      <c r="BB6" s="153"/>
-      <c r="BC6" s="153"/>
-      <c r="BD6" s="153"/>
-      <c r="BE6" s="153"/>
-      <c r="BF6" s="153"/>
-      <c r="BG6" s="153"/>
-      <c r="BH6" s="153"/>
-      <c r="BI6" s="153"/>
-      <c r="BJ6" s="153"/>
-      <c r="BK6" s="153"/>
-      <c r="BL6" s="153"/>
-      <c r="BM6" s="153"/>
-      <c r="BN6" s="153"/>
-      <c r="BO6" s="153"/>
-      <c r="BP6" s="153"/>
-      <c r="BQ6" s="153"/>
-      <c r="BR6" s="153"/>
-      <c r="BS6" s="153"/>
-      <c r="BT6" s="153"/>
-      <c r="BU6" s="153"/>
-      <c r="BV6" s="153"/>
-      <c r="BW6" s="153"/>
-      <c r="BX6" s="153"/>
-      <c r="BY6" s="153"/>
-      <c r="BZ6" s="153"/>
-      <c r="CA6" s="153"/>
-      <c r="CB6" s="153"/>
-      <c r="CC6" s="153"/>
-      <c r="CD6" s="153"/>
-      <c r="CE6" s="153"/>
-      <c r="CF6" s="153"/>
-      <c r="CG6" s="153"/>
-      <c r="CH6" s="153"/>
-      <c r="CI6" s="153"/>
-      <c r="CJ6" s="153"/>
-      <c r="CK6" s="153"/>
-      <c r="CL6" s="153"/>
-      <c r="CM6" s="153"/>
-      <c r="CN6" s="153"/>
-      <c r="CO6" s="153"/>
-      <c r="CP6" s="153"/>
-      <c r="CQ6" s="153"/>
-      <c r="CR6" s="153"/>
-      <c r="CS6" s="153"/>
-      <c r="CT6" s="153"/>
-      <c r="CU6" s="153"/>
-      <c r="CV6" s="153"/>
-      <c r="CW6" s="153"/>
-      <c r="CX6" s="153"/>
-      <c r="CY6" s="153"/>
-      <c r="CZ6" s="153"/>
-      <c r="DA6" s="153"/>
-      <c r="DB6" s="153"/>
-      <c r="DC6" s="153"/>
-      <c r="DD6" s="153"/>
-      <c r="DE6" s="153"/>
-      <c r="DF6" s="153"/>
-      <c r="DG6" s="153"/>
-      <c r="DH6" s="153"/>
-      <c r="DI6" s="153"/>
-      <c r="DJ6" s="153"/>
-      <c r="DK6" s="153"/>
-      <c r="DL6" s="153"/>
-      <c r="DM6" s="153"/>
-      <c r="DN6" s="153"/>
-      <c r="DO6" s="153"/>
-      <c r="DP6" s="153"/>
-      <c r="DQ6" s="153"/>
-      <c r="DR6" s="153"/>
-      <c r="DS6" s="153"/>
-      <c r="DT6" s="153"/>
-      <c r="DU6" s="153"/>
-      <c r="DV6" s="153"/>
-      <c r="DW6" s="153"/>
-      <c r="DX6" s="153"/>
-      <c r="DY6" s="153"/>
-      <c r="DZ6" s="153"/>
-      <c r="EA6" s="153"/>
-      <c r="EB6" s="153"/>
-      <c r="EC6" s="153"/>
-      <c r="ED6" s="153"/>
-      <c r="EE6" s="153"/>
-      <c r="EF6" s="153"/>
-      <c r="EG6" s="153"/>
-      <c r="EH6" s="153"/>
-      <c r="EI6" s="153"/>
-      <c r="EJ6" s="153"/>
-      <c r="EK6" s="153"/>
-      <c r="EL6" s="153"/>
-      <c r="EM6" s="153"/>
-      <c r="EN6" s="153"/>
-      <c r="EO6" s="153"/>
-      <c r="EP6" s="153"/>
-      <c r="EQ6" s="153"/>
-      <c r="ER6" s="153"/>
-      <c r="ES6" s="153"/>
-      <c r="ET6" s="153"/>
-      <c r="EU6" s="153"/>
-      <c r="EV6" s="153"/>
-      <c r="EW6" s="153"/>
-      <c r="EX6" s="153"/>
-      <c r="EY6" s="153"/>
-      <c r="EZ6" s="153"/>
-      <c r="FA6" s="153"/>
-      <c r="FB6" s="153"/>
-      <c r="FC6" s="153"/>
-      <c r="FD6" s="153"/>
-      <c r="FE6" s="153"/>
-      <c r="FF6" s="153"/>
-      <c r="FG6" s="153"/>
-      <c r="FH6" s="153"/>
-      <c r="FI6" s="153"/>
-      <c r="FJ6" s="153"/>
-      <c r="FK6" s="153"/>
-      <c r="FL6" s="153"/>
-      <c r="FM6" s="153"/>
-      <c r="FN6" s="153"/>
-      <c r="FO6" s="153"/>
-      <c r="FP6" s="153"/>
-      <c r="FQ6" s="153"/>
-      <c r="FR6" s="153"/>
-      <c r="FS6" s="153"/>
-      <c r="FT6" s="153"/>
-      <c r="FU6" s="153"/>
-      <c r="FV6" s="153"/>
-      <c r="FW6" s="153"/>
-      <c r="FX6" s="153"/>
-      <c r="FY6" s="153"/>
-      <c r="FZ6" s="153"/>
-      <c r="GA6" s="153"/>
-      <c r="GB6" s="153"/>
-      <c r="GC6" s="153"/>
-      <c r="GD6" s="153"/>
-      <c r="GE6" s="153"/>
-      <c r="GF6" s="153"/>
-      <c r="GG6" s="153"/>
-      <c r="GH6" s="153"/>
-      <c r="GI6" s="153"/>
-      <c r="GJ6" s="153"/>
-      <c r="GK6" s="153"/>
-      <c r="GL6" s="153"/>
-      <c r="GM6" s="153"/>
-      <c r="GN6" s="153"/>
-      <c r="GO6" s="153"/>
-      <c r="GP6" s="153"/>
-      <c r="GQ6" s="153"/>
-      <c r="GR6" s="153"/>
-      <c r="GS6" s="153"/>
-      <c r="GT6" s="153"/>
-      <c r="GU6" s="153"/>
-      <c r="GV6" s="153"/>
-      <c r="GW6" s="153"/>
-      <c r="GX6" s="153"/>
-      <c r="GY6" s="153"/>
-      <c r="GZ6" s="153"/>
-      <c r="HA6" s="153"/>
-      <c r="HB6" s="153"/>
-      <c r="HC6" s="153"/>
-      <c r="HD6" s="153"/>
-      <c r="HE6" s="153"/>
-      <c r="HF6" s="153"/>
-      <c r="HG6" s="153"/>
-      <c r="HH6" s="153"/>
-      <c r="HI6" s="153"/>
-      <c r="HJ6" s="153"/>
-      <c r="HK6" s="153"/>
-      <c r="HL6" s="153"/>
-      <c r="HM6" s="153"/>
-      <c r="HN6" s="153"/>
-      <c r="HO6" s="153"/>
-      <c r="HP6" s="153"/>
-      <c r="HQ6" s="153"/>
-      <c r="HR6" s="153"/>
-      <c r="HS6" s="153"/>
-      <c r="HT6" s="153"/>
-      <c r="HU6" s="153"/>
-      <c r="HV6" s="153"/>
-      <c r="HW6" s="153"/>
-      <c r="HX6" s="153"/>
-      <c r="HY6" s="153"/>
-      <c r="HZ6" s="153"/>
-      <c r="IA6" s="153"/>
-      <c r="IB6" s="153"/>
-      <c r="IC6" s="153"/>
-      <c r="ID6" s="153"/>
-      <c r="IE6" s="153"/>
-      <c r="IF6" s="153"/>
-      <c r="IG6" s="153"/>
-      <c r="IH6" s="153"/>
-      <c r="II6" s="153"/>
-      <c r="IJ6" s="153"/>
-      <c r="IK6" s="153"/>
-      <c r="IL6" s="153"/>
-      <c r="IM6" s="153"/>
-      <c r="IN6" s="153"/>
-      <c r="IO6" s="153"/>
-      <c r="IP6" s="153"/>
-      <c r="IQ6" s="153"/>
-      <c r="IR6" s="153"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="121"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="121"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="121"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="121"/>
+      <c r="AZ6" s="121"/>
+      <c r="BA6" s="121"/>
+      <c r="BB6" s="121"/>
+      <c r="BC6" s="121"/>
+      <c r="BD6" s="121"/>
+      <c r="BE6" s="121"/>
+      <c r="BF6" s="121"/>
+      <c r="BG6" s="121"/>
+      <c r="BH6" s="121"/>
+      <c r="BI6" s="121"/>
+      <c r="BJ6" s="121"/>
+      <c r="BK6" s="121"/>
+      <c r="BL6" s="121"/>
+      <c r="BM6" s="121"/>
+      <c r="BN6" s="121"/>
+      <c r="BO6" s="121"/>
+      <c r="BP6" s="121"/>
+      <c r="BQ6" s="121"/>
+      <c r="BR6" s="121"/>
+      <c r="BS6" s="121"/>
+      <c r="BT6" s="121"/>
+      <c r="BU6" s="121"/>
+      <c r="BV6" s="121"/>
+      <c r="BW6" s="121"/>
+      <c r="BX6" s="121"/>
+      <c r="BY6" s="121"/>
+      <c r="BZ6" s="121"/>
+      <c r="CA6" s="121"/>
+      <c r="CB6" s="121"/>
+      <c r="CC6" s="121"/>
+      <c r="CD6" s="121"/>
+      <c r="CE6" s="121"/>
+      <c r="CF6" s="121"/>
+      <c r="CG6" s="121"/>
+      <c r="CH6" s="121"/>
+      <c r="CI6" s="121"/>
+      <c r="CJ6" s="121"/>
+      <c r="CK6" s="121"/>
+      <c r="CL6" s="121"/>
+      <c r="CM6" s="121"/>
+      <c r="CN6" s="121"/>
+      <c r="CO6" s="121"/>
+      <c r="CP6" s="121"/>
+      <c r="CQ6" s="121"/>
+      <c r="CR6" s="121"/>
+      <c r="CS6" s="121"/>
+      <c r="CT6" s="121"/>
+      <c r="CU6" s="121"/>
+      <c r="CV6" s="121"/>
+      <c r="CW6" s="121"/>
+      <c r="CX6" s="121"/>
+      <c r="CY6" s="121"/>
+      <c r="CZ6" s="121"/>
+      <c r="DA6" s="121"/>
+      <c r="DB6" s="121"/>
+      <c r="DC6" s="121"/>
+      <c r="DD6" s="121"/>
+      <c r="DE6" s="121"/>
+      <c r="DF6" s="121"/>
+      <c r="DG6" s="121"/>
+      <c r="DH6" s="121"/>
+      <c r="DI6" s="121"/>
+      <c r="DJ6" s="121"/>
+      <c r="DK6" s="121"/>
+      <c r="DL6" s="121"/>
+      <c r="DM6" s="121"/>
+      <c r="DN6" s="121"/>
+      <c r="DO6" s="121"/>
+      <c r="DP6" s="121"/>
+      <c r="DQ6" s="121"/>
+      <c r="DR6" s="121"/>
+      <c r="DS6" s="121"/>
+      <c r="DT6" s="121"/>
+      <c r="DU6" s="121"/>
+      <c r="DV6" s="121"/>
+      <c r="DW6" s="121"/>
+      <c r="DX6" s="121"/>
+      <c r="DY6" s="121"/>
+      <c r="DZ6" s="121"/>
+      <c r="EA6" s="121"/>
+      <c r="EB6" s="121"/>
+      <c r="EC6" s="121"/>
+      <c r="ED6" s="121"/>
+      <c r="EE6" s="121"/>
+      <c r="EF6" s="121"/>
+      <c r="EG6" s="121"/>
+      <c r="EH6" s="121"/>
+      <c r="EI6" s="121"/>
+      <c r="EJ6" s="121"/>
+      <c r="EK6" s="121"/>
+      <c r="EL6" s="121"/>
+      <c r="EM6" s="121"/>
+      <c r="EN6" s="121"/>
+      <c r="EO6" s="121"/>
+      <c r="EP6" s="121"/>
+      <c r="EQ6" s="121"/>
+      <c r="ER6" s="121"/>
+      <c r="ES6" s="121"/>
+      <c r="ET6" s="121"/>
+      <c r="EU6" s="121"/>
+      <c r="EV6" s="121"/>
+      <c r="EW6" s="121"/>
+      <c r="EX6" s="121"/>
+      <c r="EY6" s="121"/>
+      <c r="EZ6" s="121"/>
+      <c r="FA6" s="121"/>
+      <c r="FB6" s="121"/>
+      <c r="FC6" s="121"/>
+      <c r="FD6" s="121"/>
+      <c r="FE6" s="121"/>
+      <c r="FF6" s="121"/>
+      <c r="FG6" s="121"/>
+      <c r="FH6" s="121"/>
+      <c r="FI6" s="121"/>
+      <c r="FJ6" s="121"/>
+      <c r="FK6" s="121"/>
+      <c r="FL6" s="121"/>
+      <c r="FM6" s="121"/>
+      <c r="FN6" s="121"/>
+      <c r="FO6" s="121"/>
+      <c r="FP6" s="121"/>
+      <c r="FQ6" s="121"/>
+      <c r="FR6" s="121"/>
+      <c r="FS6" s="121"/>
+      <c r="FT6" s="121"/>
+      <c r="FU6" s="121"/>
+      <c r="FV6" s="121"/>
+      <c r="FW6" s="121"/>
+      <c r="FX6" s="121"/>
+      <c r="FY6" s="121"/>
+      <c r="FZ6" s="121"/>
+      <c r="GA6" s="121"/>
+      <c r="GB6" s="121"/>
+      <c r="GC6" s="121"/>
+      <c r="GD6" s="121"/>
+      <c r="GE6" s="121"/>
+      <c r="GF6" s="121"/>
+      <c r="GG6" s="121"/>
+      <c r="GH6" s="121"/>
+      <c r="GI6" s="121"/>
+      <c r="GJ6" s="121"/>
+      <c r="GK6" s="121"/>
+      <c r="GL6" s="121"/>
+      <c r="GM6" s="121"/>
+      <c r="GN6" s="121"/>
+      <c r="GO6" s="121"/>
+      <c r="GP6" s="121"/>
+      <c r="GQ6" s="121"/>
+      <c r="GR6" s="121"/>
+      <c r="GS6" s="121"/>
+      <c r="GT6" s="121"/>
+      <c r="GU6" s="121"/>
+      <c r="GV6" s="121"/>
+      <c r="GW6" s="121"/>
+      <c r="GX6" s="121"/>
+      <c r="GY6" s="121"/>
+      <c r="GZ6" s="121"/>
+      <c r="HA6" s="121"/>
+      <c r="HB6" s="121"/>
+      <c r="HC6" s="121"/>
+      <c r="HD6" s="121"/>
+      <c r="HE6" s="121"/>
+      <c r="HF6" s="121"/>
+      <c r="HG6" s="121"/>
+      <c r="HH6" s="121"/>
+      <c r="HI6" s="121"/>
+      <c r="HJ6" s="121"/>
+      <c r="HK6" s="121"/>
+      <c r="HL6" s="121"/>
+      <c r="HM6" s="121"/>
+      <c r="HN6" s="121"/>
+      <c r="HO6" s="121"/>
+      <c r="HP6" s="121"/>
+      <c r="HQ6" s="121"/>
+      <c r="HR6" s="121"/>
+      <c r="HS6" s="121"/>
+      <c r="HT6" s="121"/>
+      <c r="HU6" s="121"/>
+      <c r="HV6" s="121"/>
+      <c r="HW6" s="121"/>
+      <c r="HX6" s="121"/>
+      <c r="HY6" s="121"/>
+      <c r="HZ6" s="121"/>
+      <c r="IA6" s="121"/>
+      <c r="IB6" s="121"/>
+      <c r="IC6" s="121"/>
+      <c r="ID6" s="121"/>
+      <c r="IE6" s="121"/>
+      <c r="IF6" s="121"/>
+      <c r="IG6" s="121"/>
+      <c r="IH6" s="121"/>
+      <c r="II6" s="121"/>
+      <c r="IJ6" s="121"/>
+      <c r="IK6" s="121"/>
+      <c r="IL6" s="121"/>
+      <c r="IM6" s="121"/>
+      <c r="IN6" s="121"/>
+      <c r="IO6" s="121"/>
+      <c r="IP6" s="121"/>
+      <c r="IQ6" s="121"/>
+      <c r="IR6" s="121"/>
     </row>
     <row r="7" spans="1:252" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="81" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
     </row>
     <row r="8" spans="1:252" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-    </row>
-    <row r="9" spans="1:252" s="54" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+    </row>
+    <row r="9" spans="1:252" s="45" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="153"/>
-      <c r="AG9" s="153"/>
-      <c r="AH9" s="153"/>
-      <c r="AI9" s="153"/>
-      <c r="AJ9" s="153"/>
-      <c r="AK9" s="153"/>
-      <c r="AL9" s="153"/>
-      <c r="AM9" s="153"/>
-      <c r="AN9" s="153"/>
-      <c r="AO9" s="153"/>
-      <c r="AP9" s="153"/>
-      <c r="AQ9" s="153"/>
-      <c r="AR9" s="153"/>
-      <c r="AS9" s="153"/>
-      <c r="AT9" s="153"/>
-      <c r="AU9" s="153"/>
-      <c r="AV9" s="153"/>
-      <c r="AW9" s="153"/>
-      <c r="AX9" s="153"/>
-      <c r="AY9" s="153"/>
-      <c r="AZ9" s="153"/>
-      <c r="BA9" s="153"/>
-      <c r="BB9" s="153"/>
-      <c r="BC9" s="153"/>
-      <c r="BD9" s="153"/>
-      <c r="BE9" s="153"/>
-      <c r="BF9" s="153"/>
-      <c r="BG9" s="153"/>
-      <c r="BH9" s="153"/>
-      <c r="BI9" s="153"/>
-      <c r="BJ9" s="153"/>
-      <c r="BK9" s="153"/>
-      <c r="BL9" s="153"/>
-      <c r="BM9" s="153"/>
-      <c r="BN9" s="153"/>
-      <c r="BO9" s="153"/>
-      <c r="BP9" s="153"/>
-      <c r="BQ9" s="153"/>
-      <c r="BR9" s="153"/>
-      <c r="BS9" s="153"/>
-      <c r="BT9" s="153"/>
-      <c r="BU9" s="153"/>
-      <c r="BV9" s="153"/>
-      <c r="BW9" s="153"/>
-      <c r="BX9" s="153"/>
-      <c r="BY9" s="153"/>
-      <c r="BZ9" s="153"/>
-      <c r="CA9" s="153"/>
-      <c r="CB9" s="153"/>
-      <c r="CC9" s="153"/>
-      <c r="CD9" s="153"/>
-      <c r="CE9" s="153"/>
-      <c r="CF9" s="153"/>
-      <c r="CG9" s="153"/>
-      <c r="CH9" s="153"/>
-      <c r="CI9" s="153"/>
-      <c r="CJ9" s="153"/>
-      <c r="CK9" s="153"/>
-      <c r="CL9" s="153"/>
-      <c r="CM9" s="153"/>
-      <c r="CN9" s="153"/>
-      <c r="CO9" s="153"/>
-      <c r="CP9" s="153"/>
-      <c r="CQ9" s="153"/>
-      <c r="CR9" s="153"/>
-      <c r="CS9" s="153"/>
-      <c r="CT9" s="153"/>
-      <c r="CU9" s="153"/>
-      <c r="CV9" s="153"/>
-      <c r="CW9" s="153"/>
-      <c r="CX9" s="153"/>
-      <c r="CY9" s="153"/>
-      <c r="CZ9" s="153"/>
-      <c r="DA9" s="153"/>
-      <c r="DB9" s="153"/>
-      <c r="DC9" s="153"/>
-      <c r="DD9" s="153"/>
-      <c r="DE9" s="153"/>
-      <c r="DF9" s="153"/>
-      <c r="DG9" s="153"/>
-      <c r="DH9" s="153"/>
-      <c r="DI9" s="153"/>
-      <c r="DJ9" s="153"/>
-      <c r="DK9" s="153"/>
-      <c r="DL9" s="153"/>
-      <c r="DM9" s="153"/>
-      <c r="DN9" s="153"/>
-      <c r="DO9" s="153"/>
-      <c r="DP9" s="153"/>
-      <c r="DQ9" s="153"/>
-      <c r="DR9" s="153"/>
-      <c r="DS9" s="153"/>
-      <c r="DT9" s="153"/>
-      <c r="DU9" s="153"/>
-      <c r="DV9" s="153"/>
-      <c r="DW9" s="153"/>
-      <c r="DX9" s="153"/>
-      <c r="DY9" s="153"/>
-      <c r="DZ9" s="153"/>
-      <c r="EA9" s="153"/>
-      <c r="EB9" s="153"/>
-      <c r="EC9" s="153"/>
-      <c r="ED9" s="153"/>
-      <c r="EE9" s="153"/>
-      <c r="EF9" s="153"/>
-      <c r="EG9" s="153"/>
-      <c r="EH9" s="153"/>
-      <c r="EI9" s="153"/>
-      <c r="EJ9" s="153"/>
-      <c r="EK9" s="153"/>
-      <c r="EL9" s="153"/>
-      <c r="EM9" s="153"/>
-      <c r="EN9" s="153"/>
-      <c r="EO9" s="153"/>
-      <c r="EP9" s="153"/>
-      <c r="EQ9" s="153"/>
-      <c r="ER9" s="153"/>
-      <c r="ES9" s="153"/>
-      <c r="ET9" s="153"/>
-      <c r="EU9" s="153"/>
-      <c r="EV9" s="153"/>
-      <c r="EW9" s="153"/>
-      <c r="EX9" s="153"/>
-      <c r="EY9" s="153"/>
-      <c r="EZ9" s="153"/>
-      <c r="FA9" s="153"/>
-      <c r="FB9" s="153"/>
-      <c r="FC9" s="153"/>
-      <c r="FD9" s="153"/>
-      <c r="FE9" s="153"/>
-      <c r="FF9" s="153"/>
-      <c r="FG9" s="153"/>
-      <c r="FH9" s="153"/>
-      <c r="FI9" s="153"/>
-      <c r="FJ9" s="153"/>
-      <c r="FK9" s="153"/>
-      <c r="FL9" s="153"/>
-      <c r="FM9" s="153"/>
-      <c r="FN9" s="153"/>
-      <c r="FO9" s="153"/>
-      <c r="FP9" s="153"/>
-      <c r="FQ9" s="153"/>
-      <c r="FR9" s="153"/>
-      <c r="FS9" s="153"/>
-      <c r="FT9" s="153"/>
-      <c r="FU9" s="153"/>
-      <c r="FV9" s="153"/>
-      <c r="FW9" s="153"/>
-      <c r="FX9" s="153"/>
-      <c r="FY9" s="153"/>
-      <c r="FZ9" s="153"/>
-      <c r="GA9" s="153"/>
-      <c r="GB9" s="153"/>
-      <c r="GC9" s="153"/>
-      <c r="GD9" s="153"/>
-      <c r="GE9" s="153"/>
-      <c r="GF9" s="153"/>
-      <c r="GG9" s="153"/>
-      <c r="GH9" s="153"/>
-      <c r="GI9" s="153"/>
-      <c r="GJ9" s="153"/>
-      <c r="GK9" s="153"/>
-      <c r="GL9" s="153"/>
-      <c r="GM9" s="153"/>
-      <c r="GN9" s="153"/>
-      <c r="GO9" s="153"/>
-      <c r="GP9" s="153"/>
-      <c r="GQ9" s="153"/>
-      <c r="GR9" s="153"/>
-      <c r="GS9" s="153"/>
-      <c r="GT9" s="153"/>
-      <c r="GU9" s="153"/>
-      <c r="GV9" s="153"/>
-      <c r="GW9" s="153"/>
-      <c r="GX9" s="153"/>
-      <c r="GY9" s="153"/>
-      <c r="GZ9" s="153"/>
-      <c r="HA9" s="153"/>
-      <c r="HB9" s="153"/>
-      <c r="HC9" s="153"/>
-      <c r="HD9" s="153"/>
-      <c r="HE9" s="153"/>
-      <c r="HF9" s="153"/>
-      <c r="HG9" s="153"/>
-      <c r="HH9" s="153"/>
-      <c r="HI9" s="153"/>
-      <c r="HJ9" s="153"/>
-      <c r="HK9" s="153"/>
-      <c r="HL9" s="153"/>
-      <c r="HM9" s="153"/>
-      <c r="HN9" s="153"/>
-      <c r="HO9" s="153"/>
-      <c r="HP9" s="153"/>
-      <c r="HQ9" s="153"/>
-      <c r="HR9" s="153"/>
-      <c r="HS9" s="153"/>
-      <c r="HT9" s="153"/>
-      <c r="HU9" s="153"/>
-      <c r="HV9" s="153"/>
-      <c r="HW9" s="153"/>
-      <c r="HX9" s="153"/>
-      <c r="HY9" s="153"/>
-      <c r="HZ9" s="153"/>
-      <c r="IA9" s="153"/>
-      <c r="IB9" s="153"/>
-      <c r="IC9" s="153"/>
-      <c r="ID9" s="153"/>
-      <c r="IE9" s="153"/>
-      <c r="IF9" s="153"/>
-      <c r="IG9" s="153"/>
-      <c r="IH9" s="153"/>
-      <c r="II9" s="153"/>
-      <c r="IJ9" s="153"/>
-      <c r="IK9" s="153"/>
-      <c r="IL9" s="153"/>
-      <c r="IM9" s="153"/>
-      <c r="IN9" s="153"/>
-      <c r="IO9" s="153"/>
-      <c r="IP9" s="153"/>
-      <c r="IQ9" s="153"/>
-      <c r="IR9" s="153"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="121"/>
+      <c r="W9" s="121"/>
+      <c r="X9" s="121"/>
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="121"/>
+      <c r="AA9" s="121"/>
+      <c r="AB9" s="121"/>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="121"/>
+      <c r="AJ9" s="121"/>
+      <c r="AK9" s="121"/>
+      <c r="AL9" s="121"/>
+      <c r="AM9" s="121"/>
+      <c r="AN9" s="121"/>
+      <c r="AO9" s="121"/>
+      <c r="AP9" s="121"/>
+      <c r="AQ9" s="121"/>
+      <c r="AR9" s="121"/>
+      <c r="AS9" s="121"/>
+      <c r="AT9" s="121"/>
+      <c r="AU9" s="121"/>
+      <c r="AV9" s="121"/>
+      <c r="AW9" s="121"/>
+      <c r="AX9" s="121"/>
+      <c r="AY9" s="121"/>
+      <c r="AZ9" s="121"/>
+      <c r="BA9" s="121"/>
+      <c r="BB9" s="121"/>
+      <c r="BC9" s="121"/>
+      <c r="BD9" s="121"/>
+      <c r="BE9" s="121"/>
+      <c r="BF9" s="121"/>
+      <c r="BG9" s="121"/>
+      <c r="BH9" s="121"/>
+      <c r="BI9" s="121"/>
+      <c r="BJ9" s="121"/>
+      <c r="BK9" s="121"/>
+      <c r="BL9" s="121"/>
+      <c r="BM9" s="121"/>
+      <c r="BN9" s="121"/>
+      <c r="BO9" s="121"/>
+      <c r="BP9" s="121"/>
+      <c r="BQ9" s="121"/>
+      <c r="BR9" s="121"/>
+      <c r="BS9" s="121"/>
+      <c r="BT9" s="121"/>
+      <c r="BU9" s="121"/>
+      <c r="BV9" s="121"/>
+      <c r="BW9" s="121"/>
+      <c r="BX9" s="121"/>
+      <c r="BY9" s="121"/>
+      <c r="BZ9" s="121"/>
+      <c r="CA9" s="121"/>
+      <c r="CB9" s="121"/>
+      <c r="CC9" s="121"/>
+      <c r="CD9" s="121"/>
+      <c r="CE9" s="121"/>
+      <c r="CF9" s="121"/>
+      <c r="CG9" s="121"/>
+      <c r="CH9" s="121"/>
+      <c r="CI9" s="121"/>
+      <c r="CJ9" s="121"/>
+      <c r="CK9" s="121"/>
+      <c r="CL9" s="121"/>
+      <c r="CM9" s="121"/>
+      <c r="CN9" s="121"/>
+      <c r="CO9" s="121"/>
+      <c r="CP9" s="121"/>
+      <c r="CQ9" s="121"/>
+      <c r="CR9" s="121"/>
+      <c r="CS9" s="121"/>
+      <c r="CT9" s="121"/>
+      <c r="CU9" s="121"/>
+      <c r="CV9" s="121"/>
+      <c r="CW9" s="121"/>
+      <c r="CX9" s="121"/>
+      <c r="CY9" s="121"/>
+      <c r="CZ9" s="121"/>
+      <c r="DA9" s="121"/>
+      <c r="DB9" s="121"/>
+      <c r="DC9" s="121"/>
+      <c r="DD9" s="121"/>
+      <c r="DE9" s="121"/>
+      <c r="DF9" s="121"/>
+      <c r="DG9" s="121"/>
+      <c r="DH9" s="121"/>
+      <c r="DI9" s="121"/>
+      <c r="DJ9" s="121"/>
+      <c r="DK9" s="121"/>
+      <c r="DL9" s="121"/>
+      <c r="DM9" s="121"/>
+      <c r="DN9" s="121"/>
+      <c r="DO9" s="121"/>
+      <c r="DP9" s="121"/>
+      <c r="DQ9" s="121"/>
+      <c r="DR9" s="121"/>
+      <c r="DS9" s="121"/>
+      <c r="DT9" s="121"/>
+      <c r="DU9" s="121"/>
+      <c r="DV9" s="121"/>
+      <c r="DW9" s="121"/>
+      <c r="DX9" s="121"/>
+      <c r="DY9" s="121"/>
+      <c r="DZ9" s="121"/>
+      <c r="EA9" s="121"/>
+      <c r="EB9" s="121"/>
+      <c r="EC9" s="121"/>
+      <c r="ED9" s="121"/>
+      <c r="EE9" s="121"/>
+      <c r="EF9" s="121"/>
+      <c r="EG9" s="121"/>
+      <c r="EH9" s="121"/>
+      <c r="EI9" s="121"/>
+      <c r="EJ9" s="121"/>
+      <c r="EK9" s="121"/>
+      <c r="EL9" s="121"/>
+      <c r="EM9" s="121"/>
+      <c r="EN9" s="121"/>
+      <c r="EO9" s="121"/>
+      <c r="EP9" s="121"/>
+      <c r="EQ9" s="121"/>
+      <c r="ER9" s="121"/>
+      <c r="ES9" s="121"/>
+      <c r="ET9" s="121"/>
+      <c r="EU9" s="121"/>
+      <c r="EV9" s="121"/>
+      <c r="EW9" s="121"/>
+      <c r="EX9" s="121"/>
+      <c r="EY9" s="121"/>
+      <c r="EZ9" s="121"/>
+      <c r="FA9" s="121"/>
+      <c r="FB9" s="121"/>
+      <c r="FC9" s="121"/>
+      <c r="FD9" s="121"/>
+      <c r="FE9" s="121"/>
+      <c r="FF9" s="121"/>
+      <c r="FG9" s="121"/>
+      <c r="FH9" s="121"/>
+      <c r="FI9" s="121"/>
+      <c r="FJ9" s="121"/>
+      <c r="FK9" s="121"/>
+      <c r="FL9" s="121"/>
+      <c r="FM9" s="121"/>
+      <c r="FN9" s="121"/>
+      <c r="FO9" s="121"/>
+      <c r="FP9" s="121"/>
+      <c r="FQ9" s="121"/>
+      <c r="FR9" s="121"/>
+      <c r="FS9" s="121"/>
+      <c r="FT9" s="121"/>
+      <c r="FU9" s="121"/>
+      <c r="FV9" s="121"/>
+      <c r="FW9" s="121"/>
+      <c r="FX9" s="121"/>
+      <c r="FY9" s="121"/>
+      <c r="FZ9" s="121"/>
+      <c r="GA9" s="121"/>
+      <c r="GB9" s="121"/>
+      <c r="GC9" s="121"/>
+      <c r="GD9" s="121"/>
+      <c r="GE9" s="121"/>
+      <c r="GF9" s="121"/>
+      <c r="GG9" s="121"/>
+      <c r="GH9" s="121"/>
+      <c r="GI9" s="121"/>
+      <c r="GJ9" s="121"/>
+      <c r="GK9" s="121"/>
+      <c r="GL9" s="121"/>
+      <c r="GM9" s="121"/>
+      <c r="GN9" s="121"/>
+      <c r="GO9" s="121"/>
+      <c r="GP9" s="121"/>
+      <c r="GQ9" s="121"/>
+      <c r="GR9" s="121"/>
+      <c r="GS9" s="121"/>
+      <c r="GT9" s="121"/>
+      <c r="GU9" s="121"/>
+      <c r="GV9" s="121"/>
+      <c r="GW9" s="121"/>
+      <c r="GX9" s="121"/>
+      <c r="GY9" s="121"/>
+      <c r="GZ9" s="121"/>
+      <c r="HA9" s="121"/>
+      <c r="HB9" s="121"/>
+      <c r="HC9" s="121"/>
+      <c r="HD9" s="121"/>
+      <c r="HE9" s="121"/>
+      <c r="HF9" s="121"/>
+      <c r="HG9" s="121"/>
+      <c r="HH9" s="121"/>
+      <c r="HI9" s="121"/>
+      <c r="HJ9" s="121"/>
+      <c r="HK9" s="121"/>
+      <c r="HL9" s="121"/>
+      <c r="HM9" s="121"/>
+      <c r="HN9" s="121"/>
+      <c r="HO9" s="121"/>
+      <c r="HP9" s="121"/>
+      <c r="HQ9" s="121"/>
+      <c r="HR9" s="121"/>
+      <c r="HS9" s="121"/>
+      <c r="HT9" s="121"/>
+      <c r="HU9" s="121"/>
+      <c r="HV9" s="121"/>
+      <c r="HW9" s="121"/>
+      <c r="HX9" s="121"/>
+      <c r="HY9" s="121"/>
+      <c r="HZ9" s="121"/>
+      <c r="IA9" s="121"/>
+      <c r="IB9" s="121"/>
+      <c r="IC9" s="121"/>
+      <c r="ID9" s="121"/>
+      <c r="IE9" s="121"/>
+      <c r="IF9" s="121"/>
+      <c r="IG9" s="121"/>
+      <c r="IH9" s="121"/>
+      <c r="II9" s="121"/>
+      <c r="IJ9" s="121"/>
+      <c r="IK9" s="121"/>
+      <c r="IL9" s="121"/>
+      <c r="IM9" s="121"/>
+      <c r="IN9" s="121"/>
+      <c r="IO9" s="121"/>
+      <c r="IP9" s="121"/>
+      <c r="IQ9" s="121"/>
+      <c r="IR9" s="121"/>
     </row>
     <row r="10" spans="1:252" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="81" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
     </row>
     <row r="11" spans="1:252" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-    </row>
-    <row r="12" spans="1:252" s="54" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+    </row>
+    <row r="12" spans="1:252" s="45" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
-      <c r="AB12" s="153"/>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="153"/>
-      <c r="AF12" s="153"/>
-      <c r="AG12" s="153"/>
-      <c r="AH12" s="153"/>
-      <c r="AI12" s="153"/>
-      <c r="AJ12" s="153"/>
-      <c r="AK12" s="153"/>
-      <c r="AL12" s="153"/>
-      <c r="AM12" s="153"/>
-      <c r="AN12" s="153"/>
-      <c r="AO12" s="153"/>
-      <c r="AP12" s="153"/>
-      <c r="AQ12" s="153"/>
-      <c r="AR12" s="153"/>
-      <c r="AS12" s="153"/>
-      <c r="AT12" s="153"/>
-      <c r="AU12" s="153"/>
-      <c r="AV12" s="153"/>
-      <c r="AW12" s="153"/>
-      <c r="AX12" s="153"/>
-      <c r="AY12" s="153"/>
-      <c r="AZ12" s="153"/>
-      <c r="BA12" s="153"/>
-      <c r="BB12" s="153"/>
-      <c r="BC12" s="153"/>
-      <c r="BD12" s="153"/>
-      <c r="BE12" s="153"/>
-      <c r="BF12" s="153"/>
-      <c r="BG12" s="153"/>
-      <c r="BH12" s="153"/>
-      <c r="BI12" s="153"/>
-      <c r="BJ12" s="153"/>
-      <c r="BK12" s="153"/>
-      <c r="BL12" s="153"/>
-      <c r="BM12" s="153"/>
-      <c r="BN12" s="153"/>
-      <c r="BO12" s="153"/>
-      <c r="BP12" s="153"/>
-      <c r="BQ12" s="153"/>
-      <c r="BR12" s="153"/>
-      <c r="BS12" s="153"/>
-      <c r="BT12" s="153"/>
-      <c r="BU12" s="153"/>
-      <c r="BV12" s="153"/>
-      <c r="BW12" s="153"/>
-      <c r="BX12" s="153"/>
-      <c r="BY12" s="153"/>
-      <c r="BZ12" s="153"/>
-      <c r="CA12" s="153"/>
-      <c r="CB12" s="153"/>
-      <c r="CC12" s="153"/>
-      <c r="CD12" s="153"/>
-      <c r="CE12" s="153"/>
-      <c r="CF12" s="153"/>
-      <c r="CG12" s="153"/>
-      <c r="CH12" s="153"/>
-      <c r="CI12" s="153"/>
-      <c r="CJ12" s="153"/>
-      <c r="CK12" s="153"/>
-      <c r="CL12" s="153"/>
-      <c r="CM12" s="153"/>
-      <c r="CN12" s="153"/>
-      <c r="CO12" s="153"/>
-      <c r="CP12" s="153"/>
-      <c r="CQ12" s="153"/>
-      <c r="CR12" s="153"/>
-      <c r="CS12" s="153"/>
-      <c r="CT12" s="153"/>
-      <c r="CU12" s="153"/>
-      <c r="CV12" s="153"/>
-      <c r="CW12" s="153"/>
-      <c r="CX12" s="153"/>
-      <c r="CY12" s="153"/>
-      <c r="CZ12" s="153"/>
-      <c r="DA12" s="153"/>
-      <c r="DB12" s="153"/>
-      <c r="DC12" s="153"/>
-      <c r="DD12" s="153"/>
-      <c r="DE12" s="153"/>
-      <c r="DF12" s="153"/>
-      <c r="DG12" s="153"/>
-      <c r="DH12" s="153"/>
-      <c r="DI12" s="153"/>
-      <c r="DJ12" s="153"/>
-      <c r="DK12" s="153"/>
-      <c r="DL12" s="153"/>
-      <c r="DM12" s="153"/>
-      <c r="DN12" s="153"/>
-      <c r="DO12" s="153"/>
-      <c r="DP12" s="153"/>
-      <c r="DQ12" s="153"/>
-      <c r="DR12" s="153"/>
-      <c r="DS12" s="153"/>
-      <c r="DT12" s="153"/>
-      <c r="DU12" s="153"/>
-      <c r="DV12" s="153"/>
-      <c r="DW12" s="153"/>
-      <c r="DX12" s="153"/>
-      <c r="DY12" s="153"/>
-      <c r="DZ12" s="153"/>
-      <c r="EA12" s="153"/>
-      <c r="EB12" s="153"/>
-      <c r="EC12" s="153"/>
-      <c r="ED12" s="153"/>
-      <c r="EE12" s="153"/>
-      <c r="EF12" s="153"/>
-      <c r="EG12" s="153"/>
-      <c r="EH12" s="153"/>
-      <c r="EI12" s="153"/>
-      <c r="EJ12" s="153"/>
-      <c r="EK12" s="153"/>
-      <c r="EL12" s="153"/>
-      <c r="EM12" s="153"/>
-      <c r="EN12" s="153"/>
-      <c r="EO12" s="153"/>
-      <c r="EP12" s="153"/>
-      <c r="EQ12" s="153"/>
-      <c r="ER12" s="153"/>
-      <c r="ES12" s="153"/>
-      <c r="ET12" s="153"/>
-      <c r="EU12" s="153"/>
-      <c r="EV12" s="153"/>
-      <c r="EW12" s="153"/>
-      <c r="EX12" s="153"/>
-      <c r="EY12" s="153"/>
-      <c r="EZ12" s="153"/>
-      <c r="FA12" s="153"/>
-      <c r="FB12" s="153"/>
-      <c r="FC12" s="153"/>
-      <c r="FD12" s="153"/>
-      <c r="FE12" s="153"/>
-      <c r="FF12" s="153"/>
-      <c r="FG12" s="153"/>
-      <c r="FH12" s="153"/>
-      <c r="FI12" s="153"/>
-      <c r="FJ12" s="153"/>
-      <c r="FK12" s="153"/>
-      <c r="FL12" s="153"/>
-      <c r="FM12" s="153"/>
-      <c r="FN12" s="153"/>
-      <c r="FO12" s="153"/>
-      <c r="FP12" s="153"/>
-      <c r="FQ12" s="153"/>
-      <c r="FR12" s="153"/>
-      <c r="FS12" s="153"/>
-      <c r="FT12" s="153"/>
-      <c r="FU12" s="153"/>
-      <c r="FV12" s="153"/>
-      <c r="FW12" s="153"/>
-      <c r="FX12" s="153"/>
-      <c r="FY12" s="153"/>
-      <c r="FZ12" s="153"/>
-      <c r="GA12" s="153"/>
-      <c r="GB12" s="153"/>
-      <c r="GC12" s="153"/>
-      <c r="GD12" s="153"/>
-      <c r="GE12" s="153"/>
-      <c r="GF12" s="153"/>
-      <c r="GG12" s="153"/>
-      <c r="GH12" s="153"/>
-      <c r="GI12" s="153"/>
-      <c r="GJ12" s="153"/>
-      <c r="GK12" s="153"/>
-      <c r="GL12" s="153"/>
-      <c r="GM12" s="153"/>
-      <c r="GN12" s="153"/>
-      <c r="GO12" s="153"/>
-      <c r="GP12" s="153"/>
-      <c r="GQ12" s="153"/>
-      <c r="GR12" s="153"/>
-      <c r="GS12" s="153"/>
-      <c r="GT12" s="153"/>
-      <c r="GU12" s="153"/>
-      <c r="GV12" s="153"/>
-      <c r="GW12" s="153"/>
-      <c r="GX12" s="153"/>
-      <c r="GY12" s="153"/>
-      <c r="GZ12" s="153"/>
-      <c r="HA12" s="153"/>
-      <c r="HB12" s="153"/>
-      <c r="HC12" s="153"/>
-      <c r="HD12" s="153"/>
-      <c r="HE12" s="153"/>
-      <c r="HF12" s="153"/>
-      <c r="HG12" s="153"/>
-      <c r="HH12" s="153"/>
-      <c r="HI12" s="153"/>
-      <c r="HJ12" s="153"/>
-      <c r="HK12" s="153"/>
-      <c r="HL12" s="153"/>
-      <c r="HM12" s="153"/>
-      <c r="HN12" s="153"/>
-      <c r="HO12" s="153"/>
-      <c r="HP12" s="153"/>
-      <c r="HQ12" s="153"/>
-      <c r="HR12" s="153"/>
-      <c r="HS12" s="153"/>
-      <c r="HT12" s="153"/>
-      <c r="HU12" s="153"/>
-      <c r="HV12" s="153"/>
-      <c r="HW12" s="153"/>
-      <c r="HX12" s="153"/>
-      <c r="HY12" s="153"/>
-      <c r="HZ12" s="153"/>
-      <c r="IA12" s="153"/>
-      <c r="IB12" s="153"/>
-      <c r="IC12" s="153"/>
-      <c r="ID12" s="153"/>
-      <c r="IE12" s="153"/>
-      <c r="IF12" s="153"/>
-      <c r="IG12" s="153"/>
-      <c r="IH12" s="153"/>
-      <c r="II12" s="153"/>
-      <c r="IJ12" s="153"/>
-      <c r="IK12" s="153"/>
-      <c r="IL12" s="153"/>
-      <c r="IM12" s="153"/>
-      <c r="IN12" s="153"/>
-      <c r="IO12" s="153"/>
-      <c r="IP12" s="153"/>
-      <c r="IQ12" s="153"/>
-      <c r="IR12" s="153"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="121"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="121"/>
+      <c r="AS12" s="121"/>
+      <c r="AT12" s="121"/>
+      <c r="AU12" s="121"/>
+      <c r="AV12" s="121"/>
+      <c r="AW12" s="121"/>
+      <c r="AX12" s="121"/>
+      <c r="AY12" s="121"/>
+      <c r="AZ12" s="121"/>
+      <c r="BA12" s="121"/>
+      <c r="BB12" s="121"/>
+      <c r="BC12" s="121"/>
+      <c r="BD12" s="121"/>
+      <c r="BE12" s="121"/>
+      <c r="BF12" s="121"/>
+      <c r="BG12" s="121"/>
+      <c r="BH12" s="121"/>
+      <c r="BI12" s="121"/>
+      <c r="BJ12" s="121"/>
+      <c r="BK12" s="121"/>
+      <c r="BL12" s="121"/>
+      <c r="BM12" s="121"/>
+      <c r="BN12" s="121"/>
+      <c r="BO12" s="121"/>
+      <c r="BP12" s="121"/>
+      <c r="BQ12" s="121"/>
+      <c r="BR12" s="121"/>
+      <c r="BS12" s="121"/>
+      <c r="BT12" s="121"/>
+      <c r="BU12" s="121"/>
+      <c r="BV12" s="121"/>
+      <c r="BW12" s="121"/>
+      <c r="BX12" s="121"/>
+      <c r="BY12" s="121"/>
+      <c r="BZ12" s="121"/>
+      <c r="CA12" s="121"/>
+      <c r="CB12" s="121"/>
+      <c r="CC12" s="121"/>
+      <c r="CD12" s="121"/>
+      <c r="CE12" s="121"/>
+      <c r="CF12" s="121"/>
+      <c r="CG12" s="121"/>
+      <c r="CH12" s="121"/>
+      <c r="CI12" s="121"/>
+      <c r="CJ12" s="121"/>
+      <c r="CK12" s="121"/>
+      <c r="CL12" s="121"/>
+      <c r="CM12" s="121"/>
+      <c r="CN12" s="121"/>
+      <c r="CO12" s="121"/>
+      <c r="CP12" s="121"/>
+      <c r="CQ12" s="121"/>
+      <c r="CR12" s="121"/>
+      <c r="CS12" s="121"/>
+      <c r="CT12" s="121"/>
+      <c r="CU12" s="121"/>
+      <c r="CV12" s="121"/>
+      <c r="CW12" s="121"/>
+      <c r="CX12" s="121"/>
+      <c r="CY12" s="121"/>
+      <c r="CZ12" s="121"/>
+      <c r="DA12" s="121"/>
+      <c r="DB12" s="121"/>
+      <c r="DC12" s="121"/>
+      <c r="DD12" s="121"/>
+      <c r="DE12" s="121"/>
+      <c r="DF12" s="121"/>
+      <c r="DG12" s="121"/>
+      <c r="DH12" s="121"/>
+      <c r="DI12" s="121"/>
+      <c r="DJ12" s="121"/>
+      <c r="DK12" s="121"/>
+      <c r="DL12" s="121"/>
+      <c r="DM12" s="121"/>
+      <c r="DN12" s="121"/>
+      <c r="DO12" s="121"/>
+      <c r="DP12" s="121"/>
+      <c r="DQ12" s="121"/>
+      <c r="DR12" s="121"/>
+      <c r="DS12" s="121"/>
+      <c r="DT12" s="121"/>
+      <c r="DU12" s="121"/>
+      <c r="DV12" s="121"/>
+      <c r="DW12" s="121"/>
+      <c r="DX12" s="121"/>
+      <c r="DY12" s="121"/>
+      <c r="DZ12" s="121"/>
+      <c r="EA12" s="121"/>
+      <c r="EB12" s="121"/>
+      <c r="EC12" s="121"/>
+      <c r="ED12" s="121"/>
+      <c r="EE12" s="121"/>
+      <c r="EF12" s="121"/>
+      <c r="EG12" s="121"/>
+      <c r="EH12" s="121"/>
+      <c r="EI12" s="121"/>
+      <c r="EJ12" s="121"/>
+      <c r="EK12" s="121"/>
+      <c r="EL12" s="121"/>
+      <c r="EM12" s="121"/>
+      <c r="EN12" s="121"/>
+      <c r="EO12" s="121"/>
+      <c r="EP12" s="121"/>
+      <c r="EQ12" s="121"/>
+      <c r="ER12" s="121"/>
+      <c r="ES12" s="121"/>
+      <c r="ET12" s="121"/>
+      <c r="EU12" s="121"/>
+      <c r="EV12" s="121"/>
+      <c r="EW12" s="121"/>
+      <c r="EX12" s="121"/>
+      <c r="EY12" s="121"/>
+      <c r="EZ12" s="121"/>
+      <c r="FA12" s="121"/>
+      <c r="FB12" s="121"/>
+      <c r="FC12" s="121"/>
+      <c r="FD12" s="121"/>
+      <c r="FE12" s="121"/>
+      <c r="FF12" s="121"/>
+      <c r="FG12" s="121"/>
+      <c r="FH12" s="121"/>
+      <c r="FI12" s="121"/>
+      <c r="FJ12" s="121"/>
+      <c r="FK12" s="121"/>
+      <c r="FL12" s="121"/>
+      <c r="FM12" s="121"/>
+      <c r="FN12" s="121"/>
+      <c r="FO12" s="121"/>
+      <c r="FP12" s="121"/>
+      <c r="FQ12" s="121"/>
+      <c r="FR12" s="121"/>
+      <c r="FS12" s="121"/>
+      <c r="FT12" s="121"/>
+      <c r="FU12" s="121"/>
+      <c r="FV12" s="121"/>
+      <c r="FW12" s="121"/>
+      <c r="FX12" s="121"/>
+      <c r="FY12" s="121"/>
+      <c r="FZ12" s="121"/>
+      <c r="GA12" s="121"/>
+      <c r="GB12" s="121"/>
+      <c r="GC12" s="121"/>
+      <c r="GD12" s="121"/>
+      <c r="GE12" s="121"/>
+      <c r="GF12" s="121"/>
+      <c r="GG12" s="121"/>
+      <c r="GH12" s="121"/>
+      <c r="GI12" s="121"/>
+      <c r="GJ12" s="121"/>
+      <c r="GK12" s="121"/>
+      <c r="GL12" s="121"/>
+      <c r="GM12" s="121"/>
+      <c r="GN12" s="121"/>
+      <c r="GO12" s="121"/>
+      <c r="GP12" s="121"/>
+      <c r="GQ12" s="121"/>
+      <c r="GR12" s="121"/>
+      <c r="GS12" s="121"/>
+      <c r="GT12" s="121"/>
+      <c r="GU12" s="121"/>
+      <c r="GV12" s="121"/>
+      <c r="GW12" s="121"/>
+      <c r="GX12" s="121"/>
+      <c r="GY12" s="121"/>
+      <c r="GZ12" s="121"/>
+      <c r="HA12" s="121"/>
+      <c r="HB12" s="121"/>
+      <c r="HC12" s="121"/>
+      <c r="HD12" s="121"/>
+      <c r="HE12" s="121"/>
+      <c r="HF12" s="121"/>
+      <c r="HG12" s="121"/>
+      <c r="HH12" s="121"/>
+      <c r="HI12" s="121"/>
+      <c r="HJ12" s="121"/>
+      <c r="HK12" s="121"/>
+      <c r="HL12" s="121"/>
+      <c r="HM12" s="121"/>
+      <c r="HN12" s="121"/>
+      <c r="HO12" s="121"/>
+      <c r="HP12" s="121"/>
+      <c r="HQ12" s="121"/>
+      <c r="HR12" s="121"/>
+      <c r="HS12" s="121"/>
+      <c r="HT12" s="121"/>
+      <c r="HU12" s="121"/>
+      <c r="HV12" s="121"/>
+      <c r="HW12" s="121"/>
+      <c r="HX12" s="121"/>
+      <c r="HY12" s="121"/>
+      <c r="HZ12" s="121"/>
+      <c r="IA12" s="121"/>
+      <c r="IB12" s="121"/>
+      <c r="IC12" s="121"/>
+      <c r="ID12" s="121"/>
+      <c r="IE12" s="121"/>
+      <c r="IF12" s="121"/>
+      <c r="IG12" s="121"/>
+      <c r="IH12" s="121"/>
+      <c r="II12" s="121"/>
+      <c r="IJ12" s="121"/>
+      <c r="IK12" s="121"/>
+      <c r="IL12" s="121"/>
+      <c r="IM12" s="121"/>
+      <c r="IN12" s="121"/>
+      <c r="IO12" s="121"/>
+      <c r="IP12" s="121"/>
+      <c r="IQ12" s="121"/>
+      <c r="IR12" s="121"/>
     </row>
     <row r="13" spans="1:252" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
     </row>
     <row r="14" spans="1:252" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-    </row>
-    <row r="15" spans="1:252" s="54" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="89" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+    </row>
+    <row r="15" spans="1:252" s="45" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="153"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="153"/>
-      <c r="AF15" s="153"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="153"/>
-      <c r="AJ15" s="153"/>
-      <c r="AK15" s="153"/>
-      <c r="AL15" s="153"/>
-      <c r="AM15" s="153"/>
-      <c r="AN15" s="153"/>
-      <c r="AO15" s="153"/>
-      <c r="AP15" s="153"/>
-      <c r="AQ15" s="153"/>
-      <c r="AR15" s="153"/>
-      <c r="AS15" s="153"/>
-      <c r="AT15" s="153"/>
-      <c r="AU15" s="153"/>
-      <c r="AV15" s="153"/>
-      <c r="AW15" s="153"/>
-      <c r="AX15" s="153"/>
-      <c r="AY15" s="153"/>
-      <c r="AZ15" s="153"/>
-      <c r="BA15" s="153"/>
-      <c r="BB15" s="153"/>
-      <c r="BC15" s="153"/>
-      <c r="BD15" s="153"/>
-      <c r="BE15" s="153"/>
-      <c r="BF15" s="153"/>
-      <c r="BG15" s="153"/>
-      <c r="BH15" s="153"/>
-      <c r="BI15" s="153"/>
-      <c r="BJ15" s="153"/>
-      <c r="BK15" s="153"/>
-      <c r="BL15" s="153"/>
-      <c r="BM15" s="153"/>
-      <c r="BN15" s="153"/>
-      <c r="BO15" s="153"/>
-      <c r="BP15" s="153"/>
-      <c r="BQ15" s="153"/>
-      <c r="BR15" s="153"/>
-      <c r="BS15" s="153"/>
-      <c r="BT15" s="153"/>
-      <c r="BU15" s="153"/>
-      <c r="BV15" s="153"/>
-      <c r="BW15" s="153"/>
-      <c r="BX15" s="153"/>
-      <c r="BY15" s="153"/>
-      <c r="BZ15" s="153"/>
-      <c r="CA15" s="153"/>
-      <c r="CB15" s="153"/>
-      <c r="CC15" s="153"/>
-      <c r="CD15" s="153"/>
-      <c r="CE15" s="153"/>
-      <c r="CF15" s="153"/>
-      <c r="CG15" s="153"/>
-      <c r="CH15" s="153"/>
-      <c r="CI15" s="153"/>
-      <c r="CJ15" s="153"/>
-      <c r="CK15" s="153"/>
-      <c r="CL15" s="153"/>
-      <c r="CM15" s="153"/>
-      <c r="CN15" s="153"/>
-      <c r="CO15" s="153"/>
-      <c r="CP15" s="153"/>
-      <c r="CQ15" s="153"/>
-      <c r="CR15" s="153"/>
-      <c r="CS15" s="153"/>
-      <c r="CT15" s="153"/>
-      <c r="CU15" s="153"/>
-      <c r="CV15" s="153"/>
-      <c r="CW15" s="153"/>
-      <c r="CX15" s="153"/>
-      <c r="CY15" s="153"/>
-      <c r="CZ15" s="153"/>
-      <c r="DA15" s="153"/>
-      <c r="DB15" s="153"/>
-      <c r="DC15" s="153"/>
-      <c r="DD15" s="153"/>
-      <c r="DE15" s="153"/>
-      <c r="DF15" s="153"/>
-      <c r="DG15" s="153"/>
-      <c r="DH15" s="153"/>
-      <c r="DI15" s="153"/>
-      <c r="DJ15" s="153"/>
-      <c r="DK15" s="153"/>
-      <c r="DL15" s="153"/>
-      <c r="DM15" s="153"/>
-      <c r="DN15" s="153"/>
-      <c r="DO15" s="153"/>
-      <c r="DP15" s="153"/>
-      <c r="DQ15" s="153"/>
-      <c r="DR15" s="153"/>
-      <c r="DS15" s="153"/>
-      <c r="DT15" s="153"/>
-      <c r="DU15" s="153"/>
-      <c r="DV15" s="153"/>
-      <c r="DW15" s="153"/>
-      <c r="DX15" s="153"/>
-      <c r="DY15" s="153"/>
-      <c r="DZ15" s="153"/>
-      <c r="EA15" s="153"/>
-      <c r="EB15" s="153"/>
-      <c r="EC15" s="153"/>
-      <c r="ED15" s="153"/>
-      <c r="EE15" s="153"/>
-      <c r="EF15" s="153"/>
-      <c r="EG15" s="153"/>
-      <c r="EH15" s="153"/>
-      <c r="EI15" s="153"/>
-      <c r="EJ15" s="153"/>
-      <c r="EK15" s="153"/>
-      <c r="EL15" s="153"/>
-      <c r="EM15" s="153"/>
-      <c r="EN15" s="153"/>
-      <c r="EO15" s="153"/>
-      <c r="EP15" s="153"/>
-      <c r="EQ15" s="153"/>
-      <c r="ER15" s="153"/>
-      <c r="ES15" s="153"/>
-      <c r="ET15" s="153"/>
-      <c r="EU15" s="153"/>
-      <c r="EV15" s="153"/>
-      <c r="EW15" s="153"/>
-      <c r="EX15" s="153"/>
-      <c r="EY15" s="153"/>
-      <c r="EZ15" s="153"/>
-      <c r="FA15" s="153"/>
-      <c r="FB15" s="153"/>
-      <c r="FC15" s="153"/>
-      <c r="FD15" s="153"/>
-      <c r="FE15" s="153"/>
-      <c r="FF15" s="153"/>
-      <c r="FG15" s="153"/>
-      <c r="FH15" s="153"/>
-      <c r="FI15" s="153"/>
-      <c r="FJ15" s="153"/>
-      <c r="FK15" s="153"/>
-      <c r="FL15" s="153"/>
-      <c r="FM15" s="153"/>
-      <c r="FN15" s="153"/>
-      <c r="FO15" s="153"/>
-      <c r="FP15" s="153"/>
-      <c r="FQ15" s="153"/>
-      <c r="FR15" s="153"/>
-      <c r="FS15" s="153"/>
-      <c r="FT15" s="153"/>
-      <c r="FU15" s="153"/>
-      <c r="FV15" s="153"/>
-      <c r="FW15" s="153"/>
-      <c r="FX15" s="153"/>
-      <c r="FY15" s="153"/>
-      <c r="FZ15" s="153"/>
-      <c r="GA15" s="153"/>
-      <c r="GB15" s="153"/>
-      <c r="GC15" s="153"/>
-      <c r="GD15" s="153"/>
-      <c r="GE15" s="153"/>
-      <c r="GF15" s="153"/>
-      <c r="GG15" s="153"/>
-      <c r="GH15" s="153"/>
-      <c r="GI15" s="153"/>
-      <c r="GJ15" s="153"/>
-      <c r="GK15" s="153"/>
-      <c r="GL15" s="153"/>
-      <c r="GM15" s="153"/>
-      <c r="GN15" s="153"/>
-      <c r="GO15" s="153"/>
-      <c r="GP15" s="153"/>
-      <c r="GQ15" s="153"/>
-      <c r="GR15" s="153"/>
-      <c r="GS15" s="153"/>
-      <c r="GT15" s="153"/>
-      <c r="GU15" s="153"/>
-      <c r="GV15" s="153"/>
-      <c r="GW15" s="153"/>
-      <c r="GX15" s="153"/>
-      <c r="GY15" s="153"/>
-      <c r="GZ15" s="153"/>
-      <c r="HA15" s="153"/>
-      <c r="HB15" s="153"/>
-      <c r="HC15" s="153"/>
-      <c r="HD15" s="153"/>
-      <c r="HE15" s="153"/>
-      <c r="HF15" s="153"/>
-      <c r="HG15" s="153"/>
-      <c r="HH15" s="153"/>
-      <c r="HI15" s="153"/>
-      <c r="HJ15" s="153"/>
-      <c r="HK15" s="153"/>
-      <c r="HL15" s="153"/>
-      <c r="HM15" s="153"/>
-      <c r="HN15" s="153"/>
-      <c r="HO15" s="153"/>
-      <c r="HP15" s="153"/>
-      <c r="HQ15" s="153"/>
-      <c r="HR15" s="153"/>
-      <c r="HS15" s="153"/>
-      <c r="HT15" s="153"/>
-      <c r="HU15" s="153"/>
-      <c r="HV15" s="153"/>
-      <c r="HW15" s="153"/>
-      <c r="HX15" s="153"/>
-      <c r="HY15" s="153"/>
-      <c r="HZ15" s="153"/>
-      <c r="IA15" s="153"/>
-      <c r="IB15" s="153"/>
-      <c r="IC15" s="153"/>
-      <c r="ID15" s="153"/>
-      <c r="IE15" s="153"/>
-      <c r="IF15" s="153"/>
-      <c r="IG15" s="153"/>
-      <c r="IH15" s="153"/>
-      <c r="II15" s="153"/>
-      <c r="IJ15" s="153"/>
-      <c r="IK15" s="153"/>
-      <c r="IL15" s="153"/>
-      <c r="IM15" s="153"/>
-      <c r="IN15" s="153"/>
-      <c r="IO15" s="153"/>
-      <c r="IP15" s="153"/>
-      <c r="IQ15" s="153"/>
-      <c r="IR15" s="153"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="121"/>
+      <c r="AK15" s="121"/>
+      <c r="AL15" s="121"/>
+      <c r="AM15" s="121"/>
+      <c r="AN15" s="121"/>
+      <c r="AO15" s="121"/>
+      <c r="AP15" s="121"/>
+      <c r="AQ15" s="121"/>
+      <c r="AR15" s="121"/>
+      <c r="AS15" s="121"/>
+      <c r="AT15" s="121"/>
+      <c r="AU15" s="121"/>
+      <c r="AV15" s="121"/>
+      <c r="AW15" s="121"/>
+      <c r="AX15" s="121"/>
+      <c r="AY15" s="121"/>
+      <c r="AZ15" s="121"/>
+      <c r="BA15" s="121"/>
+      <c r="BB15" s="121"/>
+      <c r="BC15" s="121"/>
+      <c r="BD15" s="121"/>
+      <c r="BE15" s="121"/>
+      <c r="BF15" s="121"/>
+      <c r="BG15" s="121"/>
+      <c r="BH15" s="121"/>
+      <c r="BI15" s="121"/>
+      <c r="BJ15" s="121"/>
+      <c r="BK15" s="121"/>
+      <c r="BL15" s="121"/>
+      <c r="BM15" s="121"/>
+      <c r="BN15" s="121"/>
+      <c r="BO15" s="121"/>
+      <c r="BP15" s="121"/>
+      <c r="BQ15" s="121"/>
+      <c r="BR15" s="121"/>
+      <c r="BS15" s="121"/>
+      <c r="BT15" s="121"/>
+      <c r="BU15" s="121"/>
+      <c r="BV15" s="121"/>
+      <c r="BW15" s="121"/>
+      <c r="BX15" s="121"/>
+      <c r="BY15" s="121"/>
+      <c r="BZ15" s="121"/>
+      <c r="CA15" s="121"/>
+      <c r="CB15" s="121"/>
+      <c r="CC15" s="121"/>
+      <c r="CD15" s="121"/>
+      <c r="CE15" s="121"/>
+      <c r="CF15" s="121"/>
+      <c r="CG15" s="121"/>
+      <c r="CH15" s="121"/>
+      <c r="CI15" s="121"/>
+      <c r="CJ15" s="121"/>
+      <c r="CK15" s="121"/>
+      <c r="CL15" s="121"/>
+      <c r="CM15" s="121"/>
+      <c r="CN15" s="121"/>
+      <c r="CO15" s="121"/>
+      <c r="CP15" s="121"/>
+      <c r="CQ15" s="121"/>
+      <c r="CR15" s="121"/>
+      <c r="CS15" s="121"/>
+      <c r="CT15" s="121"/>
+      <c r="CU15" s="121"/>
+      <c r="CV15" s="121"/>
+      <c r="CW15" s="121"/>
+      <c r="CX15" s="121"/>
+      <c r="CY15" s="121"/>
+      <c r="CZ15" s="121"/>
+      <c r="DA15" s="121"/>
+      <c r="DB15" s="121"/>
+      <c r="DC15" s="121"/>
+      <c r="DD15" s="121"/>
+      <c r="DE15" s="121"/>
+      <c r="DF15" s="121"/>
+      <c r="DG15" s="121"/>
+      <c r="DH15" s="121"/>
+      <c r="DI15" s="121"/>
+      <c r="DJ15" s="121"/>
+      <c r="DK15" s="121"/>
+      <c r="DL15" s="121"/>
+      <c r="DM15" s="121"/>
+      <c r="DN15" s="121"/>
+      <c r="DO15" s="121"/>
+      <c r="DP15" s="121"/>
+      <c r="DQ15" s="121"/>
+      <c r="DR15" s="121"/>
+      <c r="DS15" s="121"/>
+      <c r="DT15" s="121"/>
+      <c r="DU15" s="121"/>
+      <c r="DV15" s="121"/>
+      <c r="DW15" s="121"/>
+      <c r="DX15" s="121"/>
+      <c r="DY15" s="121"/>
+      <c r="DZ15" s="121"/>
+      <c r="EA15" s="121"/>
+      <c r="EB15" s="121"/>
+      <c r="EC15" s="121"/>
+      <c r="ED15" s="121"/>
+      <c r="EE15" s="121"/>
+      <c r="EF15" s="121"/>
+      <c r="EG15" s="121"/>
+      <c r="EH15" s="121"/>
+      <c r="EI15" s="121"/>
+      <c r="EJ15" s="121"/>
+      <c r="EK15" s="121"/>
+      <c r="EL15" s="121"/>
+      <c r="EM15" s="121"/>
+      <c r="EN15" s="121"/>
+      <c r="EO15" s="121"/>
+      <c r="EP15" s="121"/>
+      <c r="EQ15" s="121"/>
+      <c r="ER15" s="121"/>
+      <c r="ES15" s="121"/>
+      <c r="ET15" s="121"/>
+      <c r="EU15" s="121"/>
+      <c r="EV15" s="121"/>
+      <c r="EW15" s="121"/>
+      <c r="EX15" s="121"/>
+      <c r="EY15" s="121"/>
+      <c r="EZ15" s="121"/>
+      <c r="FA15" s="121"/>
+      <c r="FB15" s="121"/>
+      <c r="FC15" s="121"/>
+      <c r="FD15" s="121"/>
+      <c r="FE15" s="121"/>
+      <c r="FF15" s="121"/>
+      <c r="FG15" s="121"/>
+      <c r="FH15" s="121"/>
+      <c r="FI15" s="121"/>
+      <c r="FJ15" s="121"/>
+      <c r="FK15" s="121"/>
+      <c r="FL15" s="121"/>
+      <c r="FM15" s="121"/>
+      <c r="FN15" s="121"/>
+      <c r="FO15" s="121"/>
+      <c r="FP15" s="121"/>
+      <c r="FQ15" s="121"/>
+      <c r="FR15" s="121"/>
+      <c r="FS15" s="121"/>
+      <c r="FT15" s="121"/>
+      <c r="FU15" s="121"/>
+      <c r="FV15" s="121"/>
+      <c r="FW15" s="121"/>
+      <c r="FX15" s="121"/>
+      <c r="FY15" s="121"/>
+      <c r="FZ15" s="121"/>
+      <c r="GA15" s="121"/>
+      <c r="GB15" s="121"/>
+      <c r="GC15" s="121"/>
+      <c r="GD15" s="121"/>
+      <c r="GE15" s="121"/>
+      <c r="GF15" s="121"/>
+      <c r="GG15" s="121"/>
+      <c r="GH15" s="121"/>
+      <c r="GI15" s="121"/>
+      <c r="GJ15" s="121"/>
+      <c r="GK15" s="121"/>
+      <c r="GL15" s="121"/>
+      <c r="GM15" s="121"/>
+      <c r="GN15" s="121"/>
+      <c r="GO15" s="121"/>
+      <c r="GP15" s="121"/>
+      <c r="GQ15" s="121"/>
+      <c r="GR15" s="121"/>
+      <c r="GS15" s="121"/>
+      <c r="GT15" s="121"/>
+      <c r="GU15" s="121"/>
+      <c r="GV15" s="121"/>
+      <c r="GW15" s="121"/>
+      <c r="GX15" s="121"/>
+      <c r="GY15" s="121"/>
+      <c r="GZ15" s="121"/>
+      <c r="HA15" s="121"/>
+      <c r="HB15" s="121"/>
+      <c r="HC15" s="121"/>
+      <c r="HD15" s="121"/>
+      <c r="HE15" s="121"/>
+      <c r="HF15" s="121"/>
+      <c r="HG15" s="121"/>
+      <c r="HH15" s="121"/>
+      <c r="HI15" s="121"/>
+      <c r="HJ15" s="121"/>
+      <c r="HK15" s="121"/>
+      <c r="HL15" s="121"/>
+      <c r="HM15" s="121"/>
+      <c r="HN15" s="121"/>
+      <c r="HO15" s="121"/>
+      <c r="HP15" s="121"/>
+      <c r="HQ15" s="121"/>
+      <c r="HR15" s="121"/>
+      <c r="HS15" s="121"/>
+      <c r="HT15" s="121"/>
+      <c r="HU15" s="121"/>
+      <c r="HV15" s="121"/>
+      <c r="HW15" s="121"/>
+      <c r="HX15" s="121"/>
+      <c r="HY15" s="121"/>
+      <c r="HZ15" s="121"/>
+      <c r="IA15" s="121"/>
+      <c r="IB15" s="121"/>
+      <c r="IC15" s="121"/>
+      <c r="ID15" s="121"/>
+      <c r="IE15" s="121"/>
+      <c r="IF15" s="121"/>
+      <c r="IG15" s="121"/>
+      <c r="IH15" s="121"/>
+      <c r="II15" s="121"/>
+      <c r="IJ15" s="121"/>
+      <c r="IK15" s="121"/>
+      <c r="IL15" s="121"/>
+      <c r="IM15" s="121"/>
+      <c r="IN15" s="121"/>
+      <c r="IO15" s="121"/>
+      <c r="IP15" s="121"/>
+      <c r="IQ15" s="121"/>
+      <c r="IR15" s="121"/>
     </row>
     <row r="16" spans="1:252" ht="171" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
     </row>
     <row r="18" spans="1:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
     </row>
     <row r="19" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="81" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
     </row>
     <row r="21" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="81" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="79" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="81" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="156" t="s">
+      <c r="A24" s="124" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="79" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="81" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
+      <c r="A27" s="124"/>
     </row>
     <row r="28" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="79" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="157">
+      <c r="A29" s="125">
         <f>(28)/38*100</f>
         <v>73.68421052631578</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="158" t="s">
+      <c r="A30" s="126" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6813,44 +6781,44 @@
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:D56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="88.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="85.85546875" style="45" customWidth="1"/>
-    <col min="6" max="7" width="0" style="37" hidden="1"/>
-    <col min="8" max="8" width="0" style="36" hidden="1"/>
-    <col min="9" max="16" width="0" style="14" hidden="1"/>
-    <col min="17" max="17" width="0" style="15" hidden="1"/>
-    <col min="18" max="19" width="0" style="14" hidden="1"/>
-    <col min="20" max="16378" width="85.85546875" style="14" hidden="1"/>
-    <col min="16379" max="16379" width="25.7109375" style="14" hidden="1"/>
-    <col min="16380" max="16380" width="28.42578125" style="14" hidden="1"/>
-    <col min="16381" max="16381" width="34" style="14" hidden="1"/>
-    <col min="16382" max="16382" width="29.28515625" style="14" hidden="1"/>
-    <col min="16383" max="16383" width="16.5703125" style="14" hidden="1"/>
-    <col min="16384" max="16384" width="85.85546875" style="14" hidden="1"/>
+    <col min="1" max="1" width="6.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="85.85546875" style="36" customWidth="1"/>
+    <col min="6" max="7" width="0" style="28" hidden="1"/>
+    <col min="8" max="8" width="0" style="27" hidden="1"/>
+    <col min="9" max="16" width="0" style="5" hidden="1"/>
+    <col min="17" max="17" width="0" style="6" hidden="1"/>
+    <col min="18" max="19" width="0" style="5" hidden="1"/>
+    <col min="20" max="16378" width="85.85546875" style="5" hidden="1"/>
+    <col min="16379" max="16379" width="25.7109375" style="5" hidden="1"/>
+    <col min="16380" max="16380" width="28.42578125" style="5" hidden="1"/>
+    <col min="16381" max="16381" width="34" style="5" hidden="1"/>
+    <col min="16382" max="16382" width="29.28515625" style="5" hidden="1"/>
+    <col min="16383" max="16383" width="16.5703125" style="5" hidden="1"/>
+    <col min="16384" max="16384" width="85.85546875" style="5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="13" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="185" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="178" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6862,1656 +6830,1732 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="180" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="39"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="39"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="39"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="39"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:19" s="37" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="193" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" s="28" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="Q9" s="108"/>
-    </row>
-    <row r="10" spans="1:19" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="195" t="s">
+      <c r="B9" s="185"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="Q9" s="99"/>
+    </row>
+    <row r="10" spans="1:19" s="13" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="186" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="Q10" s="23"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:19" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="201"/>
-      <c r="C11" s="123" t="s">
+      <c r="B11" s="194"/>
+      <c r="C11" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="199" t="s">
+      <c r="F11" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="199"/>
-      <c r="H11" s="124" t="s">
+      <c r="G11" s="189"/>
+      <c r="H11" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="191" t="s">
+      <c r="A12" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="182" t="s">
+      <c r="B12" s="183"/>
+      <c r="C12" s="190" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:19" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92" t="s">
+      <c r="D12" s="191"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" s="92" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D13" s="95"/>
+      <c r="D13" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E13"/>
-      <c r="F13" s="97">
+      <c r="F13" s="88">
         <f>IF(D13="does not support","list date full support planned, if any &gt;",0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99" t="str">
+      <c r="G13" s="89"/>
+      <c r="H13" s="90">
         <f>IF(D13="Pass",0,IF(D13="criteria not applicable",0,IF(D13="Fail",1,"")))</f>
-        <v/>
-      </c>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="Q13" s="102"/>
-    </row>
-    <row r="14" spans="1:19" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="Q13" s="93"/>
+    </row>
+    <row r="14" spans="1:19" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E14"/>
-      <c r="F14" s="97">
+      <c r="F14" s="88">
         <f>IF(D14="does not support","list date full support planned, if any &gt;",0)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99" t="str">
+      <c r="G14" s="89"/>
+      <c r="H14" s="90">
         <f t="shared" ref="H14:H26" si="0">IF(D14="Pass",0,IF(D14="criteria not applicable",0,IF(D14="Fail",1,"")))</f>
-        <v/>
-      </c>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="Q14" s="102"/>
-    </row>
-    <row r="15" spans="1:19" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="Q14" s="93"/>
+    </row>
+    <row r="15" spans="1:19" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E15"/>
-      <c r="F15" s="97">
+      <c r="F15" s="88">
         <f t="shared" ref="F15:F26" si="1">IF(D15="does not support","list date full support planned, if any &gt;",0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99" t="str">
+      <c r="G15" s="89"/>
+      <c r="H15" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="Q15" s="102"/>
-    </row>
-    <row r="16" spans="1:19" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="Q15" s="93"/>
+    </row>
+    <row r="16" spans="1:19" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E16"/>
-      <c r="F16" s="97">
+      <c r="F16" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99" t="str">
+      <c r="G16" s="89"/>
+      <c r="H16" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="Q16" s="102"/>
-    </row>
-    <row r="17" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="Q16" s="93"/>
+    </row>
+    <row r="17" spans="1:17" s="92" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E17"/>
-      <c r="F17" s="97">
+      <c r="F17" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99" t="str">
+      <c r="G17" s="89"/>
+      <c r="H17" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="Q17" s="102"/>
-    </row>
-    <row r="18" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="Q17" s="93"/>
+    </row>
+    <row r="18" spans="1:17" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E18"/>
-      <c r="F18" s="97">
+      <c r="F18" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99" t="str">
+      <c r="G18" s="89"/>
+      <c r="H18" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="Q18" s="102"/>
-    </row>
-    <row r="19" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="Q18" s="93"/>
+    </row>
+    <row r="19" spans="1:17" s="92" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D19" s="95"/>
+      <c r="D19" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E19"/>
-      <c r="F19" s="97">
+      <c r="F19" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99" t="str">
+      <c r="G19" s="89"/>
+      <c r="H19" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="Q19" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="Q19" s="93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="92" t="s">
+    <row r="20" spans="1:17" s="92" customFormat="1" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="95"/>
+      <c r="D20" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E20"/>
-      <c r="F20" s="97">
+      <c r="F20" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99" t="str">
+      <c r="G20" s="89"/>
+      <c r="H20" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="Q20" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="Q20" s="93" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+    <row r="21" spans="1:17" s="92" customFormat="1" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E21"/>
-      <c r="F21" s="97">
+      <c r="F21" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99" t="str">
+      <c r="G21" s="89"/>
+      <c r="H21" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="Q21" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="Q21" s="93" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="92" t="s">
+    <row r="22" spans="1:17" s="92" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D22" s="95"/>
+      <c r="D22" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E22"/>
-      <c r="F22" s="97">
+      <c r="F22" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99" t="str">
+      <c r="G22" s="89"/>
+      <c r="H22" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="Q22" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="Q22" s="93" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="101" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="92" t="s">
+    <row r="23" spans="1:17" s="92" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A23" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D23" s="95"/>
+      <c r="D23" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E23"/>
-      <c r="F23" s="97">
+      <c r="F23" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99" t="str">
+      <c r="G23" s="89"/>
+      <c r="H23" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="Q23" s="102"/>
-    </row>
-    <row r="24" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="Q23" s="93"/>
+    </row>
+    <row r="24" spans="1:17" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="95"/>
+      <c r="D24" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E24"/>
-      <c r="F24" s="97">
+      <c r="F24" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99" t="str">
+      <c r="G24" s="89"/>
+      <c r="H24" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="Q24" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="Q24" s="93" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="92" t="s">
+    <row r="25" spans="1:17" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="84" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="95"/>
+      <c r="D25" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E25"/>
-      <c r="F25" s="97">
+      <c r="F25" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99" t="str">
+      <c r="G25" s="89"/>
+      <c r="H25" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="Q25" s="102"/>
-    </row>
-    <row r="26" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="Q25" s="93"/>
+    </row>
+    <row r="26" spans="1:17" s="92" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="95"/>
+      <c r="D26" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E26"/>
-      <c r="F26" s="97">
+      <c r="F26" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99" t="str">
+      <c r="G26" s="89"/>
+      <c r="H26" s="90">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="Q26" s="102"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="Q26" s="93"/>
     </row>
     <row r="27" spans="1:17" ht="17.45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="188"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="24">
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="15">
         <f>SUM(H13:H26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="16">
         <f>SUM(H13:H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:17" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="191" t="s">
+      <c r="A28" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="198"/>
-      <c r="C28" s="182" t="s">
+      <c r="B28" s="173"/>
+      <c r="C28" s="190" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" s="101" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="92" t="s">
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" s="92" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A29" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="95"/>
+      <c r="D29" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E29"/>
-      <c r="F29" s="97">
+      <c r="F29" s="88">
         <f t="shared" ref="F29:F40" si="2">IF(D29="does not support","list date full support planned, if any &gt;",0)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99" t="str">
+      <c r="G29" s="89"/>
+      <c r="H29" s="90">
         <f>IF(D29="Pass",0,IF(D29="criteria not applicable",0,IF(D29="Fail",1,"")))</f>
-        <v/>
-      </c>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="Q29" s="102"/>
-    </row>
-    <row r="30" spans="1:17" s="101" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="Q29" s="93"/>
+    </row>
+    <row r="30" spans="1:17" s="92" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A30" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="84" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="95"/>
+      <c r="D30" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E30"/>
-      <c r="F30" s="97">
+      <c r="F30" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99" t="str">
+      <c r="G30" s="89"/>
+      <c r="H30" s="90">
         <f t="shared" ref="H30:H40" si="3">IF(D30="Pass",0,IF(D30="criteria not applicable",0,IF(D30="Fail",1,"")))</f>
-        <v/>
-      </c>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="Q30" s="102"/>
-    </row>
-    <row r="31" spans="1:17" s="101" customFormat="1" ht="211.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="Q30" s="93"/>
+    </row>
+    <row r="31" spans="1:17" s="92" customFormat="1" ht="210" x14ac:dyDescent="0.2">
+      <c r="A31" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="95"/>
+      <c r="D31" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E31"/>
-      <c r="F31" s="97">
+      <c r="F31" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99" t="str">
+      <c r="G31" s="89"/>
+      <c r="H31" s="90">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="Q31" s="102"/>
-    </row>
-    <row r="32" spans="1:17" s="101" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="Q31" s="93"/>
+    </row>
+    <row r="32" spans="1:17" s="92" customFormat="1" ht="150" x14ac:dyDescent="0.2">
+      <c r="A32" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D32" s="95"/>
+      <c r="D32" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E32"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="99" t="str">
+      <c r="F32" s="88"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="Q32" s="102"/>
-    </row>
-    <row r="33" spans="1:17" s="101" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="Q32" s="93"/>
+    </row>
+    <row r="33" spans="1:17" s="92" customFormat="1" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D33" s="95"/>
+      <c r="D33" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E33"/>
-      <c r="F33" s="97">
+      <c r="F33" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G33" s="98"/>
-      <c r="H33" s="99" t="str">
+      <c r="G33" s="89"/>
+      <c r="H33" s="90">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="Q33" s="102"/>
-    </row>
-    <row r="34" spans="1:17" s="101" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="Q33" s="93"/>
+    </row>
+    <row r="34" spans="1:17" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D34" s="95"/>
+      <c r="D34" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E34"/>
-      <c r="F34" s="97">
+      <c r="F34" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G34" s="98"/>
-      <c r="H34" s="99" t="str">
+      <c r="G34" s="89"/>
+      <c r="H34" s="90">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="Q34" s="102"/>
-    </row>
-    <row r="35" spans="1:17" s="101" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="Q34" s="93"/>
+    </row>
+    <row r="35" spans="1:17" s="92" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="95"/>
+      <c r="D35" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E35"/>
-      <c r="F35" s="97">
+      <c r="F35" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="98"/>
-      <c r="H35" s="99" t="str">
+      <c r="G35" s="89"/>
+      <c r="H35" s="90">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="Q35" s="102"/>
-    </row>
-    <row r="36" spans="1:17" s="101" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="Q35" s="93"/>
+    </row>
+    <row r="36" spans="1:17" s="92" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D36" s="95"/>
+      <c r="D36" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E36"/>
-      <c r="F36" s="97">
+      <c r="F36" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G36" s="98"/>
-      <c r="H36" s="99" t="str">
+      <c r="G36" s="89"/>
+      <c r="H36" s="90">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="Q36" s="102"/>
-    </row>
-    <row r="37" spans="1:17" s="101" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="Q36" s="93"/>
+    </row>
+    <row r="37" spans="1:17" s="92" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A37" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D37" s="95"/>
+      <c r="D37" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E37"/>
-      <c r="F37" s="97">
+      <c r="F37" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G37" s="98"/>
-      <c r="H37" s="99" t="str">
+      <c r="G37" s="89"/>
+      <c r="H37" s="90">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="Q37" s="102"/>
-    </row>
-    <row r="38" spans="1:17" s="101" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="Q37" s="93"/>
+    </row>
+    <row r="38" spans="1:17" s="92" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A38" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="94" t="s">
+      <c r="C38" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D38" s="95"/>
+      <c r="D38" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E38"/>
-      <c r="F38" s="97">
+      <c r="F38" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G38" s="98"/>
-      <c r="H38" s="99" t="str">
+      <c r="G38" s="89"/>
+      <c r="H38" s="90">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="Q38" s="102"/>
-    </row>
-    <row r="39" spans="1:17" s="101" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="Q38" s="93"/>
+    </row>
+    <row r="39" spans="1:17" s="92" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D39" s="95"/>
+      <c r="D39" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E39"/>
-      <c r="F39" s="97">
+      <c r="F39" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G39" s="98"/>
-      <c r="H39" s="99" t="str">
+      <c r="G39" s="89"/>
+      <c r="H39" s="90">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="Q39" s="102"/>
-    </row>
-    <row r="40" spans="1:17" s="101" customFormat="1" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="Q39" s="93"/>
+    </row>
+    <row r="40" spans="1:17" s="92" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D40" s="95"/>
+      <c r="D40" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E40"/>
-      <c r="F40" s="97">
+      <c r="F40" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="98"/>
-      <c r="H40" s="99" t="str">
+      <c r="G40" s="89"/>
+      <c r="H40" s="90">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="Q40" s="102"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
+      <c r="Q40" s="93"/>
     </row>
     <row r="41" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="24">
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="15">
         <f>SUM(H29:H40)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="25" t="b">
+      <c r="H41" s="16" t="b">
         <f>G41=G41</f>
         <v>1</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="191" t="s">
+      <c r="A42" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="182" t="s">
+      <c r="B42" s="173"/>
+      <c r="C42" s="190" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="183"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:17" s="101" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="92" t="s">
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" s="92" customFormat="1" ht="30.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D43" s="95"/>
+      <c r="D43" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E43"/>
-      <c r="F43" s="97">
+      <c r="F43" s="88">
         <f t="shared" ref="F43:F56" si="4">IF(D43="does not support","list date full support planned, if any &gt;",0)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="98"/>
-      <c r="H43" s="99" t="str">
+      <c r="G43" s="89"/>
+      <c r="H43" s="90">
         <f>IF(D43="Pass",0,IF(D43="criteria not applicable",0,IF(D43="Fail",1,"")))</f>
-        <v/>
-      </c>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
-      <c r="Q43" s="102"/>
-    </row>
-    <row r="44" spans="1:17" s="101" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="91"/>
+      <c r="Q43" s="93"/>
+    </row>
+    <row r="44" spans="1:17" s="92" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A44" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D44" s="95"/>
+      <c r="D44" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E44"/>
-      <c r="F44" s="97">
+      <c r="F44" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99" t="str">
+      <c r="G44" s="89"/>
+      <c r="H44" s="90">
         <f t="shared" ref="H44:H52" si="5">IF(D44="Pass",0,IF(D44="criteria not applicable",0,IF(D44="Fail",1,"")))</f>
-        <v/>
-      </c>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="Q44" s="102"/>
-    </row>
-    <row r="45" spans="1:17" s="101" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
+      <c r="Q44" s="93"/>
+    </row>
+    <row r="45" spans="1:17" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="94" t="s">
+      <c r="C45" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="95"/>
+      <c r="D45" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E45"/>
-      <c r="F45" s="97">
+      <c r="F45" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G45" s="98"/>
-      <c r="H45" s="99" t="str">
+      <c r="G45" s="89"/>
+      <c r="H45" s="90">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
-      <c r="Q45" s="102"/>
-    </row>
-    <row r="46" spans="1:17" s="101" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="91"/>
+      <c r="Q45" s="93"/>
+    </row>
+    <row r="46" spans="1:17" s="92" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A46" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="94" t="s">
+      <c r="C46" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="95"/>
+      <c r="D46" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E46"/>
-      <c r="F46" s="97">
+      <c r="F46" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G46" s="98"/>
-      <c r="H46" s="99" t="str">
+      <c r="G46" s="89"/>
+      <c r="H46" s="90">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-      <c r="Q46" s="102"/>
-    </row>
-    <row r="47" spans="1:17" s="101" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="Q46" s="93"/>
+    </row>
+    <row r="47" spans="1:17" s="92" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A47" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="93" t="s">
+      <c r="B47" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="94" t="s">
+      <c r="C47" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D47" s="95"/>
+      <c r="D47" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E47"/>
-      <c r="F47" s="97">
+      <c r="F47" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G47" s="98"/>
-      <c r="H47" s="99" t="str">
+      <c r="G47" s="89"/>
+      <c r="H47" s="90">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="100"/>
-      <c r="Q47" s="102"/>
-    </row>
-    <row r="48" spans="1:17" s="101" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="Q47" s="93"/>
+    </row>
+    <row r="48" spans="1:17" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="94" t="s">
+      <c r="C48" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D48" s="95"/>
+      <c r="D48" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E48"/>
-      <c r="F48" s="97">
+      <c r="F48" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G48" s="98"/>
-      <c r="H48" s="99" t="str">
+      <c r="G48" s="89"/>
+      <c r="H48" s="90">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="100"/>
-      <c r="Q48" s="102"/>
-    </row>
-    <row r="49" spans="1:17" s="101" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
+      <c r="L48" s="91"/>
+      <c r="M48" s="91"/>
+      <c r="N48" s="91"/>
+      <c r="Q48" s="93"/>
+    </row>
+    <row r="49" spans="1:17" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="93" t="s">
+      <c r="B49" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="C49" s="94" t="s">
+      <c r="C49" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D49" s="95"/>
+      <c r="D49" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E49"/>
-      <c r="F49" s="97">
+      <c r="F49" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G49" s="98"/>
-      <c r="H49" s="99" t="str">
+      <c r="G49" s="89"/>
+      <c r="H49" s="90">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100"/>
-      <c r="Q49" s="102"/>
-    </row>
-    <row r="50" spans="1:17" s="101" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="91"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="91"/>
+      <c r="Q49" s="93"/>
+    </row>
+    <row r="50" spans="1:17" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="93" t="s">
+      <c r="B50" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="94" t="s">
+      <c r="C50" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D50" s="95"/>
+      <c r="D50" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E50"/>
-      <c r="F50" s="97">
+      <c r="F50" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G50" s="98"/>
-      <c r="H50" s="99" t="str">
+      <c r="G50" s="89"/>
+      <c r="H50" s="90">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="Q50" s="102"/>
-    </row>
-    <row r="51" spans="1:17" s="101" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="91"/>
+      <c r="Q50" s="93"/>
+    </row>
+    <row r="51" spans="1:17" s="92" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A51" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="94" t="s">
+      <c r="C51" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D51" s="95"/>
+      <c r="D51" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E51"/>
-      <c r="F51" s="97">
+      <c r="F51" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G51" s="98"/>
-      <c r="H51" s="99" t="str">
+      <c r="G51" s="89"/>
+      <c r="H51" s="90">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="Q51" s="102"/>
-    </row>
-    <row r="52" spans="1:17" s="101" customFormat="1" ht="146.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="91"/>
+      <c r="Q51" s="93"/>
+    </row>
+    <row r="52" spans="1:17" s="92" customFormat="1" ht="136.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="94" t="s">
+      <c r="C52" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D52" s="95"/>
+      <c r="D52" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E52"/>
-      <c r="F52" s="97">
+      <c r="F52" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G52" s="98"/>
-      <c r="H52" s="99" t="str">
+      <c r="G52" s="89"/>
+      <c r="H52" s="90">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="100"/>
-      <c r="N52" s="100"/>
-      <c r="Q52" s="102"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="91"/>
+      <c r="M52" s="91"/>
+      <c r="N52" s="91"/>
+      <c r="Q52" s="93"/>
     </row>
     <row r="53" spans="1:17" ht="74.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="187" t="s">
+      <c r="A53" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="188"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="188"/>
-      <c r="G53" s="25">
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="16">
         <f>SUM(H43:H52)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="25" t="e">
+      <c r="H53" s="16">
         <f>AVERAGE(H43:H52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
     </row>
     <row r="54" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="208" t="s">
+      <c r="A54" s="170" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="209"/>
-      <c r="C54" s="205" t="s">
+      <c r="B54" s="171"/>
+      <c r="C54" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="206"/>
-      <c r="E54" s="206"/>
-      <c r="F54" s="206"/>
-      <c r="G54" s="206"/>
-      <c r="H54" s="207"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-    </row>
-    <row r="55" spans="1:17" s="101" customFormat="1" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="92" t="s">
+      <c r="D54" s="168"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="168"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="169"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:17" s="92" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A55" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="105" t="s">
+      <c r="B55" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="94" t="s">
+      <c r="C55" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D55" s="95"/>
+      <c r="D55" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E55"/>
-      <c r="F55" s="97">
+      <c r="F55" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G55" s="98"/>
-      <c r="H55" s="99" t="str">
+      <c r="G55" s="89"/>
+      <c r="H55" s="90">
         <f>IF(D55="Pass",0,IF(D55="criteria not applicable",0,IF(D55="Fail",1,"")))</f>
-        <v/>
-      </c>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="100"/>
-      <c r="M55" s="100"/>
-      <c r="N55" s="100"/>
-      <c r="Q55" s="102"/>
-    </row>
-    <row r="56" spans="1:17" s="101" customFormat="1" ht="83.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="91"/>
+      <c r="N55" s="91"/>
+      <c r="Q55" s="93"/>
+    </row>
+    <row r="56" spans="1:17" s="92" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="94" t="s">
+      <c r="C56" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D56" s="95"/>
+      <c r="D56" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="E56"/>
-      <c r="F56" s="97">
+      <c r="F56" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G56" s="98"/>
-      <c r="H56" s="99" t="str">
+      <c r="G56" s="89"/>
+      <c r="H56" s="90">
         <f>IF(D56="Pass",0,IF(D56="criteria not applicable",0,IF(D56="Fail",1,"")))</f>
-        <v/>
-      </c>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="100"/>
-      <c r="M56" s="100"/>
-      <c r="N56" s="100"/>
-      <c r="Q56" s="102"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="91"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="91"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="91"/>
+      <c r="N56" s="91"/>
+      <c r="Q56" s="93"/>
     </row>
     <row r="57" spans="1:17" ht="43.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="187" t="s">
+      <c r="A57" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="188"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="188"/>
-      <c r="G57" s="24">
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="15">
         <f>SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="27" t="e">
+      <c r="H57" s="18">
         <f>AVERAGE(H55:H56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
     </row>
     <row r="58" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="210" t="s">
+      <c r="A58" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="211"/>
-      <c r="C58" s="211"/>
-      <c r="D58" s="211"/>
-      <c r="E58" s="211"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="181"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
+      <c r="B58" s="175"/>
+      <c r="C58" s="175"/>
+      <c r="D58" s="175"/>
+      <c r="E58" s="175"/>
+      <c r="F58" s="212"/>
+      <c r="G58" s="213"/>
+      <c r="H58" s="214"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
     </row>
     <row r="59" spans="1:17" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="169"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="176" t="s">
+      <c r="A59" s="202"/>
+      <c r="B59" s="203"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="209" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="177"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="29">
+      <c r="E59" s="210"/>
+      <c r="F59" s="211"/>
+      <c r="G59" s="20">
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="30"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
     </row>
     <row r="60" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="171"/>
-      <c r="B60" s="172"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="173" t="s">
+      <c r="A60" s="204"/>
+      <c r="B60" s="205"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="206" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="174"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
+      <c r="E60" s="207"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
     </row>
     <row r="61" spans="1:17" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="171"/>
-      <c r="B61" s="172"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="173" t="s">
+      <c r="A61" s="204"/>
+      <c r="B61" s="205"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="174"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
+      <c r="E61" s="207"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
     </row>
     <row r="62" spans="1:17" ht="39.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="171"/>
-      <c r="B62" s="172"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="175" t="s">
+      <c r="A62" s="204"/>
+      <c r="B62" s="205"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="174"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
+      <c r="E62" s="207"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
     </row>
     <row r="63" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="40">
+      <c r="A63" s="32"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="31">
         <f>SUM(H13:H26)+SUM(H29:H40)+SUM(H43:H52)+SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="167" t="s">
+      <c r="E63" s="200" t="s">
         <v>154</v>
       </c>
-      <c r="F63" s="167"/>
-      <c r="G63" s="168"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
+      <c r="F63" s="200"/>
+      <c r="G63" s="201"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
     </row>
     <row r="64" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="161" t="s">
+      <c r="A64" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="162"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
+      <c r="B64" s="199"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
     </row>
     <row r="65" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
-      <c r="B65" s="111" t="s">
+      <c r="A65" s="8"/>
+      <c r="B65" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="106"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
     </row>
     <row r="66" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="111" t="s">
+      <c r="A66" s="8"/>
+      <c r="B66" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="109" t="s">
+      <c r="A67" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="B67" s="110"/>
-      <c r="C67" s="107"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="98"/>
     </row>
     <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
@@ -8530,17 +8574,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C42:H42"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A2:B2"/>
@@ -8557,22 +8606,17 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="F43:F52 F55:F56 F13:F26 F29:F40">
     <cfRule type="cellIs" dxfId="42" priority="371" operator="equal">
@@ -8734,7 +8778,7 @@
   </conditionalFormatting>
   <dataValidations xWindow="1400" yWindow="731" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="anticipated date of compliance. Format: M/DD/YYYY" sqref="G13:G26 G29:G40 G43:G52 G55:G56" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D26 D43:D52 D29:D40 D55:D56" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43:D52 D29:D40 D13:D26 D55:D56" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$Q$20:$Q$22</formula1>
     </dataValidation>
   </dataValidations>
@@ -8772,7 +8816,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.5703125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="67.5703125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -8785,7 +8829,7 @@
       <c r="A3"/>
     </row>
     <row r="4" spans="1:1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
+      <c r="A4" s="82"/>
     </row>
     <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
@@ -8806,7 +8850,7 @@
       <c r="A10"/>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="105" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8814,54 +8858,54 @@
       <c r="A12"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="144" t="s">
+      <c r="A13" s="113" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="96"/>
+      <c r="A14" s="87"/>
     </row>
     <row r="15" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="96"/>
+      <c r="A15" s="87"/>
     </row>
     <row r="16" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="96"/>
+      <c r="A16" s="87"/>
     </row>
     <row r="17" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="96"/>
+      <c r="A17" s="87"/>
     </row>
     <row r="18" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="96"/>
+      <c r="A18" s="87"/>
     </row>
     <row r="19" spans="1:1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="114" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="144"/>
+      <c r="A20" s="113"/>
     </row>
     <row r="21" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96"/>
+      <c r="A21" s="87"/>
     </row>
     <row r="22" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="96"/>
+      <c r="A22" s="87"/>
     </row>
     <row r="23" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="96"/>
+      <c r="A23" s="87"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="113" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="87" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96"/>
+      <c r="A26" s="87"/>
     </row>
     <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
@@ -8870,46 +8914,46 @@
       <c r="A28"/>
     </row>
     <row r="29" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="96"/>
+      <c r="A29" s="87"/>
     </row>
     <row r="30" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="96"/>
+      <c r="A30" s="87"/>
     </row>
     <row r="31" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="96"/>
+      <c r="A31" s="87"/>
     </row>
     <row r="32" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="96"/>
+      <c r="A32" s="87"/>
     </row>
     <row r="33" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
+      <c r="A33" s="87"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="144" t="s">
+      <c r="A34" s="113" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="96"/>
+      <c r="A35" s="87"/>
     </row>
     <row r="36" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="96"/>
+      <c r="A36" s="87"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="144" t="s">
+      <c r="A37" s="113" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="96"/>
+      <c r="A38" s="87"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="144" t="s">
+      <c r="A39" s="113" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="96"/>
+      <c r="A40" s="87"/>
     </row>
     <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
@@ -8918,36 +8962,36 @@
       <c r="A42"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="144" t="s">
+      <c r="A43" s="113" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="96"/>
+      <c r="A44" s="87"/>
     </row>
     <row r="45" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="96"/>
+      <c r="A45" s="87"/>
     </row>
     <row r="46" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="96"/>
+      <c r="A46" s="87"/>
     </row>
     <row r="47" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="96"/>
+      <c r="A47" s="87"/>
     </row>
     <row r="48" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="96"/>
+      <c r="A48" s="87"/>
     </row>
     <row r="49" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="96"/>
+      <c r="A49" s="87"/>
     </row>
     <row r="50" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="96"/>
+      <c r="A50" s="87"/>
     </row>
     <row r="51" spans="1:1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="96"/>
+      <c r="A51" s="87"/>
     </row>
     <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="144"/>
+      <c r="A52" s="113"/>
     </row>
     <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53"/>
@@ -8956,12 +9000,12 @@
       <c r="A54"/>
     </row>
     <row r="55" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="145" t="s">
+      <c r="A55" s="114" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="87" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8987,13 +9031,13 @@
       <c r="A63"/>
     </row>
     <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
+      <c r="A64" s="35"/>
     </row>
     <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="44"/>
+      <c r="A65" s="35"/>
     </row>
     <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="44"/>
+      <c r="A66" s="35"/>
     </row>
     <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
@@ -9063,46 +9107,46 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A5:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.42578125" style="2" hidden="1"/>
+    <col min="1" max="1" width="10.42578125" style="134" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="134" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="134" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="134" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="134" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="160" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="134" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="134" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="134" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.42578125" style="134" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="130" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="216" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+    </row>
+    <row r="2" spans="1:20" s="135" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="215" t="s">
         <v>200</v>
       </c>
@@ -9113,538 +9157,471 @@
       <c r="F2" s="215"/>
       <c r="G2" s="215"/>
       <c r="H2" s="215"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="2" t="s">
+      <c r="I2" s="131"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20" s="113" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="s">
+      <c r="T2" s="132"/>
+    </row>
+    <row r="3" spans="1:20" s="137" customFormat="1" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="113" t="s">
+      <c r="O3" s="137" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="113" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="136"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="141"/>
-      <c r="L4" s="118" t="s">
+    <row r="4" spans="1:20" s="137" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="144"/>
+      <c r="L4" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="113" t="s">
+      <c r="M4" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="113" t="s">
+      <c r="O4" s="137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="117" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="141"/>
-      <c r="L5" s="160" t="s">
+    <row r="5" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="138"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="144"/>
+      <c r="L5" s="152" t="s">
         <v>252</v>
       </c>
-      <c r="M5" s="117" t="s">
+      <c r="M5" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="117" t="s">
+      <c r="O5" s="146" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="117" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="L6" s="119" t="s">
+    <row r="6" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="138"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="L6" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="M6" s="117" t="s">
+      <c r="M6" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="117" t="s">
+      <c r="O6" s="146" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="114"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="O7" s="117" t="s">
+    <row r="7" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="138"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="O7" s="146" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="114"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="O8" s="117" t="s">
+    <row r="8" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="138"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="O8" s="146" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="114"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="O9" s="117" t="s">
+    <row r="9" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="138"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="O9" s="146" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="O10" s="117" t="s">
+    <row r="10" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="138"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="O10" s="146" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="114"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="O11" s="117" t="s">
+    <row r="11" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="138"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="O11" s="146" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="114"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="O12" s="117" t="s">
+    <row r="12" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="138"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="O12" s="146" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="O13" s="117" t="s">
+    <row r="13" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="138"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="O13" s="146" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="O14" s="117" t="s">
+    <row r="14" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="138"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="O14" s="146" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="O15" s="117" t="s">
+    <row r="15" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="138"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="O15" s="146" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="O16" s="117" t="s">
+    <row r="16" spans="1:20" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="138"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="O16" s="146" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="O17" s="117" t="s">
+    <row r="17" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="138"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="O17" s="146" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="O18" s="117" t="s">
+    <row r="18" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="138"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="O18" s="146" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="114"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="O19" s="117" t="s">
+    <row r="19" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="138"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="O19" s="146" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="114"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="O20" s="117" t="s">
+    <row r="20" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="138"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="O20" s="146" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="120"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="O21" s="117" t="s">
+    <row r="21" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="157"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="O21" s="146" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="O22" s="117" t="s">
+    <row r="22" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="138"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="O22" s="146" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="O23" s="117" t="s">
+    <row r="23" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="150"/>
+      <c r="O23" s="146" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="O24" s="117" t="s">
+    <row r="24" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="158"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="150"/>
+      <c r="O24" s="146" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="O25" s="117" t="s">
+    <row r="25" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="150"/>
+      <c r="O25" s="146" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="O26" s="117" t="s">
+    <row r="26" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="150"/>
+      <c r="O26" s="146" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="O27" s="117" t="s">
+    <row r="27" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="150"/>
+      <c r="O27" s="146" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="O28" s="117" t="s">
+    <row r="28" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="150"/>
+      <c r="O28" s="146" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="O29" s="117" t="s">
+    <row r="29" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="150"/>
+      <c r="O29" s="146" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="O30" s="117" t="s">
+    <row r="30" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="150"/>
+      <c r="O30" s="146" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="O31" s="117" t="s">
+    <row r="31" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="150"/>
+      <c r="O31" s="146" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="O32" s="117" t="s">
+    <row r="32" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="150"/>
+      <c r="O32" s="146" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="O33" s="117" t="s">
+    <row r="33" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="150"/>
+      <c r="O33" s="146" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="O34" s="117" t="s">
+    <row r="34" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="150"/>
+      <c r="O34" s="146" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="O35" s="117" t="s">
+    <row r="35" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="150"/>
+      <c r="O35" s="146" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="O36" s="117" t="s">
+    <row r="36" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="150"/>
+      <c r="O36" s="146" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="O37" s="117" t="s">
+    <row r="37" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="158"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="150"/>
+      <c r="O37" s="146" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="114"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="O38" s="117" t="s">
+    <row r="38" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="150"/>
+      <c r="O38" s="146" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="117" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="120"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+    <row r="39" spans="1:15" s="146" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="157"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="150"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="159"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="134" t="s">
         <v>88</v>
       </c>
     </row>
@@ -9694,52 +9671,11 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9965,11 +9901,52 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9994,9 +9971,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10022,9 +9999,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D3747C-BDC7-48F7-9B5A-BD9117F21569}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5D2D22-6D00-46CD-B7EA-B8CE8E1546D9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
